--- a/717A11_data_in_temp.xlsx
+++ b/717A11_data_in_temp.xlsx
@@ -88,6 +88,8 @@
     <definedName name="SummerPPDemand">Sheet2!$CL$18:$CN$43</definedName>
     <definedName name="SummerSolarFactor">Sheet2!$N$55</definedName>
     <definedName name="UnitsByBus">Sheet2!$C$57:$E$100</definedName>
+    <definedName name="vehicle_CO2_no_subsidy">Sheet2!$V$7</definedName>
+    <definedName name="vehicle_CO2_subsidy">Sheet2!$V$8</definedName>
     <definedName name="wind_cap_factor">Sheet2!$L$5</definedName>
     <definedName name="wind_inc">Sheet2!$Q$3</definedName>
     <definedName name="WindBuildTime">Sheet2!$Q$6</definedName>
@@ -115,30 +117,6 @@
   </authors>
   <commentList>
     <comment ref="Q4" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Lenovo User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Placeholder value</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -867,7 +845,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -883,6 +861,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1018,7 +1002,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1139,10 +1123,57 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1154,55 +1185,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -1487,8 +1472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+    <sheetView tabSelected="1" topLeftCell="Z49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AL69" sqref="AL69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1522,18 +1507,18 @@
       <c r="C1" s="6">
         <v>3</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="54"/>
+      <c r="F1" s="57"/>
       <c r="G1" s="14">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I1" s="54" t="s">
+      <c r="I1" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
       <c r="L1" s="15">
         <v>7256200.8565999996</v>
       </c>
@@ -1544,11 +1529,11 @@
       <c r="Q1" s="26">
         <v>0.95</v>
       </c>
-      <c r="S1" s="54" t="s">
+      <c r="S1" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
       <c r="V1" s="24">
         <v>8809340386.1000004</v>
       </c>
@@ -1560,14 +1545,14 @@
       <c r="C2" s="6">
         <v>3</v>
       </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
       <c r="G2" s="25"/>
-      <c r="I2" s="54" t="s">
+      <c r="I2" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
       <c r="L2" s="23">
         <f>L1*0.25</f>
         <v>1814050.2141499999</v>
@@ -1579,11 +1564,11 @@
       <c r="Q2" s="26">
         <v>50</v>
       </c>
-      <c r="S2" s="54" t="s">
+      <c r="S2" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
       <c r="V2" s="27">
         <v>348494.96600000001</v>
       </c>
@@ -1601,13 +1586,13 @@
       <c r="F3" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="I3" s="54" t="s">
+      <c r="I3" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
       <c r="L3" s="10">
-        <v>8.9999999999999993E-3</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="O3" s="39"/>
       <c r="P3" s="34" t="s">
@@ -1616,11 +1601,11 @@
       <c r="Q3" s="26">
         <v>10</v>
       </c>
-      <c r="S3" s="54" t="s">
+      <c r="S3" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
       <c r="V3" s="28">
         <v>2066077.2990000001</v>
       </c>
@@ -1649,11 +1634,11 @@
       <c r="G4" s="6">
         <v>4198</v>
       </c>
-      <c r="I4" s="54" t="s">
+      <c r="I4" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
       <c r="L4" s="15">
         <v>0.75</v>
       </c>
@@ -1664,11 +1649,11 @@
       <c r="Q4" s="26">
         <v>300</v>
       </c>
-      <c r="S4" s="54" t="s">
+      <c r="S4" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="T4" s="54"/>
-      <c r="U4" s="54"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
       <c r="V4" s="27">
         <f>0.86*2489249.757</f>
         <v>2140754.7910200004</v>
@@ -1687,13 +1672,13 @@
       <c r="G5" s="6">
         <v>3726</v>
       </c>
-      <c r="I5" s="54" t="s">
+      <c r="I5" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
       <c r="L5" s="15">
-        <v>0.25</v>
+        <v>0.24169708766606912</v>
       </c>
       <c r="O5" s="39"/>
       <c r="P5" s="34" t="s">
@@ -1702,11 +1687,11 @@
       <c r="Q5" s="26">
         <v>1</v>
       </c>
-      <c r="S5" s="54" t="s">
+      <c r="S5" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="T5" s="54"/>
-      <c r="U5" s="54"/>
+      <c r="T5" s="57"/>
+      <c r="U5" s="57"/>
       <c r="V5" s="27">
         <f>0.17*2489249.757</f>
         <v>423172.45869000006</v>
@@ -1728,11 +1713,11 @@
       <c r="G6" s="6">
         <v>4765</v>
       </c>
-      <c r="I6" s="54" t="s">
+      <c r="I6" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
       <c r="L6" s="15">
         <v>1</v>
       </c>
@@ -1743,11 +1728,11 @@
       <c r="Q6" s="26">
         <v>3</v>
       </c>
-      <c r="S6" s="54" t="s">
+      <c r="S6" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="T6" s="54"/>
-      <c r="U6" s="54"/>
+      <c r="T6" s="57"/>
+      <c r="U6" s="57"/>
       <c r="V6" s="27">
         <f>(18000/25)*8.8*2.20462</f>
         <v>13968.472320000001</v>
@@ -1772,11 +1757,11 @@
       <c r="Q7" s="26">
         <v>3</v>
       </c>
-      <c r="S7" s="54" t="s">
+      <c r="S7" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="T7" s="54"/>
-      <c r="U7" s="54"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="57"/>
       <c r="V7" s="27">
         <v>13563822358</v>
       </c>
@@ -1797,20 +1782,20 @@
       <c r="G8" s="6">
         <v>5974</v>
       </c>
-      <c r="I8" s="54" t="s">
+      <c r="I8" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
       <c r="L8" s="47">
         <v>15.24</v>
       </c>
       <c r="O8" s="39"/>
-      <c r="S8" s="54" t="s">
+      <c r="S8" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="T8" s="54"/>
-      <c r="U8" s="54"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="57"/>
       <c r="V8" s="27">
         <v>2681220699</v>
       </c>
@@ -1827,21 +1812,21 @@
       <c r="G9" s="6">
         <v>5009</v>
       </c>
-      <c r="I9" s="54" t="s">
+      <c r="I9" s="57" t="s">
         <v>154</v>
       </c>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
       <c r="L9" s="47">
         <v>9.83</v>
       </c>
       <c r="O9" s="39"/>
-      <c r="S9" s="73" t="s">
+      <c r="S9" s="58" t="s">
         <v>174</v>
       </c>
-      <c r="T9" s="74"/>
-      <c r="U9" s="74"/>
-      <c r="V9" s="75">
+      <c r="T9" s="59"/>
+      <c r="U9" s="59"/>
+      <c r="V9" s="54">
         <v>0</v>
       </c>
       <c r="BU9" s="34" t="s">
@@ -1858,11 +1843,11 @@
       <c r="G10" s="6">
         <v>4359</v>
       </c>
-      <c r="I10" s="54" t="s">
+      <c r="I10" s="57" t="s">
         <v>155</v>
       </c>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
       <c r="L10" s="27">
         <v>0.73499999999999999</v>
       </c>
@@ -1881,11 +1866,11 @@
       <c r="G11" s="6">
         <v>3780</v>
       </c>
-      <c r="I11" s="54" t="s">
+      <c r="I11" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
       <c r="L11" s="27">
         <v>0.65249999999999997</v>
       </c>
@@ -1899,11 +1884,11 @@
       <c r="F12" s="34"/>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
-      <c r="I12" s="55" t="s">
+      <c r="I12" s="76" t="s">
         <v>157</v>
       </c>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
       <c r="L12" s="27">
         <v>0.81</v>
       </c>
@@ -2053,24 +2038,24 @@
       </c>
     </row>
     <row r="16" spans="2:103" x14ac:dyDescent="0.35">
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="57" t="s">
         <v>139</v>
       </c>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54" t="s">
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57" t="s">
         <v>173</v>
       </c>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="54"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
       <c r="S16" s="50" t="s">
         <v>101</v>
       </c>
@@ -2143,11 +2128,11 @@
       </c>
       <c r="CT16" s="50"/>
       <c r="CU16" s="51"/>
-      <c r="CW16" s="54" t="s">
+      <c r="CW16" s="57" t="s">
         <v>175</v>
       </c>
-      <c r="CX16" s="54"/>
-      <c r="CY16" s="54"/>
+      <c r="CX16" s="57"/>
+      <c r="CY16" s="57"/>
     </row>
     <row r="17" spans="2:103" x14ac:dyDescent="0.35">
       <c r="B17" s="42" t="s">
@@ -2798,152 +2783,152 @@
       </c>
       <c r="R19" s="44">
         <f t="shared" si="2"/>
-        <v>658.34499007499983</v>
+        <v>663.38259007499994</v>
       </c>
       <c r="S19" s="44">
         <f t="shared" si="3"/>
-        <v>2194.4833002499995</v>
+        <v>2211.2753002499999</v>
       </c>
       <c r="T19" s="44">
         <f t="shared" si="4"/>
-        <v>1536.1383101749996</v>
+        <v>1547.8927101749998</v>
       </c>
       <c r="U19" s="12">
         <f t="shared" ref="U19:U43" si="40">U18*(1+$L$3)</f>
-        <v>4235.7819999999992</v>
+        <v>4269.366</v>
       </c>
       <c r="W19" s="4">
         <v>2021</v>
       </c>
       <c r="X19" s="44">
         <f t="shared" si="5"/>
-        <v>586.90779007499987</v>
+        <v>591.37899007499993</v>
       </c>
       <c r="Y19" s="44">
         <f t="shared" si="6"/>
-        <v>1956.3593002499997</v>
+        <v>1971.2633002499997</v>
       </c>
       <c r="Z19" s="44">
         <f t="shared" si="7"/>
-        <v>1369.4515101749996</v>
+        <v>1379.8843101749997</v>
       </c>
       <c r="AA19" s="12">
         <f>AA18*(1+$L$3)</f>
-        <v>3759.5339999999997</v>
+        <v>3789.3419999999996</v>
       </c>
       <c r="AC19" s="4">
         <v>2021</v>
       </c>
       <c r="AD19" s="44">
         <f t="shared" si="8"/>
-        <v>744.16044007499988</v>
+        <v>749.87844007499984</v>
       </c>
       <c r="AE19" s="44">
         <f t="shared" si="9"/>
-        <v>2480.5348002499995</v>
+        <v>2499.5948002499995</v>
       </c>
       <c r="AF19" s="44">
         <f t="shared" si="10"/>
-        <v>1736.3743601749995</v>
+        <v>1749.7163601749996</v>
       </c>
       <c r="AG19" s="12">
         <f t="shared" ref="AG19:AG43" si="41">AG18*(1+$L$3)</f>
-        <v>4807.8849999999993</v>
+        <v>4846.0049999999992</v>
       </c>
       <c r="AI19" s="4">
         <v>2021</v>
       </c>
       <c r="AJ19" s="44">
         <f t="shared" si="11"/>
-        <v>635.94519007499991</v>
+        <v>640.80519007499981</v>
       </c>
       <c r="AK19" s="44">
         <f t="shared" si="12"/>
-        <v>2119.8173002499998</v>
+        <v>2136.0173002499996</v>
       </c>
       <c r="AL19" s="44">
         <f t="shared" si="13"/>
-        <v>1483.8721101749998</v>
+        <v>1495.2121101749997</v>
       </c>
       <c r="AM19" s="12">
         <f>AM18*(1+$L$3)</f>
-        <v>4086.4499999999994</v>
+        <v>4118.8499999999995</v>
       </c>
       <c r="AO19" s="4">
         <v>2021</v>
       </c>
       <c r="AP19" s="44">
         <f t="shared" si="14"/>
-        <v>927.14259007499982</v>
+        <v>934.31139007499974</v>
       </c>
       <c r="AQ19" s="44">
         <f t="shared" si="15"/>
-        <v>3090.4753002499997</v>
+        <v>3114.3713002499994</v>
       </c>
       <c r="AR19" s="44">
         <f t="shared" si="16"/>
-        <v>2163.3327101749996</v>
+        <v>2180.0599101749995</v>
       </c>
       <c r="AS19" s="12">
         <f t="shared" ref="AS19:AS43" si="42">AS18*(1+$L$3)</f>
-        <v>6027.7659999999996</v>
+        <v>6075.5579999999991</v>
       </c>
       <c r="AU19" s="4">
         <v>2021</v>
       </c>
       <c r="AV19" s="44">
         <f t="shared" si="17"/>
-        <v>781.08984007499987</v>
+        <v>787.10064007499989</v>
       </c>
       <c r="AW19" s="44">
         <f t="shared" si="18"/>
-        <v>2603.6328002499995</v>
+        <v>2623.6688002499995</v>
       </c>
       <c r="AX19" s="44">
         <f t="shared" si="19"/>
-        <v>1822.5429601749995</v>
+        <v>1836.5681601749995</v>
       </c>
       <c r="AY19" s="12">
         <f>AY18*(1+$L$3)</f>
-        <v>5054.0809999999992</v>
+        <v>5094.1529999999993</v>
       </c>
       <c r="BA19" s="4">
         <v>2021</v>
       </c>
       <c r="BB19" s="44">
         <f t="shared" si="20"/>
-        <v>682.71234007499993</v>
+        <v>687.94314007499986</v>
       </c>
       <c r="BC19" s="44">
         <f t="shared" si="21"/>
-        <v>2275.7078002499998</v>
+        <v>2293.1438002499995</v>
       </c>
       <c r="BD19" s="44">
         <f t="shared" si="22"/>
-        <v>1592.9954601749998</v>
+        <v>1605.2006601749995</v>
       </c>
       <c r="BE19" s="12">
         <f t="shared" ref="BE19:BE43" si="43">BE18*(1+$L$3)</f>
-        <v>4398.2309999999998</v>
+        <v>4433.1029999999992</v>
       </c>
       <c r="BG19" s="4">
         <v>2021</v>
       </c>
       <c r="BH19" s="44">
         <f t="shared" si="23"/>
-        <v>595.08069007499989</v>
+        <v>599.61669007499995</v>
       </c>
       <c r="BI19" s="44">
         <f t="shared" si="24"/>
-        <v>1983.6023002499996</v>
+        <v>1998.72230025</v>
       </c>
       <c r="BJ19" s="44">
         <f t="shared" si="25"/>
-        <v>1388.5216101749998</v>
+        <v>1399.1056101749998</v>
       </c>
       <c r="BK19" s="12">
         <f>BK18*(1+$L$3)</f>
-        <v>3814.0199999999995</v>
+        <v>3844.2599999999998</v>
       </c>
       <c r="BM19" s="4">
         <v>2021</v>
@@ -2986,76 +2971,76 @@
       </c>
       <c r="BZ19" s="44">
         <f t="shared" si="26"/>
-        <v>959.68284007499983</v>
+        <v>967.1096400749999</v>
       </c>
       <c r="CA19" s="44">
         <f t="shared" si="27"/>
-        <v>3198.9428002499994</v>
+        <v>3223.6988002499997</v>
       </c>
       <c r="CB19" s="44">
         <f t="shared" si="28"/>
-        <v>2239.2599601749994</v>
+        <v>2256.5891601749995</v>
       </c>
       <c r="CC19" s="12">
         <f t="shared" ref="CC19:CC43" si="50">CC18*(1+$L$3)</f>
-        <v>6244.7009999999991</v>
+        <v>6294.2129999999997</v>
       </c>
       <c r="CE19" s="4">
         <v>2021</v>
       </c>
       <c r="CF19" s="44">
         <f t="shared" si="29"/>
-        <v>1075.0115400749999</v>
+        <v>1083.3527400749999</v>
       </c>
       <c r="CG19" s="44">
         <f t="shared" si="30"/>
-        <v>3583.3718002499995</v>
+        <v>3611.1758002499996</v>
       </c>
       <c r="CH19" s="44">
         <f t="shared" si="31"/>
-        <v>2508.3602601749994</v>
+        <v>2527.8230601749997</v>
       </c>
       <c r="CI19" s="12">
         <f>CI18*(1+$L$3)</f>
-        <v>7013.5589999999993</v>
+        <v>7069.1669999999995</v>
       </c>
       <c r="CK19" s="4">
         <v>2021</v>
       </c>
       <c r="CL19" s="44">
         <f t="shared" si="32"/>
-        <v>1175.9619900749997</v>
+        <v>1185.1035900749998</v>
       </c>
       <c r="CM19" s="44">
         <f t="shared" si="33"/>
-        <v>3919.8733002499994</v>
+        <v>3950.3453002499996</v>
       </c>
       <c r="CN19" s="44">
         <f t="shared" si="34"/>
-        <v>2743.9113101749995</v>
+        <v>2765.2417101749998</v>
       </c>
       <c r="CO19" s="12">
         <f t="shared" ref="CO19:CO43" si="51">CO18*(1+$L$3)</f>
-        <v>7686.561999999999</v>
+        <v>7747.5059999999994</v>
       </c>
       <c r="CQ19" s="4">
         <v>2021</v>
       </c>
       <c r="CR19" s="44">
         <f t="shared" si="35"/>
-        <v>1029.9092400749998</v>
+        <v>1037.8928400749999</v>
       </c>
       <c r="CS19" s="44">
         <f t="shared" si="36"/>
-        <v>3433.0308002499996</v>
+        <v>3459.6428002499997</v>
       </c>
       <c r="CT19" s="44">
         <f t="shared" si="37"/>
-        <v>2403.1215601749996</v>
+        <v>2421.7499601749996</v>
       </c>
       <c r="CU19" s="12">
         <f>CU18*(1+$L$3)</f>
-        <v>6712.8769999999995</v>
+        <v>6766.1009999999997</v>
       </c>
       <c r="CW19">
         <v>2021</v>
@@ -3124,152 +3109,152 @@
       </c>
       <c r="R20" s="44">
         <f t="shared" si="2"/>
-        <v>675.55214080499979</v>
+        <v>685.75831840499984</v>
       </c>
       <c r="S20" s="44">
         <f t="shared" si="3"/>
-        <v>2251.8404693499992</v>
+        <v>2285.8610613499995</v>
       </c>
       <c r="T20" s="44">
         <f t="shared" si="4"/>
-        <v>1576.2883285449993</v>
+        <v>1600.1027429449996</v>
       </c>
       <c r="U20" s="12">
         <f t="shared" si="40"/>
-        <v>4273.9040379999988</v>
+        <v>4341.9452219999994</v>
       </c>
       <c r="W20" s="4">
         <v>2022</v>
       </c>
       <c r="X20" s="44">
         <f t="shared" si="5"/>
-        <v>603.47200600499991</v>
+        <v>612.5306572049999</v>
       </c>
       <c r="Y20" s="44">
         <f t="shared" si="6"/>
-        <v>2011.5733533499997</v>
+        <v>2041.7688573499997</v>
       </c>
       <c r="Z20" s="44">
         <f t="shared" si="7"/>
-        <v>1408.1013473449998</v>
+        <v>1429.2382001449998</v>
       </c>
       <c r="AA20" s="12">
         <f t="shared" ref="AA20:AA43" si="52">AA19*(1+$L$3)</f>
-        <v>3793.3698059999992</v>
+        <v>3853.7608139999993</v>
       </c>
       <c r="AC20" s="4">
         <v>2022</v>
       </c>
       <c r="AD20" s="44">
         <f t="shared" si="8"/>
-        <v>762.13992985499976</v>
+        <v>773.72459785499973</v>
       </c>
       <c r="AE20" s="44">
         <f t="shared" si="9"/>
-        <v>2540.4664328499994</v>
+        <v>2579.0819928499991</v>
       </c>
       <c r="AF20" s="44">
         <f t="shared" si="10"/>
-        <v>1778.3265029949994</v>
+        <v>1805.3573949949991</v>
       </c>
       <c r="AG20" s="12">
         <f t="shared" si="41"/>
-        <v>4851.155964999999</v>
+        <v>4928.3870849999985</v>
       </c>
       <c r="AI20" s="4">
         <v>2022</v>
       </c>
       <c r="AJ20" s="44">
         <f t="shared" si="11"/>
-        <v>652.95074260499973</v>
+        <v>662.79710260499985</v>
       </c>
       <c r="AK20" s="44">
         <f t="shared" si="12"/>
-        <v>2176.5024753499993</v>
+        <v>2209.3236753499996</v>
       </c>
       <c r="AL20" s="44">
         <f t="shared" si="13"/>
-        <v>1523.5517327449993</v>
+        <v>1546.5265727449996</v>
       </c>
       <c r="AM20" s="12">
         <f t="shared" ref="AM20:AM43" si="53">AM19*(1+$L$3)</f>
-        <v>4123.2280499999988</v>
+        <v>4188.8704499999994</v>
       </c>
       <c r="AO20" s="4">
         <v>2022</v>
       </c>
       <c r="AP20" s="44">
         <f t="shared" si="14"/>
-        <v>946.76891920499975</v>
+        <v>961.29290800499973</v>
       </c>
       <c r="AQ20" s="44">
         <f t="shared" si="15"/>
-        <v>3155.8963973499995</v>
+        <v>3204.3096933499992</v>
       </c>
       <c r="AR20" s="44">
         <f t="shared" si="16"/>
-        <v>2209.1274781449993</v>
+        <v>2243.0167853449993</v>
       </c>
       <c r="AS20" s="12">
         <f t="shared" si="42"/>
-        <v>6082.0158939999992</v>
+        <v>6178.8424859999986</v>
       </c>
       <c r="AU20" s="4">
         <v>2022</v>
       </c>
       <c r="AV20" s="44">
         <f t="shared" si="17"/>
-        <v>799.40169445499976</v>
+        <v>811.57957525499967</v>
       </c>
       <c r="AW20" s="44">
         <f t="shared" si="18"/>
-        <v>2664.6723148499991</v>
+        <v>2705.2652508499991</v>
       </c>
       <c r="AX20" s="44">
         <f t="shared" si="19"/>
-        <v>1865.2706203949992</v>
+        <v>1893.6856755949993</v>
       </c>
       <c r="AY20" s="12">
         <f t="shared" ref="AY20:AY43" si="54">AY19*(1+$L$3)</f>
-        <v>5099.5677289999985</v>
+        <v>5180.7536009999985</v>
       </c>
       <c r="BA20" s="4">
         <v>2022</v>
       </c>
       <c r="BB20" s="44">
         <f t="shared" si="20"/>
-        <v>700.13879695499975</v>
+        <v>710.73639775499976</v>
       </c>
       <c r="BC20" s="44">
         <f t="shared" si="21"/>
-        <v>2333.7959898499994</v>
+        <v>2369.1213258499993</v>
       </c>
       <c r="BD20" s="44">
         <f t="shared" si="22"/>
-        <v>1633.6571928949995</v>
+        <v>1658.3849280949994</v>
       </c>
       <c r="BE20" s="12">
         <f t="shared" si="43"/>
-        <v>4437.8150789999991</v>
+        <v>4508.4657509999988</v>
       </c>
       <c r="BG20" s="4">
         <v>2022</v>
       </c>
       <c r="BH20" s="44">
         <f t="shared" si="23"/>
-        <v>611.71846210499984</v>
+        <v>620.90839810499983</v>
       </c>
       <c r="BI20" s="44">
         <f t="shared" si="24"/>
-        <v>2039.0615403499996</v>
+        <v>2069.6946603499996</v>
       </c>
       <c r="BJ20" s="44">
         <f t="shared" si="25"/>
-        <v>1427.3430782449996</v>
+        <v>1448.7862622449995</v>
       </c>
       <c r="BK20" s="12">
         <f t="shared" ref="BK20:BK43" si="55">BK19*(1+$L$3)</f>
-        <v>3848.3461799999991</v>
+        <v>3909.6124199999995</v>
       </c>
       <c r="BM20" s="4">
         <v>2022</v>
@@ -3312,76 +3297,76 @@
       </c>
       <c r="BZ20" s="44">
         <f t="shared" si="26"/>
-        <v>979.60203145499963</v>
+        <v>994.64872825499981</v>
       </c>
       <c r="CA20" s="44">
         <f t="shared" si="27"/>
-        <v>3265.3401048499991</v>
+        <v>3315.4957608499994</v>
       </c>
       <c r="CB20" s="44">
         <f t="shared" si="28"/>
-        <v>2285.738073394999</v>
+        <v>2320.8470325949993</v>
       </c>
       <c r="CC20" s="12">
         <f t="shared" si="50"/>
-        <v>6300.9033089999984</v>
+        <v>6401.2146209999992</v>
       </c>
       <c r="CE20" s="4">
         <v>2022</v>
       </c>
       <c r="CF20" s="44">
         <f t="shared" si="29"/>
-        <v>1095.9686897549996</v>
+        <v>1112.8679609549997</v>
       </c>
       <c r="CG20" s="44">
         <f t="shared" si="30"/>
-        <v>3653.228965849999</v>
+        <v>3709.5598698499994</v>
       </c>
       <c r="CH20" s="44">
         <f t="shared" si="31"/>
-        <v>2557.260276094999</v>
+        <v>2596.6919088949994</v>
       </c>
       <c r="CI20" s="12">
         <f t="shared" ref="CI20:CI43" si="56">CI19*(1+$L$3)</f>
-        <v>7076.6810309999983</v>
+        <v>7189.342838999999</v>
       </c>
       <c r="CK20" s="4">
         <v>2022</v>
       </c>
       <c r="CL20" s="44">
         <f t="shared" si="32"/>
-        <v>1197.8276938049996</v>
+        <v>1216.3485754049998</v>
       </c>
       <c r="CM20" s="44">
         <f t="shared" si="33"/>
-        <v>3992.7589793499988</v>
+        <v>4054.4952513499993</v>
       </c>
       <c r="CN20" s="44">
         <f t="shared" si="34"/>
-        <v>2794.9312855449989</v>
+        <v>2838.1466759449995</v>
       </c>
       <c r="CO20" s="12">
         <f t="shared" si="51"/>
-        <v>7755.7410579999978</v>
+        <v>7879.2136019999989</v>
       </c>
       <c r="CQ20" s="4">
         <v>2022</v>
       </c>
       <c r="CR20" s="44">
         <f t="shared" si="35"/>
-        <v>1050.4604690549997</v>
+        <v>1066.6352426549997</v>
       </c>
       <c r="CS20" s="44">
         <f t="shared" si="36"/>
-        <v>3501.5348968499993</v>
+        <v>3555.4508088499992</v>
       </c>
       <c r="CT20" s="44">
         <f t="shared" si="37"/>
-        <v>2451.0744277949993</v>
+        <v>2488.8155661949995</v>
       </c>
       <c r="CU20" s="12">
         <f t="shared" ref="CU20:CU43" si="57">CU19*(1+$L$3)</f>
-        <v>6773.2928929999989</v>
+        <v>6881.1247169999988</v>
       </c>
       <c r="CW20">
         <v>2022</v>
@@ -3450,152 +3435,152 @@
       </c>
       <c r="R21" s="44">
         <f t="shared" si="2"/>
-        <v>692.81075628629969</v>
+        <v>708.31912375109971</v>
       </c>
       <c r="S21" s="44">
         <f t="shared" si="3"/>
-        <v>2309.3691876209991</v>
+        <v>2361.0637458369993</v>
       </c>
       <c r="T21" s="44">
         <f t="shared" si="4"/>
-        <v>1616.5584313346992</v>
+        <v>1652.7446220858994</v>
       </c>
       <c r="U21" s="12">
         <f t="shared" si="40"/>
-        <v>4312.3691743419986</v>
+        <v>4415.7582907739989</v>
       </c>
       <c r="W21" s="4">
         <v>2023</v>
       </c>
       <c r="X21" s="44">
         <f t="shared" si="5"/>
-        <v>620.08190027309979</v>
+        <v>633.84659231069975</v>
       </c>
       <c r="Y21" s="44">
         <f t="shared" si="6"/>
-        <v>2066.9396675769995</v>
+        <v>2112.8219743689992</v>
       </c>
       <c r="Z21" s="44">
         <f t="shared" si="7"/>
-        <v>1446.8577673038994</v>
+        <v>1478.9753820582994</v>
       </c>
       <c r="AA21" s="12">
         <f t="shared" si="52"/>
-        <v>3827.5101342539988</v>
+        <v>3919.2747478379988</v>
       </c>
       <c r="AC21" s="4">
         <v>2023</v>
       </c>
       <c r="AD21" s="44">
         <f t="shared" si="8"/>
-        <v>780.17783543774965</v>
+        <v>797.78082995174964</v>
       </c>
       <c r="AE21" s="44">
         <f t="shared" si="9"/>
-        <v>2600.5927847924991</v>
+        <v>2659.2694331724988</v>
       </c>
       <c r="AF21" s="44">
         <f t="shared" si="10"/>
-        <v>1820.4149493547493</v>
+        <v>1861.4886032207489</v>
       </c>
       <c r="AG21" s="12">
         <f t="shared" si="41"/>
-        <v>4894.8163686849985</v>
+        <v>5012.1696654449979</v>
       </c>
       <c r="AI21" s="4">
         <v>2023</v>
       </c>
       <c r="AJ21" s="44">
         <f t="shared" si="11"/>
-        <v>670.00594550249969</v>
+        <v>684.96756728249977</v>
       </c>
       <c r="AK21" s="44">
         <f t="shared" si="12"/>
-        <v>2233.353151674999</v>
+        <v>2283.2252242749992</v>
       </c>
       <c r="AL21" s="44">
         <f t="shared" si="13"/>
-        <v>1563.3472061724992</v>
+        <v>1598.2576569924993</v>
       </c>
       <c r="AM21" s="12">
         <f t="shared" si="53"/>
-        <v>4160.3371024499984</v>
+        <v>4260.0812476499987</v>
       </c>
       <c r="AO21" s="4">
         <v>2023</v>
       </c>
       <c r="AP21" s="44">
         <f t="shared" si="14"/>
-        <v>966.46848569189967</v>
+        <v>988.53780137429965</v>
       </c>
       <c r="AQ21" s="44">
         <f t="shared" si="15"/>
-        <v>3221.561618972999</v>
+        <v>3295.1260045809991</v>
       </c>
       <c r="AR21" s="44">
         <f t="shared" si="16"/>
-        <v>2255.0931332810992</v>
+        <v>2306.5882032066993</v>
       </c>
       <c r="AS21" s="12">
         <f t="shared" si="42"/>
-        <v>6136.7540370459983</v>
+        <v>6283.8828082619984</v>
       </c>
       <c r="AU21" s="4">
         <v>2023</v>
       </c>
       <c r="AV21" s="44">
         <f t="shared" si="17"/>
-        <v>817.77495591914965</v>
+        <v>836.27934196754961</v>
       </c>
       <c r="AW21" s="44">
         <f t="shared" si="18"/>
-        <v>2725.9165197304987</v>
+        <v>2787.5978065584986</v>
       </c>
       <c r="AX21" s="44">
         <f t="shared" si="19"/>
-        <v>1908.141563811349</v>
+        <v>1951.3184645909489</v>
       </c>
       <c r="AY21" s="12">
         <f t="shared" si="54"/>
-        <v>5145.4638385609978</v>
+        <v>5268.8264122169976</v>
       </c>
       <c r="BA21" s="4">
         <v>2023</v>
       </c>
       <c r="BB21" s="44">
         <f t="shared" si="20"/>
-        <v>717.61869234164976</v>
+        <v>733.72183045004977</v>
       </c>
       <c r="BC21" s="44">
         <f t="shared" si="21"/>
-        <v>2392.0623078054991</v>
+        <v>2445.7394348334992</v>
       </c>
       <c r="BD21" s="44">
         <f t="shared" si="22"/>
-        <v>1674.4436154638493</v>
+        <v>1712.0176043834495</v>
       </c>
       <c r="BE21" s="12">
         <f t="shared" si="43"/>
-        <v>4477.7554147109986</v>
+        <v>4585.1096687669988</v>
       </c>
       <c r="BG21" s="4">
         <v>2023</v>
       </c>
       <c r="BH21" s="44">
         <f t="shared" si="23"/>
-        <v>628.40257447799968</v>
+        <v>642.3667548059999</v>
       </c>
       <c r="BI21" s="44">
         <f t="shared" si="24"/>
-        <v>2094.6752482599991</v>
+        <v>2141.2225160199996</v>
       </c>
       <c r="BJ21" s="44">
         <f t="shared" si="25"/>
-        <v>1466.2726737819992</v>
+        <v>1498.8557612139996</v>
       </c>
       <c r="BK21" s="12">
         <f t="shared" si="55"/>
-        <v>3882.9812956199985</v>
+        <v>3976.0758311399991</v>
       </c>
       <c r="BM21" s="4">
         <v>2023</v>
@@ -3638,76 +3623,76 @@
       </c>
       <c r="BZ21" s="44">
         <f t="shared" si="26"/>
-        <v>999.59709595214952</v>
+        <v>1022.4606705685496</v>
       </c>
       <c r="CA21" s="44">
         <f t="shared" si="27"/>
-        <v>3331.9903198404986</v>
+        <v>3408.2022352284989</v>
       </c>
       <c r="CB21" s="44">
         <f t="shared" si="28"/>
-        <v>2332.393223888349</v>
+        <v>2385.7415646599493</v>
       </c>
       <c r="CC21" s="12">
         <f t="shared" si="50"/>
-        <v>6357.6114387809976</v>
+        <v>6510.0352695569982</v>
       </c>
       <c r="CE21" s="4">
         <v>2023</v>
       </c>
       <c r="CF21" s="44">
         <f t="shared" si="29"/>
-        <v>1117.0110541768495</v>
+        <v>1142.6896302244497</v>
       </c>
       <c r="CG21" s="44">
         <f t="shared" si="30"/>
-        <v>3723.3701805894984</v>
+        <v>3808.9654340814991</v>
       </c>
       <c r="CH21" s="44">
         <f t="shared" si="31"/>
-        <v>2606.3591264126489</v>
+        <v>2666.2758038570491</v>
       </c>
       <c r="CI21" s="12">
         <f t="shared" si="56"/>
-        <v>7140.3711602789972</v>
+        <v>7311.5616672629985</v>
       </c>
       <c r="CK21" s="4">
         <v>2023</v>
       </c>
       <c r="CL21" s="44">
         <f t="shared" si="32"/>
-        <v>1219.7867892632994</v>
+        <v>1247.9294151200995</v>
       </c>
       <c r="CM21" s="44">
         <f t="shared" si="33"/>
-        <v>4065.9559642109984</v>
+        <v>4159.7647170669989</v>
       </c>
       <c r="CN21" s="44">
         <f t="shared" si="34"/>
-        <v>2846.1691749476986</v>
+        <v>2911.8353019468991</v>
       </c>
       <c r="CO21" s="12">
         <f t="shared" si="51"/>
-        <v>7825.5427275219972</v>
+        <v>8013.160233233998</v>
       </c>
       <c r="CQ21" s="4">
         <v>2023</v>
       </c>
       <c r="CR21" s="44">
         <f t="shared" si="35"/>
-        <v>1071.0932594905496</v>
+        <v>1095.6709557133497</v>
       </c>
       <c r="CS21" s="44">
         <f t="shared" si="36"/>
-        <v>3570.3108649684991</v>
+        <v>3652.2365190444989</v>
       </c>
       <c r="CT21" s="44">
         <f t="shared" si="37"/>
-        <v>2499.2176054779493</v>
+        <v>2556.565563331149</v>
       </c>
       <c r="CU21" s="12">
         <f t="shared" si="57"/>
-        <v>6834.2525290369986</v>
+        <v>6998.1038371889981</v>
       </c>
       <c r="CW21">
         <v>2023</v>
@@ -3776,152 +3761,152 @@
       </c>
       <c r="R22" s="44">
         <f t="shared" si="2"/>
-        <v>710.12129970166131</v>
+        <v>731.06815242257335</v>
       </c>
       <c r="S22" s="44">
         <f t="shared" si="3"/>
-        <v>2367.0709990055379</v>
+        <v>2436.8938414085778</v>
       </c>
       <c r="T22" s="44">
         <f t="shared" si="4"/>
-        <v>1656.9496993038765</v>
+        <v>1705.8256889860045</v>
       </c>
       <c r="U22" s="12">
         <f t="shared" si="40"/>
-        <v>4351.1804969110763</v>
+        <v>4490.826181717156</v>
       </c>
       <c r="W22" s="4">
         <v>2024</v>
       </c>
       <c r="X22" s="44">
         <f t="shared" si="5"/>
-        <v>636.7378839843426</v>
+        <v>655.3295879476866</v>
       </c>
       <c r="Y22" s="44">
         <f t="shared" si="6"/>
-        <v>2122.4596132811421</v>
+        <v>2184.431959825622</v>
       </c>
       <c r="Z22" s="44">
         <f t="shared" si="7"/>
-        <v>1485.7217292967994</v>
+        <v>1529.1023718779354</v>
       </c>
       <c r="AA22" s="12">
         <f t="shared" si="52"/>
-        <v>3861.9577254622845</v>
+        <v>3985.9024185512444</v>
       </c>
       <c r="AC22" s="4">
         <v>2024</v>
       </c>
       <c r="AD22" s="44">
         <f t="shared" si="8"/>
-        <v>798.27468256547445</v>
+        <v>822.05070762863431</v>
       </c>
       <c r="AE22" s="44">
         <f t="shared" si="9"/>
-        <v>2660.9156085515815</v>
+        <v>2740.169025428781</v>
       </c>
       <c r="AF22" s="44">
         <f t="shared" si="10"/>
-        <v>1862.6409259861068</v>
+        <v>1918.1183178001465</v>
       </c>
       <c r="AG22" s="12">
         <f t="shared" si="41"/>
-        <v>4938.8697160031634</v>
+        <v>5097.3765497575623</v>
       </c>
       <c r="AI22" s="4">
         <v>2024</v>
       </c>
       <c r="AJ22" s="44">
         <f t="shared" si="11"/>
-        <v>687.11124562080715</v>
+        <v>707.31961949400716</v>
       </c>
       <c r="AK22" s="44">
         <f t="shared" si="12"/>
-        <v>2290.3708187360239</v>
+        <v>2357.732064980024</v>
       </c>
       <c r="AL22" s="44">
         <f t="shared" si="13"/>
-        <v>1603.2595731152167</v>
+        <v>1650.4124454860166</v>
       </c>
       <c r="AM22" s="12">
         <f t="shared" si="53"/>
-        <v>4197.7801363720482</v>
+        <v>4332.5026288600484</v>
       </c>
       <c r="AO22" s="4">
         <v>2024</v>
       </c>
       <c r="AP22" s="44">
         <f t="shared" si="14"/>
-        <v>986.2419486719117</v>
+        <v>1016.0505475653677</v>
       </c>
       <c r="AQ22" s="44">
         <f t="shared" si="15"/>
-        <v>3287.4731622397057</v>
+        <v>3386.8351585512255</v>
       </c>
       <c r="AR22" s="44">
         <f t="shared" si="16"/>
-        <v>2301.2312135677939</v>
+        <v>2370.7846109858579</v>
       </c>
       <c r="AS22" s="12">
         <f t="shared" si="42"/>
-        <v>6191.9848233794119</v>
+        <v>6390.7088160024514</v>
       </c>
       <c r="AU22" s="4">
         <v>2024</v>
       </c>
       <c r="AV22" s="44">
         <f t="shared" si="17"/>
-        <v>836.21017713120682</v>
+        <v>861.20369434870292</v>
       </c>
       <c r="AW22" s="44">
         <f t="shared" si="18"/>
-        <v>2787.3672571040229</v>
+        <v>2870.678981162343</v>
       </c>
       <c r="AX22" s="44">
         <f t="shared" si="19"/>
-        <v>1951.1570799728158</v>
+        <v>2009.47528681364</v>
       </c>
       <c r="AY22" s="12">
         <f t="shared" si="54"/>
-        <v>5191.7730131080461</v>
+        <v>5358.3964612246864</v>
       </c>
       <c r="BA22" s="4">
         <v>2024</v>
       </c>
       <c r="BB22" s="44">
         <f t="shared" si="20"/>
-        <v>735.15250718150958</v>
+        <v>756.90270513540554</v>
       </c>
       <c r="BC22" s="44">
         <f t="shared" si="21"/>
-        <v>2450.5083572716985</v>
+        <v>2523.0090171180186</v>
       </c>
       <c r="BD22" s="44">
         <f t="shared" si="22"/>
-        <v>1715.3558500901888</v>
+        <v>1766.1063119826129</v>
       </c>
       <c r="BE22" s="12">
         <f t="shared" si="43"/>
-        <v>4518.0552134433974</v>
+        <v>4663.0565331360376</v>
       </c>
       <c r="BG22" s="4">
         <v>2024</v>
       </c>
       <c r="BH22" s="44">
         <f t="shared" si="23"/>
-        <v>645.13344425708669</v>
+        <v>663.99459320540677</v>
       </c>
       <c r="BI22" s="44">
         <f t="shared" si="24"/>
-        <v>2150.444814190289</v>
+        <v>2213.3153106846894</v>
       </c>
       <c r="BJ22" s="44">
         <f t="shared" si="25"/>
-        <v>1505.3113699332023</v>
+        <v>1549.3207174792824</v>
       </c>
       <c r="BK22" s="12">
         <f t="shared" si="55"/>
-        <v>3917.9281272805779</v>
+        <v>4043.6691202693787</v>
       </c>
       <c r="BM22" s="4">
         <v>2024</v>
@@ -3964,76 +3949,76 @@
       </c>
       <c r="BZ22" s="44">
         <f t="shared" si="26"/>
-        <v>1019.6687164245038</v>
+        <v>1050.55010553592</v>
       </c>
       <c r="CA22" s="44">
         <f t="shared" si="27"/>
-        <v>3398.8957214150128</v>
+        <v>3501.8336851197332</v>
       </c>
       <c r="CB22" s="44">
         <f t="shared" si="28"/>
-        <v>2379.2270049905087</v>
+        <v>2451.2835795838132</v>
       </c>
       <c r="CC22" s="12">
         <f t="shared" si="50"/>
-        <v>6414.8299417300259</v>
+        <v>6620.7058691394668</v>
       </c>
       <c r="CE22" s="4">
         <v>2024</v>
       </c>
       <c r="CF22" s="44">
         <f t="shared" si="29"/>
-        <v>1138.1394002732261</v>
+        <v>1172.8229575059702</v>
       </c>
       <c r="CG22" s="44">
         <f t="shared" si="30"/>
-        <v>3793.7980009107537</v>
+        <v>3909.4098583532341</v>
       </c>
       <c r="CH22" s="44">
         <f t="shared" si="31"/>
-        <v>2655.6586006375273</v>
+        <v>2736.5869008472637</v>
       </c>
       <c r="CI22" s="12">
         <f t="shared" si="56"/>
-        <v>7204.6345007215077</v>
+        <v>7435.8582156064685</v>
       </c>
       <c r="CK22" s="4">
         <v>2024</v>
       </c>
       <c r="CL22" s="44">
         <f t="shared" si="32"/>
-        <v>1241.8401169754541</v>
+        <v>1279.8518187448465</v>
       </c>
       <c r="CM22" s="44">
         <f t="shared" si="33"/>
-        <v>4139.4670565848473</v>
+        <v>4266.1727291494881</v>
       </c>
       <c r="CN22" s="44">
         <f t="shared" si="34"/>
-        <v>2897.626939609393</v>
+        <v>2986.3209104046414</v>
       </c>
       <c r="CO22" s="12">
         <f t="shared" si="51"/>
-        <v>7895.9726120696942</v>
+        <v>8149.3839571989756</v>
       </c>
       <c r="CQ22" s="4">
         <v>2024</v>
       </c>
       <c r="CR22" s="44">
         <f t="shared" si="35"/>
-        <v>1091.8083454347495</v>
+        <v>1125.0049655281814</v>
       </c>
       <c r="CS22" s="44">
         <f t="shared" si="36"/>
-        <v>3639.3611514491654</v>
+        <v>3750.0165517606051</v>
       </c>
       <c r="CT22" s="44">
         <f t="shared" si="37"/>
-        <v>2547.5528060144156</v>
+        <v>2625.0115862324233</v>
       </c>
       <c r="CU22" s="12">
         <f t="shared" si="57"/>
-        <v>6895.7608017983312</v>
+        <v>7117.0716024212106</v>
       </c>
       <c r="CW22">
         <v>2024</v>
@@ -4102,152 +4087,152 @@
       </c>
       <c r="R23" s="44">
         <f t="shared" si="2"/>
-        <v>727.48423841749127</v>
+        <v>754.00860423095207</v>
       </c>
       <c r="S23" s="44">
         <f t="shared" si="3"/>
-        <v>2424.9474613916377</v>
+        <v>2513.3620141031738</v>
       </c>
       <c r="T23" s="44">
         <f t="shared" si="4"/>
-        <v>1697.4632229741462</v>
+        <v>1759.3534098722216</v>
       </c>
       <c r="U23" s="12">
         <f t="shared" si="40"/>
-        <v>4390.3411213832751</v>
+        <v>4567.1702268063473</v>
       </c>
       <c r="W23" s="4">
         <v>2025</v>
       </c>
       <c r="X23" s="44">
         <f t="shared" si="5"/>
-        <v>653.44037195871681</v>
+        <v>676.98248415999228</v>
       </c>
       <c r="Y23" s="44">
         <f t="shared" si="6"/>
-        <v>2178.1345731957226</v>
+        <v>2256.6082805333076</v>
       </c>
       <c r="Z23" s="44">
         <f t="shared" si="7"/>
-        <v>1524.6942012370057</v>
+        <v>1579.6257963733153</v>
       </c>
       <c r="AA23" s="12">
         <f t="shared" si="52"/>
-        <v>3896.7153449914449</v>
+        <v>4053.6627596666153</v>
       </c>
       <c r="AC23" s="4">
         <v>2025</v>
       </c>
       <c r="AD23" s="44">
         <f t="shared" si="8"/>
-        <v>816.43100172707875</v>
+        <v>846.53786287551611</v>
       </c>
       <c r="AE23" s="44">
         <f t="shared" si="9"/>
-        <v>2721.4366724235961</v>
+        <v>2821.7928762517204</v>
       </c>
       <c r="AF23" s="44">
         <f t="shared" si="10"/>
-        <v>1905.0056706965172</v>
+        <v>1975.255013376204</v>
       </c>
       <c r="AG23" s="12">
         <f t="shared" si="41"/>
-        <v>4983.3195434471918</v>
+        <v>5184.0319511034404</v>
       </c>
       <c r="AI23" s="4">
         <v>2025</v>
       </c>
       <c r="AJ23" s="44">
         <f t="shared" si="11"/>
-        <v>704.26709384990943</v>
+        <v>729.85634624260035</v>
       </c>
       <c r="AK23" s="44">
         <f t="shared" si="12"/>
-        <v>2347.5569794996982</v>
+        <v>2432.8544874753347</v>
       </c>
       <c r="AL23" s="44">
         <f t="shared" si="13"/>
-        <v>1643.2898856497886</v>
+        <v>1702.9981412327343</v>
       </c>
       <c r="AM23" s="12">
         <f t="shared" si="53"/>
-        <v>4235.560157599396</v>
+        <v>4406.1551735506691</v>
       </c>
       <c r="AO23" s="4">
         <v>2025</v>
       </c>
       <c r="AP23" s="44">
         <f t="shared" si="14"/>
-        <v>1006.0899732284739</v>
+        <v>1043.8357000911737</v>
       </c>
       <c r="AQ23" s="44">
         <f t="shared" si="15"/>
-        <v>3353.6332440949132</v>
+        <v>3479.4523336372463</v>
       </c>
       <c r="AR23" s="44">
         <f t="shared" si="16"/>
-        <v>2347.5432708664389</v>
+        <v>2435.6166335460721</v>
       </c>
       <c r="AS23" s="12">
         <f t="shared" si="42"/>
-        <v>6247.712686789826</v>
+        <v>6499.3508658744922</v>
       </c>
       <c r="AU23" s="4">
         <v>2025</v>
       </c>
       <c r="AV23" s="44">
         <f t="shared" si="17"/>
-        <v>854.70791574390273</v>
+        <v>886.35645036982589</v>
       </c>
       <c r="AW23" s="44">
         <f t="shared" si="18"/>
-        <v>2849.0263858130093</v>
+        <v>2954.5215012327531</v>
       </c>
       <c r="AX23" s="44">
         <f t="shared" si="19"/>
-        <v>1994.3184700691063</v>
+        <v>2068.1650508629268</v>
       </c>
       <c r="AY23" s="12">
         <f t="shared" si="54"/>
-        <v>5238.4989702260182</v>
+        <v>5449.4892010655058</v>
       </c>
       <c r="BA23" s="4">
         <v>2025</v>
       </c>
       <c r="BB23" s="44">
         <f t="shared" si="20"/>
-        <v>752.74072676465812</v>
+        <v>780.28234433990247</v>
       </c>
       <c r="BC23" s="44">
         <f t="shared" si="21"/>
-        <v>2509.1357558821937</v>
+        <v>2600.941147799675</v>
       </c>
       <c r="BD23" s="44">
         <f t="shared" si="22"/>
-        <v>1756.3950291175356</v>
+        <v>1820.6588034597723</v>
       </c>
       <c r="BE23" s="12">
         <f t="shared" si="43"/>
-        <v>4558.7177103643871</v>
+        <v>4742.3284941993497</v>
       </c>
       <c r="BG23" s="4">
         <v>2025</v>
       </c>
       <c r="BH23" s="44">
         <f t="shared" si="23"/>
-        <v>661.91149227391543</v>
+        <v>685.79479450709368</v>
       </c>
       <c r="BI23" s="44">
         <f t="shared" si="24"/>
-        <v>2206.3716409130516</v>
+        <v>2285.9826483569791</v>
       </c>
       <c r="BJ23" s="44">
         <f t="shared" si="25"/>
-        <v>1544.4601486391359</v>
+        <v>1600.1878538498852</v>
       </c>
       <c r="BK23" s="12">
         <f t="shared" si="55"/>
-        <v>3953.1894804261028</v>
+        <v>4112.4114953139579</v>
       </c>
       <c r="BM23" s="4">
         <v>2025</v>
@@ -4290,76 +4275,76 @@
       </c>
       <c r="BZ23" s="44">
         <f t="shared" si="26"/>
-        <v>1039.8175818908394</v>
+        <v>1078.9217505472254</v>
       </c>
       <c r="CA23" s="44">
         <f t="shared" si="27"/>
-        <v>3466.0586063027981</v>
+        <v>3596.4058351574186</v>
       </c>
       <c r="CB23" s="44">
         <f t="shared" si="28"/>
-        <v>2426.2410244119587</v>
+        <v>2517.4840846101929</v>
       </c>
       <c r="CC23" s="12">
         <f>CC22*(1+$L$3)</f>
-        <v>6472.5634112055959</v>
+        <v>6733.2578689148368</v>
       </c>
       <c r="CE23" s="4">
         <v>2025</v>
       </c>
       <c r="CF23" s="44">
         <f t="shared" si="29"/>
-        <v>1159.3545018942</v>
+        <v>1203.2732410007666</v>
       </c>
       <c r="CG23" s="44">
         <f t="shared" si="30"/>
-        <v>3864.5150063140004</v>
+        <v>4010.9108033358889</v>
       </c>
       <c r="CH23" s="44">
         <f t="shared" si="31"/>
-        <v>2705.1605044198</v>
+        <v>2807.6375623351219</v>
       </c>
       <c r="CI23" s="12">
         <f t="shared" si="56"/>
-        <v>7269.4762112280005</v>
+        <v>7562.2678052717774</v>
       </c>
       <c r="CK23" s="4">
         <v>2025</v>
       </c>
       <c r="CL23" s="44">
         <f t="shared" si="32"/>
-        <v>1263.988525046748</v>
+        <v>1312.1215928807035</v>
       </c>
       <c r="CM23" s="44">
         <f t="shared" si="33"/>
-        <v>4213.2950834891599</v>
+        <v>4373.7386429356784</v>
       </c>
       <c r="CN23" s="44">
         <f t="shared" si="34"/>
-        <v>2949.3065584424116</v>
+        <v>3061.6170500549747</v>
       </c>
       <c r="CO23" s="12">
         <f t="shared" si="51"/>
-        <v>7967.0363655783203</v>
+        <v>8287.9234844713574</v>
       </c>
       <c r="CQ23" s="4">
         <v>2025</v>
       </c>
       <c r="CR23" s="44">
         <f t="shared" si="35"/>
-        <v>1112.6064675621774</v>
+        <v>1154.6423431593557</v>
       </c>
       <c r="CS23" s="44">
         <f t="shared" si="36"/>
-        <v>3708.6882252072578</v>
+        <v>3848.8078105311856</v>
       </c>
       <c r="CT23" s="44">
         <f t="shared" si="37"/>
-        <v>2596.0817576450804</v>
+        <v>2694.1654673718299</v>
       </c>
       <c r="CU23" s="12">
         <f t="shared" si="57"/>
-        <v>6957.8226490145153</v>
+        <v>7238.0618196623709</v>
       </c>
       <c r="CW23">
         <v>2025</v>
@@ -4428,152 +4413,152 @@
       </c>
       <c r="R24" s="44">
         <f t="shared" si="2"/>
-        <v>744.90004396135862</v>
+        <v>777.14373333930814</v>
       </c>
       <c r="S24" s="44">
         <f t="shared" si="3"/>
-        <v>2483.0001465378623</v>
+        <v>2590.4791111310274</v>
       </c>
       <c r="T24" s="44">
         <f t="shared" si="4"/>
-        <v>1738.1001025765036</v>
+        <v>1813.3353777917191</v>
       </c>
       <c r="U24" s="12">
         <f t="shared" si="40"/>
-        <v>4429.8541914757243</v>
+        <v>4644.8121206620544</v>
       </c>
       <c r="W24" s="4">
         <v>2026</v>
       </c>
       <c r="X24" s="44">
         <f t="shared" si="5"/>
-        <v>670.18978270445518</v>
+        <v>698.80816922714212</v>
       </c>
       <c r="Y24" s="44">
         <f t="shared" si="6"/>
-        <v>2233.9659423481839</v>
+        <v>2329.3605640904739</v>
       </c>
       <c r="Z24" s="44">
         <f t="shared" si="7"/>
-        <v>1563.7761596437288</v>
+        <v>1630.5523948633315</v>
       </c>
       <c r="AA24" s="12">
         <f t="shared" si="52"/>
-        <v>3931.7857830963676</v>
+        <v>4122.5750265809475</v>
       </c>
       <c r="AC24" s="4">
         <v>2026</v>
       </c>
       <c r="AD24" s="44">
         <f t="shared" si="8"/>
-        <v>834.6473281407325</v>
+        <v>871.24598938082988</v>
       </c>
       <c r="AE24" s="44">
         <f t="shared" si="9"/>
-        <v>2782.1577604691083</v>
+        <v>2904.1532979360995</v>
       </c>
       <c r="AF24" s="44">
         <f t="shared" si="10"/>
-        <v>1947.5104323283756</v>
+        <v>2032.9073085552695</v>
       </c>
       <c r="AG24" s="12">
         <f t="shared" si="41"/>
-        <v>5028.1694193382164</v>
+        <v>5272.1604942721988</v>
       </c>
       <c r="AI24" s="4">
         <v>2026</v>
       </c>
       <c r="AJ24" s="44">
         <f t="shared" si="11"/>
-        <v>721.47394509266849</v>
+        <v>752.58088696515449</v>
       </c>
       <c r="AK24" s="44">
         <f t="shared" si="12"/>
-        <v>2404.9131503088952</v>
+        <v>2508.602956550515</v>
       </c>
       <c r="AL24" s="44">
         <f t="shared" si="13"/>
-        <v>1683.4392052162266</v>
+        <v>1756.0220695853604</v>
       </c>
       <c r="AM24" s="12">
         <f t="shared" si="53"/>
-        <v>4273.6801990177901</v>
+        <v>4481.0598115010298</v>
       </c>
       <c r="AO24" s="4">
         <v>2026</v>
       </c>
       <c r="AP24" s="44">
         <f t="shared" si="14"/>
-        <v>1026.0132303856401</v>
+        <v>1071.8978898291537</v>
       </c>
       <c r="AQ24" s="44">
         <f t="shared" si="15"/>
-        <v>3420.0441012854671</v>
+        <v>3572.9929660971793</v>
       </c>
       <c r="AR24" s="44">
         <f t="shared" si="16"/>
-        <v>2394.0308708998268</v>
+        <v>2501.0950762680254</v>
       </c>
       <c r="AS24" s="12">
         <f t="shared" si="42"/>
-        <v>6303.942100970934</v>
+        <v>6609.8398305943583</v>
       </c>
       <c r="AU24" s="4">
         <v>2026</v>
       </c>
       <c r="AV24" s="44">
         <f t="shared" si="17"/>
-        <v>873.26873438370774</v>
+        <v>911.74149286254283</v>
       </c>
       <c r="AW24" s="44">
         <f t="shared" si="18"/>
-        <v>2910.8957812790259</v>
+        <v>3039.1383095418096</v>
       </c>
       <c r="AX24" s="44">
         <f t="shared" si="19"/>
-        <v>2037.627046895318</v>
+        <v>2127.3968166792665</v>
       </c>
       <c r="AY24" s="12">
         <f t="shared" si="54"/>
-        <v>5285.6454609580514</v>
+        <v>5542.1305174836189</v>
       </c>
       <c r="BA24" s="4">
         <v>2026</v>
       </c>
       <c r="BB24" s="44">
         <f t="shared" si="20"/>
-        <v>770.38384070364998</v>
+        <v>803.86412703011069</v>
       </c>
       <c r="BC24" s="44">
         <f t="shared" si="21"/>
-        <v>2567.9461356788333</v>
+        <v>2679.5470901003691</v>
       </c>
       <c r="BD24" s="44">
         <f t="shared" si="22"/>
-        <v>1797.5622949751832</v>
+        <v>1875.6829630702582</v>
       </c>
       <c r="BE24" s="12">
         <f t="shared" si="43"/>
-        <v>4599.7461697576664</v>
+        <v>4822.948078600738</v>
       </c>
       <c r="BG24" s="4">
         <v>2026</v>
       </c>
       <c r="BH24" s="44">
         <f t="shared" si="23"/>
-        <v>678.73714310249068</v>
+        <v>707.7702888501442</v>
       </c>
       <c r="BI24" s="44">
         <f t="shared" si="24"/>
-        <v>2262.4571436749688</v>
+        <v>2359.2342961671475</v>
       </c>
       <c r="BJ24" s="44">
         <f t="shared" si="25"/>
-        <v>1583.7200005724781</v>
+        <v>1651.4640073170031</v>
       </c>
       <c r="BK24" s="12">
         <f t="shared" si="55"/>
-        <v>3988.7681857499374</v>
+        <v>4182.3224907342947</v>
       </c>
       <c r="BM24" s="4">
         <v>2026</v>
@@ -4616,76 +4601,76 @@
       </c>
       <c r="BZ24" s="44">
         <f t="shared" si="26"/>
-        <v>1060.0443875259668</v>
+        <v>1107.5804031429582</v>
       </c>
       <c r="CA24" s="44">
         <f t="shared" si="27"/>
-        <v>3533.4812917532231</v>
+        <v>3691.9346771431942</v>
       </c>
       <c r="CB24" s="44">
         <f t="shared" si="28"/>
-        <v>2473.436904227256</v>
+        <v>2584.3542740002358</v>
       </c>
       <c r="CC24" s="12">
         <f t="shared" si="50"/>
-        <v>6530.8164819064459</v>
+        <v>6847.7232526863882</v>
       </c>
       <c r="CE24" s="4">
         <v>2026</v>
       </c>
       <c r="CF24" s="44">
         <f t="shared" si="29"/>
-        <v>1180.6571398093577</v>
+        <v>1234.0458689342095</v>
       </c>
       <c r="CG24" s="44">
         <f t="shared" si="30"/>
-        <v>3935.523799364526</v>
+        <v>4113.4862297806985</v>
       </c>
       <c r="CH24" s="44">
         <f t="shared" si="31"/>
-        <v>2754.8666595551681</v>
+        <v>2879.4403608464886</v>
       </c>
       <c r="CI24" s="12">
         <f t="shared" si="56"/>
-        <v>7334.9014971290517</v>
+        <v>7690.8263579613968</v>
       </c>
       <c r="CK24" s="4">
         <v>2026</v>
       </c>
       <c r="CL24" s="44">
         <f t="shared" si="32"/>
-        <v>1286.2328691702785</v>
+        <v>1344.7446427961054</v>
       </c>
       <c r="CM24" s="44">
         <f t="shared" si="33"/>
-        <v>4287.4428972342621</v>
+        <v>4482.4821426536846</v>
       </c>
       <c r="CN24" s="44">
         <f t="shared" si="34"/>
-        <v>3001.2100280639834</v>
+        <v>3137.7374998575792</v>
       </c>
       <c r="CO24" s="12">
         <f t="shared" si="51"/>
-        <v>8038.7396928685248</v>
+        <v>8428.8181837073698</v>
       </c>
       <c r="CQ24" s="4">
         <v>2026</v>
       </c>
       <c r="CR24" s="44">
         <f t="shared" si="35"/>
-        <v>1133.4883731683467</v>
+        <v>1184.5882458294946</v>
       </c>
       <c r="CS24" s="44">
         <f t="shared" si="36"/>
-        <v>3778.2945772278226</v>
+        <v>3948.6274860983153</v>
       </c>
       <c r="CT24" s="44">
         <f t="shared" si="37"/>
-        <v>2644.8062040594755</v>
+        <v>2764.0392402688208</v>
       </c>
       <c r="CU24" s="12">
         <f t="shared" si="57"/>
-        <v>7020.443052855645</v>
+        <v>7361.1088705966304</v>
       </c>
       <c r="CW24">
         <v>2026</v>
@@ -4754,152 +4739,152 @@
       </c>
       <c r="R25" s="44">
         <f t="shared" si="2"/>
-        <v>762.36919214985085</v>
+        <v>800.4768492769964</v>
       </c>
       <c r="S25" s="44">
         <f t="shared" si="3"/>
-        <v>2541.2306404995029</v>
+        <v>2668.2561642566548</v>
       </c>
       <c r="T25" s="44">
         <f t="shared" si="4"/>
-        <v>1778.8614483496519</v>
+        <v>1867.7793149796582</v>
       </c>
       <c r="U25" s="12">
         <f t="shared" si="40"/>
-        <v>4469.7228791990055</v>
+        <v>4723.7739267133093</v>
       </c>
       <c r="W25" s="4">
         <v>2027</v>
       </c>
       <c r="X25" s="44">
         <f t="shared" si="5"/>
-        <v>686.98653854163524</v>
+        <v>720.80958057492353</v>
       </c>
       <c r="Y25" s="44">
         <f t="shared" si="6"/>
-        <v>2289.9551284721174</v>
+        <v>2402.6986019164119</v>
       </c>
       <c r="Z25" s="44">
         <f t="shared" si="7"/>
-        <v>1602.968589930482</v>
+        <v>1681.8890213414882</v>
       </c>
       <c r="AA25" s="12">
         <f t="shared" si="52"/>
-        <v>3967.1718551442345</v>
+        <v>4192.6588020328236</v>
       </c>
       <c r="AC25" s="4">
         <v>2027</v>
       </c>
       <c r="AD25" s="44">
         <f t="shared" si="8"/>
-        <v>852.924201886839</v>
+        <v>896.17884367122394</v>
       </c>
       <c r="AE25" s="44">
         <f t="shared" si="9"/>
-        <v>2843.08067295613</v>
+        <v>2987.2628122374131</v>
       </c>
       <c r="AF25" s="44">
         <f t="shared" si="10"/>
-        <v>1990.1564710692908</v>
+        <v>2091.083968566189</v>
       </c>
       <c r="AG25" s="12">
         <f t="shared" si="41"/>
-        <v>5073.4229441122598</v>
+        <v>5361.7872226748259</v>
       </c>
       <c r="AI25" s="4">
         <v>2027</v>
       </c>
       <c r="AJ25" s="44">
         <f t="shared" si="11"/>
-        <v>738.7322583913425</v>
+        <v>775.49643451448196</v>
       </c>
       <c r="AK25" s="44">
         <f t="shared" si="12"/>
-        <v>2462.4408613044752</v>
+        <v>2584.9881150482734</v>
       </c>
       <c r="AL25" s="44">
         <f t="shared" si="13"/>
-        <v>1723.7086029131326</v>
+        <v>1809.4916805337912</v>
       </c>
       <c r="AM25" s="12">
         <f t="shared" si="53"/>
-        <v>4312.1433208089502</v>
+        <v>4557.2378282965465</v>
       </c>
       <c r="AO25" s="4">
         <v>2027</v>
       </c>
       <c r="AP25" s="44">
         <f t="shared" si="14"/>
-        <v>1046.0123972519507</v>
+        <v>1100.2418264271694</v>
       </c>
       <c r="AQ25" s="44">
         <f t="shared" si="15"/>
-        <v>3486.7079908398359</v>
+        <v>3667.4727547572311</v>
       </c>
       <c r="AR25" s="44">
         <f t="shared" si="16"/>
-        <v>2440.695593587885</v>
+        <v>2567.2309283300615</v>
       </c>
       <c r="AS25" s="12">
         <f t="shared" si="42"/>
-        <v>6360.6775798796716</v>
+        <v>6722.2071077144619</v>
       </c>
       <c r="AU25" s="4">
         <v>2027</v>
       </c>
       <c r="AV25" s="44">
         <f t="shared" si="17"/>
-        <v>891.8932007860011</v>
+        <v>937.36277071212589</v>
       </c>
       <c r="AW25" s="44">
         <f t="shared" si="18"/>
-        <v>2972.9773359533369</v>
+        <v>3124.5425690404199</v>
       </c>
       <c r="AX25" s="44">
         <f t="shared" si="19"/>
-        <v>2081.0841351673357</v>
+        <v>2187.1797983282936</v>
       </c>
       <c r="AY25" s="12">
         <f t="shared" si="54"/>
-        <v>5333.2162701066736</v>
+        <v>5636.3467362808397</v>
       </c>
       <c r="BA25" s="4">
         <v>2027</v>
       </c>
       <c r="BB25" s="44">
         <f t="shared" si="20"/>
-        <v>788.08234306282282</v>
+        <v>827.65148966054255</v>
       </c>
       <c r="BC25" s="44">
         <f t="shared" si="21"/>
-        <v>2626.9411435427428</v>
+        <v>2758.8382988684752</v>
       </c>
       <c r="BD25" s="44">
         <f t="shared" si="22"/>
-        <v>1838.8588004799199</v>
+        <v>1931.1868092079326</v>
       </c>
       <c r="BE25" s="12">
         <f t="shared" si="43"/>
-        <v>4641.1438852854853</v>
+        <v>4904.9381959369503</v>
       </c>
       <c r="BG25" s="4">
         <v>2027</v>
       </c>
       <c r="BH25" s="44">
         <f t="shared" si="23"/>
-        <v>695.61082518325304</v>
+        <v>729.9240562315166</v>
       </c>
       <c r="BI25" s="44">
         <f t="shared" si="24"/>
-        <v>2318.7027506108434</v>
+        <v>2433.0801874383887</v>
       </c>
       <c r="BJ25" s="44">
         <f t="shared" si="25"/>
-        <v>1623.0919254275902</v>
+        <v>1703.156131206872</v>
       </c>
       <c r="BK25" s="12">
         <f t="shared" si="55"/>
-        <v>4024.6670994216865</v>
+        <v>4253.4219730767772</v>
       </c>
       <c r="BM25" s="4">
         <v>2027</v>
@@ -4942,76 +4927,76 @@
       </c>
       <c r="BZ25" s="44">
         <f t="shared" si="26"/>
-        <v>1080.3498348065405</v>
+        <v>1136.5309424673083</v>
       </c>
       <c r="CA25" s="44">
         <f t="shared" si="27"/>
-        <v>3601.1661160218018</v>
+        <v>3788.436474891028</v>
       </c>
       <c r="CB25" s="44">
         <f t="shared" si="28"/>
-        <v>2520.8162812152609</v>
+        <v>2651.9055324237193</v>
       </c>
       <c r="CC25" s="12">
         <f t="shared" si="50"/>
-        <v>6589.5938302436034</v>
+        <v>6964.1345479820557</v>
       </c>
       <c r="CE25" s="4">
         <v>2027</v>
       </c>
       <c r="CF25" s="44">
         <f t="shared" si="29"/>
-        <v>1202.0481018604819</v>
+        <v>1265.1463211770108</v>
       </c>
       <c r="CG25" s="44">
         <f t="shared" si="30"/>
-        <v>4006.8270062016063</v>
+        <v>4217.1544039233695</v>
       </c>
       <c r="CH25" s="44">
         <f t="shared" si="31"/>
-        <v>2804.7789043411244</v>
+        <v>2952.0080827463585</v>
       </c>
       <c r="CI25" s="12">
         <f t="shared" si="56"/>
-        <v>7400.9156106032124</v>
+        <v>7821.5704060467397</v>
       </c>
       <c r="CK25" s="4">
         <v>2027</v>
       </c>
       <c r="CL25" s="44">
         <f t="shared" si="32"/>
-        <v>1308.5740127856509</v>
+        <v>1377.726974194559</v>
       </c>
       <c r="CM25" s="44">
         <f t="shared" si="33"/>
-        <v>4361.9133759521701</v>
+        <v>4592.4232473151969</v>
       </c>
       <c r="CN25" s="44">
         <f t="shared" si="34"/>
-        <v>3053.339363166519</v>
+        <v>3214.6962731206377</v>
       </c>
       <c r="CO25" s="12">
         <f t="shared" si="51"/>
-        <v>8111.0883501043409</v>
+        <v>8572.1080928303945</v>
       </c>
       <c r="CQ25" s="4">
         <v>2027</v>
       </c>
       <c r="CR25" s="44">
         <f t="shared" si="35"/>
-        <v>1154.4548163197016</v>
+        <v>1214.8479184795158</v>
       </c>
       <c r="CS25" s="44">
         <f t="shared" si="36"/>
-        <v>3848.1827210656725</v>
+        <v>4049.4930615983862</v>
       </c>
       <c r="CT25" s="44">
         <f t="shared" si="37"/>
-        <v>2693.7279047459706</v>
+        <v>2834.6451431188702</v>
       </c>
       <c r="CU25" s="12">
         <f t="shared" si="57"/>
-        <v>7083.6270403313447</v>
+        <v>7486.2477213967722</v>
       </c>
       <c r="CW25">
         <v>2027</v>
@@ -5080,152 +5065,152 @@
       </c>
       <c r="R26" s="44">
         <f t="shared" si="2"/>
-        <v>779.89216308176935</v>
+        <v>824.01131783511528</v>
       </c>
       <c r="S26" s="44">
         <f t="shared" si="3"/>
-        <v>2599.6405436058981</v>
+        <v>2746.7043927837176</v>
       </c>
       <c r="T26" s="44">
         <f t="shared" si="4"/>
-        <v>1819.7483805241286</v>
+        <v>1922.6930749486021</v>
       </c>
       <c r="U26" s="12">
         <f t="shared" si="40"/>
-        <v>4509.9503851117961</v>
+        <v>4804.0780834674351</v>
       </c>
       <c r="W26" s="4">
         <v>2028</v>
       </c>
       <c r="X26" s="44">
         <f t="shared" si="5"/>
-        <v>703.83106559107989</v>
+        <v>742.98970556510722</v>
       </c>
       <c r="Y26" s="44">
         <f t="shared" si="6"/>
-        <v>2346.1035519702664</v>
+        <v>2476.6323518836907</v>
       </c>
       <c r="Z26" s="44">
         <f t="shared" si="7"/>
-        <v>1642.2724863791864</v>
+        <v>1733.6426463185835</v>
       </c>
       <c r="AA26" s="12">
         <f t="shared" si="52"/>
-        <v>4002.8764018405323</v>
+        <v>4263.9340016673814</v>
       </c>
       <c r="AC26" s="4">
         <v>2028</v>
       </c>
       <c r="AD26" s="44">
         <f t="shared" si="8"/>
-        <v>871.26216790639035</v>
+        <v>921.34024613404449</v>
       </c>
       <c r="AE26" s="44">
         <f t="shared" si="9"/>
-        <v>2904.2072263546347</v>
+        <v>3071.1341537801486</v>
       </c>
       <c r="AF26" s="44">
         <f t="shared" si="10"/>
-        <v>2032.9450584482443</v>
+        <v>2149.7939076461039</v>
       </c>
       <c r="AG26" s="12">
         <f t="shared" si="41"/>
-        <v>5119.0837506092694</v>
+        <v>5452.9376054602972</v>
       </c>
       <c r="AI26" s="4">
         <v>2028</v>
       </c>
       <c r="AJ26" s="44">
         <f t="shared" si="11"/>
-        <v>756.04249691943448</v>
+        <v>798.60623602163798</v>
       </c>
       <c r="AK26" s="44">
         <f t="shared" si="12"/>
-        <v>2520.1416563981152</v>
+        <v>2662.0207867387935</v>
       </c>
       <c r="AL26" s="44">
         <f t="shared" si="13"/>
-        <v>1764.0991594786806</v>
+        <v>1863.4145507171554</v>
       </c>
       <c r="AM26" s="12">
         <f t="shared" si="53"/>
-        <v>4350.9526106962303</v>
+        <v>4634.710871377587</v>
       </c>
       <c r="AO26" s="4">
         <v>2028</v>
       </c>
       <c r="AP26" s="44">
         <f t="shared" si="14"/>
-        <v>1066.0881570297881</v>
+        <v>1128.872299596841</v>
       </c>
       <c r="AQ26" s="44">
         <f t="shared" si="15"/>
-        <v>3553.6271900992942</v>
+        <v>3762.9076653228035</v>
       </c>
       <c r="AR26" s="44">
         <f t="shared" si="16"/>
-        <v>2487.5390330695059</v>
+        <v>2634.0353657259625</v>
       </c>
       <c r="AS26" s="12">
         <f t="shared" si="42"/>
-        <v>6417.9236780985884</v>
+        <v>6836.4846285456069</v>
       </c>
       <c r="AU26" s="4">
         <v>2028</v>
       </c>
       <c r="AV26" s="44">
         <f t="shared" si="17"/>
-        <v>910.58188779564489</v>
+        <v>963.22429993464198</v>
       </c>
       <c r="AW26" s="44">
         <f t="shared" si="18"/>
-        <v>3035.2729593188164</v>
+        <v>3210.7476664488067</v>
       </c>
       <c r="AX26" s="44">
         <f t="shared" si="19"/>
-        <v>2124.6910715231716</v>
+        <v>2247.5233665141645</v>
       </c>
       <c r="AY26" s="12">
         <f t="shared" si="54"/>
-        <v>5381.2152165376328</v>
+        <v>5732.1646307976134</v>
       </c>
       <c r="BA26" s="4">
         <v>2028</v>
       </c>
       <c r="BB26" s="44">
         <f t="shared" si="20"/>
-        <v>805.83673235295805</v>
+        <v>851.64792710518168</v>
       </c>
       <c r="BC26" s="44">
         <f t="shared" si="21"/>
-        <v>2686.122441176527</v>
+        <v>2838.8264236839391</v>
       </c>
       <c r="BD26" s="44">
         <f t="shared" si="22"/>
-        <v>1880.2857088235687</v>
+        <v>1987.1784965787572</v>
       </c>
       <c r="BE26" s="12">
         <f t="shared" si="43"/>
-        <v>4682.9141802530539</v>
+        <v>4988.3221452678781</v>
       </c>
       <c r="BG26" s="4">
         <v>2028</v>
       </c>
       <c r="BH26" s="44">
         <f t="shared" si="23"/>
-        <v>712.53297081247229</v>
+        <v>752.25912730786229</v>
       </c>
       <c r="BI26" s="44">
         <f t="shared" si="24"/>
-        <v>2375.109902708241</v>
+        <v>2507.530424359541</v>
       </c>
       <c r="BJ26" s="44">
         <f t="shared" si="25"/>
-        <v>1662.5769318957687</v>
+        <v>1755.2712970516786</v>
       </c>
       <c r="BK26" s="12">
         <f t="shared" si="55"/>
-        <v>4060.8891033164814</v>
+        <v>4325.730146619082</v>
       </c>
       <c r="BM26" s="4">
         <v>2028</v>
@@ -5268,76 +5253,76 @@
       </c>
       <c r="BZ26" s="44">
         <f t="shared" si="26"/>
-        <v>1100.7346315223692</v>
+        <v>1165.7783306096624</v>
       </c>
       <c r="CA26" s="44">
         <f t="shared" si="27"/>
-        <v>3669.1154384078977</v>
+        <v>3885.9277686988748</v>
       </c>
       <c r="CB26" s="44">
         <f t="shared" si="28"/>
-        <v>2568.3808068855283</v>
+        <v>2720.1494380892123</v>
       </c>
       <c r="CC26" s="12">
         <f t="shared" si="50"/>
-        <v>6648.9001747157954</v>
+        <v>7082.5248352977496</v>
       </c>
       <c r="CE26" s="4">
         <v>2028</v>
       </c>
       <c r="CF26" s="44">
         <f t="shared" si="29"/>
-        <v>1223.5281829797959</v>
+        <v>1296.5801707574299</v>
       </c>
       <c r="CG26" s="44">
         <f t="shared" si="30"/>
-        <v>4078.4272765993201</v>
+        <v>4321.9339025247664</v>
       </c>
       <c r="CH26" s="44">
         <f t="shared" si="31"/>
-        <v>2854.8990936195237</v>
+        <v>3025.3537317673363</v>
       </c>
       <c r="CI26" s="12">
         <f t="shared" si="56"/>
-        <v>7467.5238510986401</v>
+        <v>7954.5371029495336</v>
       </c>
       <c r="CK26" s="4">
         <v>2028</v>
       </c>
       <c r="CL26" s="44">
         <f t="shared" si="32"/>
-        <v>1331.0128271032918</v>
+        <v>1411.0746948762767</v>
       </c>
       <c r="CM26" s="44">
         <f t="shared" si="33"/>
-        <v>4436.7094236776393</v>
+        <v>4703.5823162542556</v>
       </c>
       <c r="CN26" s="44">
         <f t="shared" si="34"/>
-        <v>3105.6965965743475</v>
+        <v>3292.5076213779789</v>
       </c>
       <c r="CO26" s="12">
         <f t="shared" si="51"/>
-        <v>8184.0881452552794</v>
+        <v>8717.8339304085112</v>
       </c>
       <c r="CQ26" s="4">
         <v>2028</v>
       </c>
       <c r="CR26" s="44">
         <f t="shared" si="35"/>
-        <v>1175.5065578691488</v>
+        <v>1245.4266952140774</v>
       </c>
       <c r="CS26" s="44">
         <f t="shared" si="36"/>
-        <v>3918.3551928971629</v>
+        <v>4151.4223173802584</v>
       </c>
       <c r="CT26" s="44">
         <f t="shared" si="37"/>
-        <v>2742.8486350280136</v>
+        <v>2905.9956221661805</v>
       </c>
       <c r="CU26" s="12">
         <f t="shared" si="57"/>
-        <v>7147.3796836943256</v>
+        <v>7613.5139326605167</v>
       </c>
       <c r="CW26">
         <v>2028</v>
@@ -5406,152 +5391,152 @@
       </c>
       <c r="R27" s="44">
         <f t="shared" si="2"/>
-        <v>797.46944113167024</v>
+        <v>847.75056197795709</v>
       </c>
       <c r="S27" s="44">
         <f t="shared" si="3"/>
-        <v>2658.2314704389009</v>
+        <v>2825.8352065931904</v>
       </c>
       <c r="T27" s="44">
         <f t="shared" si="4"/>
-        <v>1860.7620293072305</v>
+        <v>1978.0846446152332</v>
       </c>
       <c r="U27" s="12">
         <f t="shared" si="40"/>
-        <v>4550.5399385778019</v>
+        <v>4885.7474108863807</v>
       </c>
       <c r="W27" s="4">
         <v>2029</v>
       </c>
       <c r="X27" s="44">
         <f t="shared" si="5"/>
-        <v>720.72379376356457</v>
+        <v>765.35158229935894</v>
       </c>
       <c r="Y27" s="44">
         <f t="shared" si="6"/>
-        <v>2402.4126458785486</v>
+        <v>2551.1719409978632</v>
       </c>
       <c r="Z27" s="44">
         <f t="shared" si="7"/>
-        <v>1681.688852114984</v>
+        <v>1785.8203586985042</v>
       </c>
       <c r="AA27" s="12">
         <f t="shared" si="52"/>
-        <v>4038.9022894570967</v>
+        <v>4336.4208796957264</v>
       </c>
       <c r="AC27" s="4">
         <v>2029</v>
       </c>
       <c r="AD27" s="44">
         <f t="shared" si="8"/>
-        <v>889.66177599971286</v>
+        <v>946.73408205796818</v>
       </c>
       <c r="AE27" s="44">
         <f t="shared" si="9"/>
-        <v>2965.5392533323761</v>
+        <v>3155.7802735265609</v>
       </c>
       <c r="AF27" s="44">
         <f t="shared" si="10"/>
-        <v>2075.8774773326631</v>
+        <v>2209.0461914685925</v>
       </c>
       <c r="AG27" s="12">
         <f t="shared" si="41"/>
-        <v>5165.1555043647522</v>
+        <v>5545.6375447531218</v>
       </c>
       <c r="AI27" s="4">
         <v>2029</v>
       </c>
       <c r="AJ27" s="44">
         <f t="shared" si="11"/>
-        <v>773.4051279738743</v>
+        <v>821.91359377365086</v>
       </c>
       <c r="AK27" s="44">
         <f t="shared" si="12"/>
-        <v>2578.0170932462479</v>
+        <v>2739.7119792455028</v>
       </c>
       <c r="AL27" s="44">
         <f t="shared" si="13"/>
-        <v>1804.6119652723735</v>
+        <v>1917.7983854718518</v>
       </c>
       <c r="AM27" s="12">
         <f t="shared" si="53"/>
-        <v>4390.1111841924958</v>
+        <v>4713.5009561910056</v>
       </c>
       <c r="AO27" s="4">
         <v>2029</v>
       </c>
       <c r="AP27" s="44">
         <f t="shared" si="14"/>
-        <v>1086.2411990252212</v>
+        <v>1157.7941804296322</v>
       </c>
       <c r="AQ27" s="44">
         <f t="shared" si="15"/>
-        <v>3620.8039967507375</v>
+        <v>3859.313934765441</v>
       </c>
       <c r="AR27" s="44">
         <f t="shared" si="16"/>
-        <v>2534.5627977255162</v>
+        <v>2701.5197543358086</v>
       </c>
       <c r="AS27" s="12">
         <f t="shared" si="42"/>
-        <v>6475.684991201475</v>
+        <v>6952.704867230882</v>
       </c>
       <c r="AU27" s="4">
         <v>2029</v>
       </c>
       <c r="AV27" s="44">
         <f t="shared" si="17"/>
-        <v>929.33537336797065</v>
+        <v>989.33016477317574</v>
       </c>
       <c r="AW27" s="44">
         <f t="shared" si="18"/>
-        <v>3097.7845778932356</v>
+        <v>3297.7672159105859</v>
       </c>
       <c r="AX27" s="44">
         <f t="shared" si="19"/>
-        <v>2168.4492045252646</v>
+        <v>2308.43705113741</v>
       </c>
       <c r="AY27" s="12">
         <f t="shared" si="54"/>
-        <v>5429.6461534864711</v>
+        <v>5829.6114295211719</v>
       </c>
       <c r="BA27" s="4">
         <v>2029</v>
       </c>
       <c r="BB27" s="44">
         <f t="shared" si="20"/>
-        <v>823.6475115262997</v>
+        <v>875.85699360561478</v>
       </c>
       <c r="BC27" s="44">
         <f t="shared" si="21"/>
-        <v>2745.4917050876657</v>
+        <v>2919.5233120187158</v>
       </c>
       <c r="BD27" s="44">
         <f t="shared" si="22"/>
-        <v>1921.8441935613657</v>
+        <v>2043.666318413101</v>
       </c>
       <c r="BE27" s="12">
         <f t="shared" si="43"/>
-        <v>4725.0604078753313</v>
+        <v>5073.1236217374317</v>
       </c>
       <c r="BG27" s="4">
         <v>2029</v>
       </c>
       <c r="BH27" s="44">
         <f t="shared" si="23"/>
-        <v>729.50401613194936</v>
+        <v>774.77858421174085</v>
       </c>
       <c r="BI27" s="44">
         <f t="shared" si="24"/>
-        <v>2431.6800537731647</v>
+        <v>2582.5952807058029</v>
       </c>
       <c r="BJ27" s="44">
         <f t="shared" si="25"/>
-        <v>1702.1760376412151</v>
+        <v>1807.8166964940619</v>
       </c>
       <c r="BK27" s="12">
         <f t="shared" si="55"/>
-        <v>4097.4371052463293</v>
+        <v>4399.2675591116058</v>
       </c>
       <c r="BM27" s="4">
         <v>2029</v>
@@ -5594,76 +5579,76 @@
       </c>
       <c r="BZ27" s="44">
         <f t="shared" si="26"/>
-        <v>1121.1994917882355</v>
+        <v>1195.3276139696716</v>
       </c>
       <c r="CA27" s="44">
         <f t="shared" si="27"/>
-        <v>3737.3316392941183</v>
+        <v>3984.4253798989052</v>
       </c>
       <c r="CB27" s="44">
         <f t="shared" si="28"/>
-        <v>2616.1321475058826</v>
+        <v>2789.0977659292334</v>
       </c>
       <c r="CC27" s="12">
         <f t="shared" si="50"/>
-        <v>6708.7402762882366</v>
+        <v>7202.9277574978105</v>
       </c>
       <c r="CE27" s="4">
         <v>2029</v>
       </c>
       <c r="CF27" s="44">
         <f t="shared" si="29"/>
-        <v>1245.0981852087789</v>
+        <v>1328.3530853999512</v>
       </c>
       <c r="CG27" s="44">
         <f t="shared" si="30"/>
-        <v>4150.327284029263</v>
+        <v>4427.8436179998371</v>
       </c>
       <c r="CH27" s="44">
         <f t="shared" si="31"/>
-        <v>2905.2290988204841</v>
+        <v>3099.4905325998857</v>
       </c>
       <c r="CI27" s="12">
         <f t="shared" si="56"/>
-        <v>7534.7315657585268</v>
+        <v>8089.7642336996751</v>
       </c>
       <c r="CK27" s="4">
         <v>2029</v>
       </c>
       <c r="CL27" s="44">
         <f t="shared" si="32"/>
-        <v>1353.5501911293866</v>
+        <v>1444.7940164288182</v>
       </c>
       <c r="CM27" s="44">
         <f t="shared" si="33"/>
-        <v>4511.8339704312884</v>
+        <v>4815.9800547627274</v>
       </c>
       <c r="CN27" s="44">
         <f t="shared" si="34"/>
-        <v>3158.2837793019016</v>
+        <v>3371.186038333909</v>
       </c>
       <c r="CO27" s="12">
         <f t="shared" si="51"/>
-        <v>8257.7449385625769</v>
+        <v>8866.0371072254547</v>
       </c>
       <c r="CQ27" s="4">
         <v>2029</v>
       </c>
       <c r="CR27" s="44">
         <f t="shared" si="35"/>
-        <v>1196.6443654721361</v>
+        <v>1276.3300007723615</v>
       </c>
       <c r="CS27" s="44">
         <f t="shared" si="36"/>
-        <v>3988.814551573787</v>
+        <v>4254.4333359078719</v>
       </c>
       <c r="CT27" s="44">
         <f t="shared" si="37"/>
-        <v>2792.1701861016509</v>
+        <v>2978.10333513551</v>
       </c>
       <c r="CU27" s="12">
         <f t="shared" si="57"/>
-        <v>7211.7061008475739</v>
+        <v>7742.9436695157447</v>
       </c>
       <c r="CW27">
         <v>2029</v>
@@ -5732,152 +5717,152 @@
       </c>
       <c r="R28" s="44">
         <f t="shared" si="2"/>
-        <v>815.10151507875025</v>
+        <v>871.69806290571739</v>
       </c>
       <c r="S28" s="44">
         <f t="shared" si="3"/>
-        <v>2717.0050502625008</v>
+        <v>2905.6602096857246</v>
       </c>
       <c r="T28" s="44">
         <f t="shared" si="4"/>
-        <v>1901.9035351837504</v>
+        <v>2033.9621467800071</v>
       </c>
       <c r="U28" s="12">
         <f t="shared" si="40"/>
-        <v>4591.4947980250017</v>
+        <v>4968.8051168714492</v>
       </c>
       <c r="W28" s="4">
         <v>2030</v>
       </c>
       <c r="X28" s="44">
         <f t="shared" si="5"/>
-        <v>737.66515688433151</v>
+        <v>787.89830057258303</v>
       </c>
       <c r="Y28" s="44">
         <f t="shared" si="6"/>
-        <v>2458.8838562811052</v>
+        <v>2626.3276685752767</v>
       </c>
       <c r="Z28" s="44">
         <f t="shared" si="7"/>
-        <v>1721.2186993967734</v>
+        <v>1838.4293680026935</v>
       </c>
       <c r="AA28" s="12">
         <f t="shared" si="52"/>
-        <v>4075.2524100622099</v>
+        <v>4410.1400346505534</v>
       </c>
       <c r="AC28" s="4">
         <v>2030</v>
       </c>
       <c r="AD28" s="44">
         <f t="shared" si="8"/>
-        <v>908.12358096060518</v>
+        <v>972.36430282708864</v>
       </c>
       <c r="AE28" s="44">
         <f t="shared" si="9"/>
-        <v>3027.0786032020173</v>
+        <v>3241.2143427569622</v>
       </c>
       <c r="AF28" s="44">
         <f t="shared" si="10"/>
-        <v>2118.9550222414118</v>
+        <v>2268.8500399298732</v>
       </c>
       <c r="AG28" s="12">
         <f t="shared" si="41"/>
-        <v>5211.6419039040347</v>
+        <v>5639.9133830139244</v>
       </c>
       <c r="AI28" s="4">
         <v>2030</v>
       </c>
       <c r="AJ28" s="44">
         <f t="shared" si="11"/>
-        <v>790.82062310253423</v>
+        <v>845.42186624193789</v>
       </c>
       <c r="AK28" s="44">
         <f t="shared" si="12"/>
-        <v>2636.0687436751141</v>
+        <v>2818.0728874731262</v>
       </c>
       <c r="AL28" s="44">
         <f t="shared" si="13"/>
-        <v>1845.2481205725796</v>
+        <v>1972.6510212311882</v>
       </c>
       <c r="AM28" s="12">
         <f t="shared" si="53"/>
-        <v>4429.6221848502282</v>
+        <v>4793.6304724462525</v>
       </c>
       <c r="AO28" s="4">
         <v>2030</v>
       </c>
       <c r="AP28" s="44">
         <f t="shared" si="14"/>
-        <v>1106.472218793343</v>
+        <v>1187.0124228710708</v>
       </c>
       <c r="AQ28" s="44">
         <f t="shared" si="15"/>
-        <v>3688.2407293111437</v>
+        <v>3956.7080762369033</v>
       </c>
       <c r="AR28" s="44">
         <f t="shared" si="16"/>
-        <v>2581.7685105178002</v>
+        <v>2769.6956533658322</v>
       </c>
       <c r="AS28" s="12">
         <f t="shared" si="42"/>
-        <v>6533.9661561222874</v>
+        <v>7070.9008499738065</v>
       </c>
       <c r="AU28" s="4">
         <v>2030</v>
       </c>
       <c r="AV28" s="44">
         <f t="shared" si="17"/>
-        <v>948.15424070517724</v>
+        <v>1015.6845189484546</v>
       </c>
       <c r="AW28" s="44">
         <f t="shared" si="18"/>
-        <v>3160.5141356839245</v>
+        <v>3385.6150631615155</v>
       </c>
       <c r="AX28" s="44">
         <f t="shared" si="19"/>
-        <v>2212.359894978747</v>
+        <v>2369.9305442130608</v>
       </c>
       <c r="AY28" s="12">
         <f t="shared" si="54"/>
-        <v>5478.5129688678489</v>
+        <v>5928.7148238230311</v>
       </c>
       <c r="BA28" s="4">
         <v>2030</v>
       </c>
       <c r="BB28" s="44">
         <f t="shared" si="20"/>
-        <v>841.5151881069313</v>
+        <v>900.28230387104509</v>
       </c>
       <c r="BC28" s="44">
         <f t="shared" si="21"/>
-        <v>2805.0506270231044</v>
+        <v>3000.9410129034836</v>
       </c>
       <c r="BD28" s="44">
         <f t="shared" si="22"/>
-        <v>1963.535438916173</v>
+        <v>2100.6587090324383</v>
       </c>
       <c r="BE28" s="12">
         <f t="shared" si="43"/>
-        <v>4767.5859515462089</v>
+        <v>5159.3667233069673</v>
       </c>
       <c r="BG28" s="4">
         <v>2030</v>
       </c>
       <c r="BH28" s="44">
         <f t="shared" si="23"/>
-        <v>746.52440125403189</v>
+        <v>797.48556151747539</v>
       </c>
       <c r="BI28" s="44">
         <f t="shared" si="24"/>
-        <v>2488.4146708467729</v>
+        <v>2658.2852050582514</v>
       </c>
       <c r="BJ28" s="44">
         <f t="shared" si="25"/>
-        <v>1741.8902695927409</v>
+        <v>1860.7996435407758</v>
       </c>
       <c r="BK28" s="12">
         <f t="shared" si="55"/>
-        <v>4134.3140391935458</v>
+        <v>4474.0551076165029</v>
       </c>
       <c r="BM28" s="4">
         <v>2030</v>
@@ -5920,76 +5905,76 @@
       </c>
       <c r="BZ28" s="44">
         <f t="shared" si="26"/>
-        <v>1141.7451361912244</v>
+        <v>1225.1839247812909</v>
       </c>
       <c r="CA28" s="44">
         <f t="shared" si="27"/>
-        <v>3805.817120637415</v>
+        <v>4083.9464159376362</v>
       </c>
       <c r="CB28" s="44">
         <f t="shared" si="28"/>
-        <v>2664.0719844461905</v>
+        <v>2858.7624911563453</v>
       </c>
       <c r="CC28" s="12">
         <f t="shared" si="50"/>
-        <v>6769.11893877483</v>
+        <v>7325.3775293752724</v>
       </c>
       <c r="CE28" s="4">
         <v>2030</v>
       </c>
       <c r="CF28" s="44">
         <f t="shared" si="29"/>
-        <v>1266.7589178525529</v>
+        <v>1360.4708292258852</v>
       </c>
       <c r="CG28" s="44">
         <f t="shared" si="30"/>
-        <v>4222.5297261751766</v>
+        <v>4534.9027640862842</v>
       </c>
       <c r="CH28" s="44">
         <f t="shared" si="31"/>
-        <v>2955.7708083226235</v>
+        <v>3174.4319348603985</v>
       </c>
       <c r="CI28" s="12">
         <f t="shared" si="56"/>
-        <v>7602.5441498503524</v>
+        <v>8227.2902256725683</v>
       </c>
       <c r="CK28" s="4">
         <v>2030</v>
       </c>
       <c r="CL28" s="44">
         <f t="shared" si="32"/>
-        <v>1376.1869918264458</v>
+        <v>1478.8912560822428</v>
       </c>
       <c r="CM28" s="44">
         <f t="shared" si="33"/>
-        <v>4587.2899727548192</v>
+        <v>4929.6375202741428</v>
       </c>
       <c r="CN28" s="44">
         <f t="shared" si="34"/>
-        <v>3211.1029809283732</v>
+        <v>3450.7462641918996</v>
       </c>
       <c r="CO28" s="12">
         <f t="shared" si="51"/>
-        <v>8332.0646430096385</v>
+        <v>9016.7597380482857</v>
       </c>
       <c r="CQ28" s="4">
         <v>2030</v>
       </c>
       <c r="CR28" s="44">
         <f t="shared" si="35"/>
-        <v>1217.86901373828</v>
+        <v>1307.5633521596267</v>
       </c>
       <c r="CS28" s="44">
         <f t="shared" si="36"/>
-        <v>4059.5633791276005</v>
+        <v>4358.544507198756</v>
       </c>
       <c r="CT28" s="44">
         <f t="shared" si="37"/>
-        <v>2841.69436538932</v>
+        <v>3050.9811550391291</v>
       </c>
       <c r="CU28" s="12">
         <f t="shared" si="57"/>
-        <v>7276.611455755201</v>
+        <v>7874.5737118975112</v>
       </c>
       <c r="CW28">
         <v>2030</v>
@@ -6058,152 +6043,152 @@
       </c>
       <c r="R29" s="44">
         <f t="shared" si="2"/>
-        <v>832.78887810108392</v>
+        <v>895.85736099873941</v>
       </c>
       <c r="S29" s="44">
         <f t="shared" si="3"/>
-        <v>2775.962927003613</v>
+        <v>2986.1912033291314</v>
       </c>
       <c r="T29" s="44">
         <f t="shared" si="4"/>
-        <v>1943.174048902529</v>
+        <v>2090.3338423303917</v>
       </c>
       <c r="U29" s="12">
         <f t="shared" si="40"/>
-        <v>4632.8182512072262</v>
+        <v>5053.2748038582631</v>
       </c>
       <c r="W29" s="4">
         <v>2031</v>
       </c>
       <c r="X29" s="44">
         <f t="shared" si="5"/>
-        <v>754.65559268291531</v>
+        <v>810.63300270594175</v>
       </c>
       <c r="Y29" s="44">
         <f t="shared" si="6"/>
-        <v>2515.5186422763845</v>
+        <v>2702.1100090198061</v>
       </c>
       <c r="Z29" s="44">
         <f t="shared" si="7"/>
-        <v>1760.863049593469</v>
+        <v>1891.4770063138642</v>
       </c>
       <c r="AA29" s="12">
         <f t="shared" si="52"/>
-        <v>4111.9296817527693</v>
+        <v>4485.1124152396123</v>
       </c>
       <c r="AC29" s="4">
         <v>2031</v>
       </c>
       <c r="AD29" s="44">
         <f t="shared" si="8"/>
-        <v>926.64814257587557</v>
+        <v>998.23492699877397</v>
       </c>
       <c r="AE29" s="44">
         <f t="shared" si="9"/>
-        <v>3088.8271419195853</v>
+        <v>3327.4497566625801</v>
       </c>
       <c r="AF29" s="44">
         <f t="shared" si="10"/>
-        <v>2162.1789993437096</v>
+        <v>2329.2148296638061</v>
       </c>
       <c r="AG29" s="12">
         <f t="shared" si="41"/>
-        <v>5258.5466810391708</v>
+        <v>5735.7919105251603</v>
       </c>
       <c r="AI29" s="4">
         <v>2031</v>
       </c>
       <c r="AJ29" s="44">
         <f t="shared" si="11"/>
-        <v>808.28945809708193</v>
+        <v>869.1344689916757</v>
       </c>
       <c r="AK29" s="44">
         <f t="shared" si="12"/>
-        <v>2694.2981936569399</v>
+        <v>2897.1148966389192</v>
       </c>
       <c r="AL29" s="44">
         <f t="shared" si="13"/>
-        <v>1886.0087355598578</v>
+        <v>2027.9804276472432</v>
       </c>
       <c r="AM29" s="12">
         <f t="shared" si="53"/>
-        <v>4469.4887845138801</v>
+        <v>4875.1221904778386</v>
       </c>
       <c r="AO29" s="4">
         <v>2031</v>
       </c>
       <c r="AP29" s="44">
         <f t="shared" si="14"/>
-        <v>1126.7819181491079</v>
+        <v>1216.532065083504</v>
       </c>
       <c r="AQ29" s="44">
         <f t="shared" si="15"/>
-        <v>3755.9397271636935</v>
+        <v>4055.1068836116801</v>
       </c>
       <c r="AR29" s="44">
         <f t="shared" si="16"/>
-        <v>2629.1578090145854</v>
+        <v>2838.5748185281759</v>
       </c>
       <c r="AS29" s="12">
         <f t="shared" si="42"/>
-        <v>6592.7718515273873</v>
+        <v>7191.1061644233605</v>
       </c>
       <c r="AU29" s="4">
         <v>2031</v>
       </c>
       <c r="AV29" s="44">
         <f t="shared" si="17"/>
-        <v>967.03907825814883</v>
+        <v>1042.2915867942033</v>
       </c>
       <c r="AW29" s="44">
         <f t="shared" si="18"/>
-        <v>3223.4635941938295</v>
+        <v>3474.3052893140111</v>
       </c>
       <c r="AX29" s="44">
         <f t="shared" si="19"/>
-        <v>2256.4245159356806</v>
+        <v>2432.0137025198078</v>
       </c>
       <c r="AY29" s="12">
         <f t="shared" si="54"/>
-        <v>5527.8195855876593</v>
+        <v>6029.5029758280225</v>
       </c>
       <c r="BA29" s="4">
         <v>2031</v>
       </c>
       <c r="BB29" s="44">
         <f t="shared" si="20"/>
-        <v>859.44027418651865</v>
+        <v>924.92753406047768</v>
       </c>
       <c r="BC29" s="44">
         <f t="shared" si="21"/>
-        <v>2864.8009139550622</v>
+        <v>3083.0917802015924</v>
       </c>
       <c r="BD29" s="44">
         <f t="shared" si="22"/>
-        <v>2005.3606397685435</v>
+        <v>2158.1642461411147</v>
       </c>
       <c r="BE29" s="12">
         <f t="shared" si="43"/>
-        <v>4810.4942251101247</v>
+        <v>5247.0759576031851</v>
       </c>
       <c r="BG29" s="4">
         <v>2031</v>
       </c>
       <c r="BH29" s="44">
         <f t="shared" si="23"/>
-        <v>763.59457025194297</v>
+        <v>820.38324708689743</v>
       </c>
       <c r="BI29" s="44">
         <f t="shared" si="24"/>
-        <v>2545.3152341731434</v>
+        <v>2734.6108236229916</v>
       </c>
       <c r="BJ29" s="44">
         <f t="shared" si="25"/>
-        <v>1781.7206639212002</v>
+        <v>1914.2275765360939</v>
       </c>
       <c r="BK29" s="12">
         <f t="shared" si="55"/>
-        <v>4171.522865546287</v>
+        <v>4550.1140444459834</v>
       </c>
       <c r="BM29" s="4">
         <v>2031</v>
@@ -6246,76 +6231,76 @@
       </c>
       <c r="BZ29" s="44">
         <f t="shared" si="26"/>
-        <v>1162.3722918035703</v>
+        <v>1255.3524825261977</v>
       </c>
       <c r="CA29" s="44">
         <f t="shared" si="27"/>
-        <v>3874.5743060119012</v>
+        <v>4184.5082750873262</v>
       </c>
       <c r="CB29" s="44">
         <f t="shared" si="28"/>
-        <v>2712.2020142083306</v>
+        <v>2929.1557925611282</v>
       </c>
       <c r="CC29" s="12">
         <f t="shared" si="50"/>
-        <v>6830.0410092238026</v>
+        <v>7449.9089473746517</v>
       </c>
       <c r="CE29" s="4">
         <v>2031</v>
       </c>
       <c r="CF29" s="44">
         <f t="shared" si="29"/>
-        <v>1288.5111974998508</v>
+        <v>1392.9392643463505</v>
       </c>
       <c r="CG29" s="44">
         <f t="shared" si="30"/>
-        <v>4295.0373249995027</v>
+        <v>4643.1308811545014</v>
       </c>
       <c r="CH29" s="44">
         <f t="shared" si="31"/>
-        <v>3006.5261274996519</v>
+        <v>3250.1916168081507</v>
       </c>
       <c r="CI29" s="12">
         <f t="shared" si="56"/>
-        <v>7670.9670471990048</v>
+        <v>8367.1541595090021</v>
       </c>
       <c r="CK29" s="4">
         <v>2031</v>
       </c>
       <c r="CL29" s="44">
         <f t="shared" si="32"/>
-        <v>1398.9241241395086</v>
+        <v>1513.3728384592657</v>
       </c>
       <c r="CM29" s="44">
         <f t="shared" si="33"/>
-        <v>4663.0804137983623</v>
+        <v>5044.5761281975529</v>
       </c>
       <c r="CN29" s="44">
         <f t="shared" si="34"/>
-        <v>3264.1562896588534</v>
+        <v>3531.2032897382869</v>
       </c>
       <c r="CO29" s="12">
         <f t="shared" si="51"/>
-        <v>8407.053224796724</v>
+        <v>9170.044653595105</v>
       </c>
       <c r="CQ29" s="4">
         <v>2031</v>
       </c>
       <c r="CR29" s="44">
         <f t="shared" si="35"/>
-        <v>1239.1812842485494</v>
+        <v>1339.1323601699651</v>
       </c>
       <c r="CS29" s="44">
         <f t="shared" si="36"/>
-        <v>4130.6042808284983</v>
+        <v>4463.7745338998839</v>
       </c>
       <c r="CT29" s="44">
         <f t="shared" si="37"/>
-        <v>2891.4229965799486</v>
+        <v>3124.6421737299183</v>
       </c>
       <c r="CU29" s="12">
         <f t="shared" si="57"/>
-        <v>7342.1009588569968</v>
+        <v>8008.441464999768</v>
       </c>
       <c r="CW29">
         <v>2031</v>
@@ -6384,152 +6369,152 @@
       </c>
       <c r="R30" s="44">
         <f t="shared" si="2"/>
-        <v>850.53202777021352</v>
+        <v>920.23205677857788</v>
       </c>
       <c r="S30" s="44">
         <f t="shared" si="3"/>
-        <v>2835.1067592340451</v>
+        <v>3067.4401892619262</v>
       </c>
       <c r="T30" s="44">
         <f t="shared" si="4"/>
-        <v>1984.5747314638313</v>
+        <v>2147.2081324833484</v>
       </c>
       <c r="U30" s="12">
         <f t="shared" si="40"/>
-        <v>4674.5136154680904</v>
+        <v>5139.1804755238527</v>
       </c>
       <c r="W30" s="4">
         <v>2032</v>
       </c>
       <c r="X30" s="44">
         <f t="shared" si="5"/>
-        <v>771.69554278328144</v>
+        <v>833.5588843948027</v>
       </c>
       <c r="Y30" s="44">
         <f t="shared" si="6"/>
-        <v>2572.3184759442715</v>
+        <v>2778.5296146493424</v>
       </c>
       <c r="Z30" s="44">
         <f t="shared" si="7"/>
-        <v>1800.62293316099</v>
+        <v>1944.9707302545396</v>
       </c>
       <c r="AA30" s="12">
         <f t="shared" si="52"/>
-        <v>4148.9370488885434</v>
+        <v>4561.3593262986851</v>
       </c>
       <c r="AC30" s="4">
         <v>2032</v>
       </c>
       <c r="AD30" s="44">
         <f t="shared" si="8"/>
-        <v>945.23602562527844</v>
+        <v>1024.350041400613</v>
       </c>
       <c r="AE30" s="44">
         <f t="shared" si="9"/>
-        <v>3150.7867520842615</v>
+        <v>3414.5001380020435</v>
       </c>
       <c r="AF30" s="44">
         <f t="shared" si="10"/>
-        <v>2205.5507264589828</v>
+        <v>2390.1500966014305</v>
       </c>
       <c r="AG30" s="12">
         <f t="shared" si="41"/>
-        <v>5305.8736011685232</v>
+        <v>5833.3003730040873</v>
       </c>
       <c r="AI30" s="4">
         <v>2032</v>
       </c>
       <c r="AJ30" s="44">
         <f t="shared" si="11"/>
-        <v>825.81211298617552</v>
+        <v>893.05487560739414</v>
       </c>
       <c r="AK30" s="44">
         <f t="shared" si="12"/>
-        <v>2752.707043287252</v>
+        <v>2976.8495853579807</v>
       </c>
       <c r="AL30" s="44">
         <f t="shared" si="13"/>
-        <v>1926.8949303010763</v>
+        <v>2083.7947097505862</v>
       </c>
       <c r="AM30" s="12">
         <f t="shared" si="53"/>
-        <v>4509.7141835745042</v>
+        <v>4957.9992677159617</v>
       </c>
       <c r="AO30" s="4">
         <v>2032</v>
       </c>
       <c r="AP30" s="44">
         <f t="shared" si="14"/>
-        <v>1147.1710051786699</v>
+        <v>1246.3582308327836</v>
       </c>
       <c r="AQ30" s="44">
         <f t="shared" si="15"/>
-        <v>3823.9033505955663</v>
+        <v>4154.5274361092788</v>
       </c>
       <c r="AR30" s="44">
         <f t="shared" si="16"/>
-        <v>2676.7323454168964</v>
+        <v>2908.1692052764952</v>
       </c>
       <c r="AS30" s="12">
         <f t="shared" si="42"/>
-        <v>6652.1067981911328</v>
+        <v>7313.354969218557</v>
       </c>
       <c r="AU30" s="4">
         <v>2032</v>
       </c>
       <c r="AV30" s="44">
         <f t="shared" si="17"/>
-        <v>985.99047972869198</v>
+        <v>1069.1556644125646</v>
       </c>
       <c r="AW30" s="44">
         <f t="shared" si="18"/>
-        <v>3286.6349324289736</v>
+        <v>3563.8522147085491</v>
       </c>
       <c r="AX30" s="44">
         <f t="shared" si="19"/>
-        <v>2300.6444527002814</v>
+        <v>2494.6965502959843</v>
       </c>
       <c r="AY30" s="12">
         <f t="shared" si="54"/>
-        <v>5577.5699618579474</v>
+        <v>6132.0045264170985</v>
       </c>
       <c r="BA30" s="4">
         <v>2032</v>
       </c>
       <c r="BB30" s="44">
         <f t="shared" si="20"/>
-        <v>877.42328642041718</v>
+        <v>949.79642278236577</v>
       </c>
       <c r="BC30" s="44">
         <f t="shared" si="21"/>
-        <v>2924.7442880680574</v>
+        <v>3165.9880759412194</v>
       </c>
       <c r="BD30" s="44">
         <f t="shared" si="22"/>
-        <v>2047.3210016476401</v>
+        <v>2216.1916531588536</v>
       </c>
       <c r="BE30" s="12">
         <f t="shared" si="43"/>
-        <v>4853.788673136115</v>
+        <v>5336.2762488824392</v>
       </c>
       <c r="BG30" s="4">
         <v>2032</v>
       </c>
       <c r="BH30" s="44">
         <f t="shared" si="23"/>
-        <v>780.71497115043042</v>
+        <v>843.47488293023468</v>
       </c>
       <c r="BI30" s="44">
         <f t="shared" si="24"/>
-        <v>2602.3832371681015</v>
+        <v>2811.5829431007824</v>
       </c>
       <c r="BJ30" s="44">
         <f t="shared" si="25"/>
-        <v>1821.6682660176709</v>
+        <v>1968.1080601705476</v>
       </c>
       <c r="BK30" s="12">
         <f t="shared" si="55"/>
-        <v>4209.0665713362032</v>
+        <v>4627.465983201565</v>
       </c>
       <c r="BM30" s="4">
         <v>2032</v>
@@ -6572,76 +6557,76 @@
       </c>
       <c r="BZ30" s="44">
         <f t="shared" si="26"/>
-        <v>1183.0816921960225</v>
+        <v>1285.8385953720031</v>
       </c>
       <c r="CA30" s="44">
         <f t="shared" si="27"/>
-        <v>3943.605640653408</v>
+        <v>4286.1286512400102</v>
       </c>
       <c r="CB30" s="44">
         <f t="shared" si="28"/>
-        <v>2760.5239484573854</v>
+        <v>3000.2900558680071</v>
       </c>
       <c r="CC30" s="12">
         <f t="shared" si="50"/>
-        <v>6891.5113783068164</v>
+        <v>7576.5573994800197</v>
       </c>
       <c r="CE30" s="4">
         <v>2032</v>
       </c>
       <c r="CF30" s="44">
         <f t="shared" si="29"/>
-        <v>1310.3558480435693</v>
+        <v>1425.7643524830983</v>
       </c>
       <c r="CG30" s="44">
         <f t="shared" si="30"/>
-        <v>4367.852826811898</v>
+        <v>4752.5478416103279</v>
       </c>
       <c r="CH30" s="44">
         <f t="shared" si="31"/>
-        <v>3057.4969787683285</v>
+        <v>3326.7834891272291</v>
       </c>
       <c r="CI30" s="12">
         <f t="shared" si="56"/>
-        <v>7740.0057506237954</v>
+        <v>8509.3957802206551</v>
       </c>
       <c r="CK30" s="4">
         <v>2032</v>
       </c>
       <c r="CL30" s="44">
         <f t="shared" si="32"/>
-        <v>1421.762491022984</v>
+        <v>1548.2452973559332</v>
       </c>
       <c r="CM30" s="44">
         <f t="shared" si="33"/>
-        <v>4739.2083034099469</v>
+        <v>5160.8176578531111</v>
       </c>
       <c r="CN30" s="44">
         <f t="shared" si="34"/>
-        <v>3317.4458123869626</v>
+        <v>3612.5723604971777</v>
       </c>
       <c r="CO30" s="12">
         <f t="shared" si="51"/>
-        <v>8482.7167038198932</v>
+        <v>9325.9354127062215</v>
       </c>
       <c r="CQ30" s="4">
         <v>2032</v>
       </c>
       <c r="CR30" s="44">
         <f t="shared" si="35"/>
-        <v>1260.5819655730063</v>
+        <v>1371.0427309357144</v>
       </c>
       <c r="CS30" s="44">
         <f t="shared" si="36"/>
-        <v>4201.9398852433542</v>
+        <v>4570.1424364523818</v>
       </c>
       <c r="CT30" s="44">
         <f t="shared" si="37"/>
-        <v>2941.3579196703477</v>
+        <v>3199.0997055166672</v>
       </c>
       <c r="CU30" s="12">
         <f t="shared" si="57"/>
-        <v>7408.1798674867086</v>
+        <v>8144.5849699047631</v>
       </c>
       <c r="CW30">
         <v>2032</v>
@@ -6710,152 +6695,152 @@
       </c>
       <c r="R31" s="44">
         <f t="shared" si="2"/>
-        <v>868.33146615109536</v>
+        <v>944.82581199116362</v>
       </c>
       <c r="S31" s="44">
         <f t="shared" si="3"/>
-        <v>2894.4382205036513</v>
+        <v>3149.4193733038787</v>
       </c>
       <c r="T31" s="44">
         <f t="shared" si="4"/>
-        <v>2026.1067543525558</v>
+        <v>2204.5935613127149</v>
       </c>
       <c r="U31" s="12">
         <f t="shared" si="40"/>
-        <v>4716.5842380073027</v>
+        <v>5226.5465436077575</v>
       </c>
       <c r="W31" s="4">
         <v>2033</v>
       </c>
       <c r="X31" s="44">
         <f t="shared" si="5"/>
-        <v>788.78545279928096</v>
+        <v>856.67919567686431</v>
       </c>
       <c r="Y31" s="44">
         <f t="shared" si="6"/>
-        <v>2629.2848426642699</v>
+        <v>2855.5973189228812</v>
       </c>
       <c r="Z31" s="44">
         <f t="shared" si="7"/>
-        <v>1840.4993898649889</v>
+        <v>1998.9181232460166</v>
       </c>
       <c r="AA31" s="12">
         <f t="shared" si="52"/>
-        <v>4186.2774823285399</v>
+        <v>4638.9024348457624</v>
       </c>
       <c r="AC31" s="4">
         <v>2033</v>
       </c>
       <c r="AD31" s="44">
         <f t="shared" si="8"/>
-        <v>963.88779998685584</v>
+        <v>1050.7138023517734</v>
       </c>
       <c r="AE31" s="44">
         <f t="shared" si="9"/>
-        <v>3212.9593332895197</v>
+        <v>3502.3793411725783</v>
       </c>
       <c r="AF31" s="44">
         <f t="shared" si="10"/>
-        <v>2249.0715333026637</v>
+        <v>2451.6655388208046</v>
       </c>
       <c r="AG31" s="12">
         <f t="shared" si="41"/>
-        <v>5353.6264635790394</v>
+        <v>5932.4664793451566</v>
       </c>
       <c r="AI31" s="4">
         <v>2033</v>
       </c>
       <c r="AJ31" s="44">
         <f t="shared" si="11"/>
-        <v>843.38907213400114</v>
+        <v>917.18661874006989</v>
       </c>
       <c r="AK31" s="44">
         <f t="shared" si="12"/>
-        <v>2811.2969071133371</v>
+        <v>3057.2887291335664</v>
       </c>
       <c r="AL31" s="44">
         <f t="shared" si="13"/>
-        <v>1967.9078349793358</v>
+        <v>2140.1021103934963</v>
       </c>
       <c r="AM31" s="12">
         <f t="shared" si="53"/>
-        <v>4550.3016112266741</v>
+        <v>5042.2852552671329</v>
       </c>
       <c r="AO31" s="4">
         <v>2033</v>
       </c>
       <c r="AP31" s="44">
         <f t="shared" si="14"/>
-        <v>1167.6401943562278</v>
+        <v>1276.4961310042906</v>
       </c>
       <c r="AQ31" s="44">
         <f t="shared" si="15"/>
-        <v>3892.1339811874263</v>
+        <v>4254.9871033476356</v>
       </c>
       <c r="AR31" s="44">
         <f t="shared" si="16"/>
-        <v>2724.4937868311981</v>
+        <v>2978.4909723433448</v>
       </c>
       <c r="AS31" s="12">
         <f t="shared" si="42"/>
-        <v>6711.9757593748527</v>
+        <v>7437.6820036952722</v>
       </c>
       <c r="AU31" s="4">
         <v>2033</v>
       </c>
       <c r="AV31" s="44">
         <f t="shared" si="17"/>
-        <v>1005.0090441772002</v>
+        <v>1096.2811209549284</v>
       </c>
       <c r="AW31" s="44">
         <f t="shared" si="18"/>
-        <v>3350.0301472573342</v>
+        <v>3654.2704031830945</v>
       </c>
       <c r="AX31" s="44">
         <f t="shared" si="19"/>
-        <v>2345.0211030801338</v>
+        <v>2557.9892822281658</v>
       </c>
       <c r="AY31" s="12">
         <f t="shared" si="54"/>
-        <v>5627.7680915146684</v>
+        <v>6236.2486033661889</v>
       </c>
       <c r="BA31" s="4">
         <v>2033</v>
       </c>
       <c r="BB31" s="44">
         <f t="shared" si="20"/>
-        <v>895.46474612915097</v>
+        <v>974.89277221701605</v>
       </c>
       <c r="BC31" s="44">
         <f t="shared" si="21"/>
-        <v>2984.8824870971698</v>
+        <v>3249.6425740567202</v>
       </c>
       <c r="BD31" s="44">
         <f t="shared" si="22"/>
-        <v>2089.4177409680187</v>
+        <v>2274.7498018397041</v>
       </c>
       <c r="BE31" s="12">
         <f t="shared" si="43"/>
-        <v>4897.4727711943397</v>
+        <v>5426.9929451134403</v>
       </c>
       <c r="BG31" s="4">
         <v>2033</v>
       </c>
       <c r="BH31" s="44">
         <f t="shared" si="23"/>
-        <v>797.88605602173425</v>
+        <v>866.76376618739869</v>
       </c>
       <c r="BI31" s="44">
         <f t="shared" si="24"/>
-        <v>2659.6201867391142</v>
+        <v>2889.2125539579956</v>
       </c>
       <c r="BJ31" s="44">
         <f t="shared" si="25"/>
-        <v>1861.7341307173797</v>
+        <v>2022.4487877705967</v>
       </c>
       <c r="BK31" s="12">
         <f t="shared" si="55"/>
-        <v>4246.9481704782283</v>
+        <v>4706.1329049159913</v>
       </c>
       <c r="BM31" s="4">
         <v>2033</v>
@@ -6898,76 +6883,76 @@
       </c>
       <c r="BZ31" s="44">
         <f t="shared" si="26"/>
-        <v>1203.8740775567364</v>
+        <v>1316.6476617406768</v>
       </c>
       <c r="CA31" s="44">
         <f t="shared" si="27"/>
-        <v>4012.9135918557886</v>
+        <v>4388.8255391355897</v>
       </c>
       <c r="CB31" s="44">
         <f t="shared" si="28"/>
-        <v>2809.0395142990519</v>
+        <v>3072.1778773949127</v>
       </c>
       <c r="CC31" s="12">
         <f t="shared" si="50"/>
-        <v>6953.5349807115772</v>
+        <v>7705.3588752711794</v>
       </c>
       <c r="CE31" s="4">
         <v>2033</v>
       </c>
       <c r="CF31" s="44">
         <f t="shared" si="29"/>
-        <v>1332.2937008069114</v>
+        <v>1458.9521567226609</v>
       </c>
       <c r="CG31" s="44">
         <f t="shared" si="30"/>
-        <v>4440.9790026897044</v>
+        <v>4863.1738557422032</v>
       </c>
       <c r="CH31" s="44">
         <f t="shared" si="31"/>
-        <v>3108.6853018827928</v>
+        <v>3404.221699019542</v>
       </c>
       <c r="CI31" s="12">
         <f t="shared" si="56"/>
-        <v>7809.6658023794089</v>
+        <v>8654.0555084844054</v>
       </c>
       <c r="CK31" s="4">
         <v>2033</v>
       </c>
       <c r="CL31" s="44">
         <f t="shared" si="32"/>
-        <v>1444.7030035731407</v>
+        <v>1583.5152776583338</v>
       </c>
       <c r="CM31" s="44">
         <f t="shared" si="33"/>
-        <v>4815.676678577136</v>
+        <v>5278.3842588611133</v>
       </c>
       <c r="CN31" s="44">
         <f t="shared" si="34"/>
-        <v>3370.9736750039951</v>
+        <v>3694.8689812027792</v>
       </c>
       <c r="CO31" s="12">
         <f t="shared" si="51"/>
-        <v>8559.0611541542712</v>
+        <v>9484.4763147222257</v>
       </c>
       <c r="CQ31" s="4">
         <v>2033</v>
       </c>
       <c r="CR31" s="44">
         <f t="shared" si="35"/>
-        <v>1282.0718533941131</v>
+        <v>1403.3002676089716</v>
       </c>
       <c r="CS31" s="44">
         <f t="shared" si="36"/>
-        <v>4273.5728446470439</v>
+        <v>4677.6675586965721</v>
       </c>
       <c r="CT31" s="44">
         <f t="shared" si="37"/>
-        <v>2991.5009912529304</v>
+        <v>3274.3672910876003</v>
       </c>
       <c r="CU31" s="12">
         <f t="shared" si="57"/>
-        <v>7474.8534862940878</v>
+        <v>8283.0429143931433</v>
       </c>
       <c r="CW31">
         <v>2033</v>
@@ -7036,152 +7021,152 @@
       </c>
       <c r="R32" s="44">
         <f t="shared" si="2"/>
-        <v>886.18769987240523</v>
+        <v>969.64235067736331</v>
       </c>
       <c r="S32" s="44">
         <f t="shared" si="3"/>
-        <v>2953.9589995746842</v>
+        <v>3232.1411689245447</v>
       </c>
       <c r="T32" s="44">
         <f t="shared" si="4"/>
-        <v>2067.7712997022786</v>
+        <v>2262.4988182471811</v>
       </c>
       <c r="U32" s="12">
         <f t="shared" si="40"/>
-        <v>4759.0334961493681</v>
+        <v>5315.3978348490891</v>
       </c>
       <c r="W32" s="4">
         <v>2034</v>
       </c>
       <c r="X32" s="44">
         <f t="shared" si="5"/>
-        <v>805.92577240042442</v>
+        <v>879.997241885721</v>
       </c>
       <c r="Y32" s="44">
         <f t="shared" si="6"/>
-        <v>2686.4192413347482</v>
+        <v>2933.3241396190701</v>
       </c>
       <c r="Z32" s="44">
         <f t="shared" si="7"/>
-        <v>1880.4934689343236</v>
+        <v>2053.3268977333491</v>
       </c>
       <c r="AA32" s="12">
         <f t="shared" si="52"/>
-        <v>4223.9539796694962</v>
+        <v>4717.7637762381401</v>
       </c>
       <c r="AC32" s="4">
         <v>2034</v>
       </c>
       <c r="AD32" s="44">
         <f t="shared" si="8"/>
-        <v>982.60404071268761</v>
+        <v>1077.3304368741035</v>
       </c>
       <c r="AE32" s="44">
         <f t="shared" si="9"/>
-        <v>3275.3468023756254</v>
+        <v>3591.1014562470118</v>
       </c>
       <c r="AF32" s="44">
         <f t="shared" si="10"/>
-        <v>2292.7427616629375</v>
+        <v>2513.7710193729081</v>
       </c>
       <c r="AG32" s="12">
         <f t="shared" si="41"/>
-        <v>5401.8091017512506</v>
+        <v>6033.3184094940234</v>
       </c>
       <c r="AI32" s="4">
         <v>2034</v>
       </c>
       <c r="AJ32" s="44">
         <f t="shared" si="11"/>
-        <v>861.02082430915709</v>
+        <v>941.53329114100097</v>
       </c>
       <c r="AK32" s="44">
         <f t="shared" si="12"/>
-        <v>2870.069414363857</v>
+        <v>3138.4443038033369</v>
       </c>
       <c r="AL32" s="44">
         <f t="shared" si="13"/>
-        <v>2009.0485900546998</v>
+        <v>2196.9110126623355</v>
       </c>
       <c r="AM32" s="12">
         <f t="shared" si="53"/>
-        <v>4591.2543257277139</v>
+        <v>5128.0041046066735</v>
       </c>
       <c r="AO32" s="4">
         <v>2034</v>
       </c>
       <c r="AP32" s="44">
         <f t="shared" si="14"/>
-        <v>1188.1902066313839</v>
+        <v>1306.9510651137134</v>
       </c>
       <c r="AQ32" s="44">
         <f t="shared" si="15"/>
-        <v>3960.634022104613</v>
+        <v>4356.503550379045</v>
       </c>
       <c r="AR32" s="44">
         <f t="shared" si="16"/>
-        <v>2772.4438154732288</v>
+        <v>3049.5524852653311</v>
       </c>
       <c r="AS32" s="12">
         <f t="shared" si="42"/>
-        <v>6772.3835412092258</v>
+        <v>7564.1225977580907</v>
       </c>
       <c r="AU32" s="4">
         <v>2034</v>
       </c>
       <c r="AV32" s="44">
         <f t="shared" si="17"/>
-        <v>1024.0953761007449</v>
+        <v>1123.672399893512</v>
       </c>
       <c r="AW32" s="44">
         <f t="shared" si="18"/>
-        <v>3413.6512536691498</v>
+        <v>3745.574666311707</v>
       </c>
       <c r="AX32" s="44">
         <f t="shared" si="19"/>
-        <v>2389.5558775684049</v>
+        <v>2621.9022664181948</v>
       </c>
       <c r="AY32" s="12">
         <f t="shared" si="54"/>
-        <v>5678.4180043382994</v>
+        <v>6342.2648296234138</v>
       </c>
       <c r="BA32" s="4">
         <v>2034</v>
       </c>
       <c r="BB32" s="44">
         <f t="shared" si="20"/>
-        <v>913.56517937026319</v>
+        <v>1000.2204492270553</v>
       </c>
       <c r="BC32" s="44">
         <f t="shared" si="21"/>
-        <v>3045.2172645675441</v>
+        <v>3334.0681640901844</v>
       </c>
       <c r="BD32" s="44">
         <f t="shared" si="22"/>
-        <v>2131.6520851972809</v>
+        <v>2333.8477148631291</v>
       </c>
       <c r="BE32" s="12">
         <f t="shared" si="43"/>
-        <v>4941.550026135088</v>
+        <v>5519.2518251803685</v>
       </c>
       <c r="BG32" s="4">
         <v>2034</v>
       </c>
       <c r="BH32" s="44">
         <f t="shared" si="23"/>
-        <v>815.10828105187977</v>
+        <v>890.2532500949344</v>
       </c>
       <c r="BI32" s="44">
         <f t="shared" si="24"/>
-        <v>2717.0276035062661</v>
+        <v>2967.5108336497815</v>
       </c>
       <c r="BJ32" s="44">
         <f t="shared" si="25"/>
-        <v>1901.9193224543862</v>
+        <v>2077.2575835548469</v>
       </c>
       <c r="BK32" s="12">
         <f t="shared" si="55"/>
-        <v>4285.170704012532</v>
+        <v>4786.1371642995628</v>
       </c>
       <c r="BM32" s="4">
         <v>2034</v>
@@ -7224,76 +7209,76 @@
       </c>
       <c r="BZ32" s="44">
         <f t="shared" si="26"/>
-        <v>1224.750194780697</v>
+        <v>1347.7851718726181</v>
       </c>
       <c r="CA32" s="44">
         <f t="shared" si="27"/>
-        <v>4082.5006492689904</v>
+        <v>4492.6172395753938</v>
       </c>
       <c r="CB32" s="44">
         <f t="shared" si="28"/>
-        <v>2857.7504544882931</v>
+        <v>3144.8320677027755</v>
       </c>
       <c r="CC32" s="12">
         <f t="shared" si="50"/>
-        <v>7016.1167955379806</v>
+        <v>7836.3499761507883</v>
       </c>
       <c r="CE32" s="4">
         <v>2034</v>
       </c>
       <c r="CF32" s="44">
         <f t="shared" si="29"/>
-        <v>1354.3255946401234</v>
+        <v>1492.5088432692958</v>
       </c>
       <c r="CG32" s="44">
         <f t="shared" si="30"/>
-        <v>4514.4186488004116</v>
+        <v>4975.0294775643197</v>
       </c>
       <c r="CH32" s="44">
         <f t="shared" si="31"/>
-        <v>3160.0930541602879</v>
+        <v>3482.5206342950237</v>
       </c>
       <c r="CI32" s="12">
         <f t="shared" si="56"/>
-        <v>7879.9527946008229</v>
+        <v>8801.17445212864</v>
       </c>
       <c r="CK32" s="4">
         <v>2034</v>
       </c>
       <c r="CL32" s="44">
         <f t="shared" si="32"/>
-        <v>1467.7465811312488</v>
+        <v>1619.1895372608751</v>
       </c>
       <c r="CM32" s="44">
         <f t="shared" si="33"/>
-        <v>4892.4886037708293</v>
+        <v>5397.2984575362507</v>
       </c>
       <c r="CN32" s="44">
         <f t="shared" si="34"/>
-        <v>3424.7420226395802</v>
+        <v>3778.1089202753751</v>
       </c>
       <c r="CO32" s="12">
         <f t="shared" si="51"/>
-        <v>8636.0927045416593</v>
+        <v>9645.712412072502</v>
       </c>
       <c r="CQ32" s="4">
         <v>2034</v>
       </c>
       <c r="CR32" s="44">
         <f t="shared" si="35"/>
-        <v>1303.6517506006101</v>
+        <v>1435.9108720406737</v>
       </c>
       <c r="CS32" s="44">
         <f t="shared" si="36"/>
-        <v>4345.505835335367</v>
+        <v>4786.3695734689127</v>
       </c>
       <c r="CT32" s="44">
         <f t="shared" si="37"/>
-        <v>3041.8540847347567</v>
+        <v>3350.4587014282388</v>
       </c>
       <c r="CU32" s="12">
         <f t="shared" si="57"/>
-        <v>7542.1271676707338</v>
+        <v>8423.854643937826</v>
       </c>
       <c r="CW32">
         <v>2034</v>
@@ -7362,152 +7347,152 @@
       </c>
       <c r="R33" s="44">
         <f t="shared" si="2"/>
-        <v>904.10124024220681</v>
+        <v>994.68546030622849</v>
       </c>
       <c r="S33" s="44">
         <f t="shared" si="3"/>
-        <v>3013.670800807356</v>
+        <v>3315.6182010207617</v>
       </c>
       <c r="T33" s="44">
         <f t="shared" si="4"/>
-        <v>2109.569560565149</v>
+        <v>2320.9327407145329</v>
       </c>
       <c r="U33" s="12">
         <f t="shared" si="40"/>
-        <v>4801.8647976147122</v>
+        <v>5405.7595980415235</v>
       </c>
       <c r="W33" s="4">
         <v>2035</v>
       </c>
       <c r="X33" s="44">
         <f t="shared" si="5"/>
-        <v>823.11695542297809</v>
+        <v>903.51638466512816</v>
       </c>
       <c r="Y33" s="44">
         <f t="shared" si="6"/>
-        <v>2743.7231847432604</v>
+        <v>3011.7212822170941</v>
       </c>
       <c r="Z33" s="44">
         <f t="shared" si="7"/>
-        <v>1920.6062293202822</v>
+        <v>2108.2048975519656</v>
       </c>
       <c r="AA33" s="12">
         <f t="shared" si="52"/>
-        <v>4261.9695654865209</v>
+        <v>4797.9657604341883</v>
       </c>
       <c r="AC33" s="4">
         <v>2035</v>
       </c>
       <c r="AD33" s="44">
         <f t="shared" si="8"/>
-        <v>1001.3853281500517</v>
+        <v>1104.2042439683132</v>
       </c>
       <c r="AE33" s="44">
         <f t="shared" si="9"/>
-        <v>3337.9510938335056</v>
+        <v>3680.6808132277106</v>
       </c>
       <c r="AF33" s="44">
         <f t="shared" si="10"/>
-        <v>2336.5657656834537</v>
+        <v>2576.4765692593974</v>
       </c>
       <c r="AG33" s="12">
         <f t="shared" si="41"/>
-        <v>5450.4253836670114</v>
+        <v>6135.8848224554213</v>
       </c>
       <c r="AI33" s="4">
         <v>2035</v>
       </c>
       <c r="AJ33" s="44">
         <f t="shared" si="11"/>
-        <v>878.70786279888944</v>
+        <v>966.09854675774795</v>
       </c>
       <c r="AK33" s="44">
         <f t="shared" si="12"/>
-        <v>2929.0262093296315</v>
+        <v>3220.3284891924932</v>
       </c>
       <c r="AL33" s="44">
         <f t="shared" si="13"/>
-        <v>2050.318346530742</v>
+        <v>2254.2299424347452</v>
       </c>
       <c r="AM33" s="12">
         <f t="shared" si="53"/>
-        <v>4632.575614659263</v>
+        <v>5215.1801743849865</v>
       </c>
       <c r="AO33" s="4">
         <v>2035</v>
       </c>
       <c r="AP33" s="44">
         <f t="shared" si="14"/>
-        <v>1208.821769562016</v>
+        <v>1337.7284228879967</v>
       </c>
       <c r="AQ33" s="44">
         <f t="shared" si="15"/>
-        <v>4029.4058985400538</v>
+        <v>4459.0947429599892</v>
       </c>
       <c r="AR33" s="44">
         <f t="shared" si="16"/>
-        <v>2820.5841289780374</v>
+        <v>3121.366320071992</v>
       </c>
       <c r="AS33" s="12">
         <f t="shared" si="42"/>
-        <v>6833.3349930801078</v>
+        <v>7692.7126819199775</v>
       </c>
       <c r="AU33" s="4">
         <v>2035</v>
       </c>
       <c r="AV33" s="44">
         <f t="shared" si="17"/>
-        <v>1043.2500855566013</v>
+        <v>1151.3340203590515</v>
       </c>
       <c r="AW33" s="44">
         <f t="shared" si="18"/>
-        <v>3477.5002851886716</v>
+        <v>3837.7800678635053</v>
       </c>
       <c r="AX33" s="44">
         <f t="shared" si="19"/>
-        <v>2434.2501996320698</v>
+        <v>2686.4460475044534</v>
       </c>
       <c r="AY33" s="12">
         <f t="shared" si="54"/>
-        <v>5729.5237663773432</v>
+        <v>6450.0833317270108</v>
       </c>
       <c r="BA33" s="4">
         <v>2035</v>
       </c>
       <c r="BB33" s="44">
         <f t="shared" si="20"/>
-        <v>931.72511705554541</v>
+        <v>1025.783386531265</v>
       </c>
       <c r="BC33" s="44">
         <f t="shared" si="21"/>
-        <v>3105.7503901851514</v>
+        <v>3419.2779551042172</v>
       </c>
       <c r="BD33" s="44">
         <f t="shared" si="22"/>
-        <v>2174.0252731296059</v>
+        <v>2393.4945685729517</v>
       </c>
       <c r="BE33" s="12">
         <f t="shared" si="43"/>
-        <v>4986.023976370303</v>
+        <v>5613.0791062084345</v>
       </c>
       <c r="BG33" s="4">
         <v>2035</v>
       </c>
       <c r="BH33" s="44">
         <f t="shared" si="23"/>
-        <v>832.38210665229656</v>
+        <v>913.94674501389818</v>
       </c>
       <c r="BI33" s="44">
         <f t="shared" si="24"/>
-        <v>2774.6070221743221</v>
+        <v>3046.4891500463273</v>
       </c>
       <c r="BJ33" s="44">
         <f t="shared" si="25"/>
-        <v>1942.2249155220254</v>
+        <v>2132.5424050324291</v>
       </c>
       <c r="BK33" s="12">
         <f t="shared" si="55"/>
-        <v>4323.7372403486443</v>
+        <v>4867.5014960926546</v>
       </c>
       <c r="BM33" s="4">
         <v>2035</v>
@@ -7550,76 +7535,76 @@
       </c>
       <c r="BZ33" s="44">
         <f t="shared" si="26"/>
-        <v>1245.7107976046732</v>
+        <v>1379.2567094618025</v>
       </c>
       <c r="CA33" s="44">
         <f t="shared" si="27"/>
-        <v>4152.3693253489109</v>
+        <v>4597.5223648726751</v>
       </c>
       <c r="CB33" s="44">
         <f t="shared" si="28"/>
-        <v>2906.6585277442373</v>
+        <v>3218.2656554108726</v>
       </c>
       <c r="CC33" s="12">
         <f t="shared" si="50"/>
-        <v>7079.261846697822</v>
+        <v>7969.5679257453512</v>
       </c>
       <c r="CE33" s="4">
         <v>2035</v>
       </c>
       <c r="CF33" s="44">
         <f t="shared" si="29"/>
-        <v>1376.4523760628342</v>
+        <v>1526.4406832722239</v>
       </c>
       <c r="CG33" s="44">
         <f t="shared" si="30"/>
-        <v>4588.1745868761145</v>
+        <v>5088.1356109074131</v>
       </c>
       <c r="CH33" s="44">
         <f t="shared" si="31"/>
-        <v>3211.7222108132801</v>
+        <v>3561.6949276351888</v>
       </c>
       <c r="CI33" s="12">
         <f t="shared" si="56"/>
-        <v>7950.8723697522291</v>
+        <v>8950.7944178148264</v>
       </c>
       <c r="CK33" s="4">
         <v>2035</v>
       </c>
       <c r="CL33" s="44">
         <f t="shared" si="32"/>
-        <v>1490.8941514323799</v>
+        <v>1655.27494906166</v>
       </c>
       <c r="CM33" s="44">
         <f t="shared" si="33"/>
-        <v>4969.6471714412664</v>
+        <v>5517.5831635388668</v>
       </c>
       <c r="CN33" s="44">
         <f t="shared" si="34"/>
-        <v>3478.7530200088863</v>
+        <v>3862.3082144772065</v>
       </c>
       <c r="CO33" s="12">
         <f t="shared" si="51"/>
-        <v>8713.817538882533</v>
+        <v>9809.6895230777336</v>
       </c>
       <c r="CQ33" s="4">
         <v>2035</v>
       </c>
       <c r="CR33" s="44">
         <f t="shared" si="35"/>
-        <v>1325.3224674269654</v>
+        <v>1468.8805465327152</v>
       </c>
       <c r="CS33" s="44">
         <f t="shared" si="36"/>
-        <v>4417.7415580898851</v>
+        <v>4896.2684884423843</v>
       </c>
       <c r="CT33" s="44">
         <f t="shared" si="37"/>
-        <v>3092.4190906629192</v>
+        <v>3427.3879419096688</v>
       </c>
       <c r="CU33" s="12">
         <f t="shared" si="57"/>
-        <v>7610.0063121797693</v>
+        <v>8567.0601728847687</v>
       </c>
       <c r="CW33">
         <v>2035</v>
@@ -7688,152 +7673,152 @@
       </c>
       <c r="R34" s="44">
         <f t="shared" si="2"/>
-        <v>922.07260271898656</v>
+        <v>1019.9589922812344</v>
       </c>
       <c r="S34" s="44">
         <f t="shared" si="3"/>
-        <v>3073.5753423966221</v>
+        <v>3399.8633076041147</v>
       </c>
       <c r="T34" s="44">
         <f t="shared" si="4"/>
-        <v>2151.5027396776354</v>
+        <v>2379.9043153228799</v>
       </c>
       <c r="U34" s="12">
         <f t="shared" si="40"/>
-        <v>4845.081580793244</v>
+        <v>5497.6575112082292</v>
       </c>
       <c r="W34" s="4">
         <v>2036</v>
       </c>
       <c r="X34" s="44">
         <f t="shared" si="5"/>
-        <v>840.35945933638482</v>
+        <v>927.24004235423536</v>
       </c>
       <c r="Y34" s="44">
         <f t="shared" si="6"/>
-        <v>2801.1981977879495</v>
+        <v>3090.8001411807845</v>
       </c>
       <c r="Z34" s="44">
         <f t="shared" si="7"/>
-        <v>1960.8387384515645</v>
+        <v>2163.5600988265492</v>
       </c>
       <c r="AA34" s="12">
         <f t="shared" si="52"/>
-        <v>4300.3272915758989</v>
+        <v>4879.5311783615689</v>
       </c>
       <c r="AC34" s="4">
         <v>2036</v>
       </c>
       <c r="AD34" s="44">
         <f t="shared" si="8"/>
-        <v>1020.232247418002</v>
+        <v>1131.3395952655744</v>
       </c>
       <c r="AE34" s="44">
         <f t="shared" si="9"/>
-        <v>3400.7741580600068</v>
+        <v>3771.1319842185817</v>
       </c>
       <c r="AF34" s="44">
         <f t="shared" si="10"/>
-        <v>2380.5419106420045</v>
+        <v>2639.792388953007</v>
       </c>
       <c r="AG34" s="12">
         <f t="shared" si="41"/>
-        <v>5499.4792121200135</v>
+        <v>6240.1948644371632</v>
       </c>
       <c r="AI34" s="4">
         <v>2036</v>
       </c>
       <c r="AJ34" s="44">
         <f t="shared" si="11"/>
-        <v>896.45068487867934</v>
+        <v>990.88610120242959</v>
       </c>
       <c r="AK34" s="44">
         <f t="shared" si="12"/>
-        <v>2988.168949595598</v>
+        <v>3302.9536706747654</v>
       </c>
       <c r="AL34" s="44">
         <f t="shared" si="13"/>
-        <v>2091.7182647169184</v>
+        <v>2312.0675694723354</v>
       </c>
       <c r="AM34" s="12">
         <f t="shared" si="53"/>
-        <v>4674.2687951911957</v>
+        <v>5303.8382373495306</v>
       </c>
       <c r="AO34" s="4">
         <v>2036</v>
       </c>
       <c r="AP34" s="44">
         <f t="shared" si="14"/>
-        <v>1229.5356168026742</v>
+        <v>1368.8336852268924</v>
       </c>
       <c r="AQ34" s="44">
         <f t="shared" si="15"/>
-        <v>4098.452056008914</v>
+        <v>4562.7789507563084</v>
       </c>
       <c r="AR34" s="44">
         <f t="shared" si="16"/>
-        <v>2868.9164392062398</v>
+        <v>3193.9452655294158</v>
       </c>
       <c r="AS34" s="12">
         <f t="shared" si="42"/>
-        <v>6894.8350080178279</v>
+        <v>7823.4887975126167</v>
       </c>
       <c r="AU34" s="4">
         <v>2036</v>
       </c>
       <c r="AV34" s="44">
         <f t="shared" si="17"/>
-        <v>1062.4737876412107</v>
+        <v>1179.2705778549555</v>
       </c>
       <c r="AW34" s="44">
         <f t="shared" si="18"/>
-        <v>3541.5792921373695</v>
+        <v>3930.901926183185</v>
       </c>
       <c r="AX34" s="44">
         <f t="shared" si="19"/>
-        <v>2479.1055044961586</v>
+        <v>2751.6313483282293</v>
       </c>
       <c r="AY34" s="12">
         <f t="shared" si="54"/>
-        <v>5781.0894802747389</v>
+        <v>6559.7347483663698</v>
       </c>
       <c r="BA34" s="4">
         <v>2036</v>
       </c>
       <c r="BB34" s="44">
         <f t="shared" si="20"/>
-        <v>949.94509442364529</v>
+        <v>1051.5855832520965</v>
       </c>
       <c r="BC34" s="44">
         <f t="shared" si="21"/>
-        <v>3166.4836480788176</v>
+        <v>3505.2852775069887</v>
       </c>
       <c r="BD34" s="44">
         <f t="shared" si="22"/>
-        <v>2216.5385536551721</v>
+        <v>2453.6996942548917</v>
       </c>
       <c r="BE34" s="12">
         <f t="shared" si="43"/>
-        <v>5030.8981921576351</v>
+        <v>5708.5014510139772</v>
       </c>
       <c r="BG34" s="4">
         <v>2036</v>
       </c>
       <c r="BH34" s="44">
         <f t="shared" si="23"/>
-        <v>849.70799692676735</v>
+        <v>937.84771882893438</v>
       </c>
       <c r="BI34" s="44">
         <f t="shared" si="24"/>
-        <v>2832.3599897558911</v>
+        <v>3126.1590627631149</v>
       </c>
       <c r="BJ34" s="44">
         <f t="shared" si="25"/>
-        <v>1982.6519928291236</v>
+        <v>2188.3113439341801</v>
       </c>
       <c r="BK34" s="12">
         <f t="shared" si="55"/>
-        <v>4362.650875511782</v>
+        <v>4950.2490215262296</v>
       </c>
       <c r="BM34" s="4">
         <v>2036</v>
@@ -7876,76 +7861,76 @@
       </c>
       <c r="BZ34" s="44">
         <f t="shared" si="26"/>
-        <v>1266.7566460977152</v>
+        <v>1411.0679526724532</v>
       </c>
       <c r="CA34" s="44">
         <f t="shared" si="27"/>
-        <v>4222.5221536590507</v>
+        <v>4703.5598422415105</v>
       </c>
       <c r="CB34" s="44">
         <f t="shared" si="28"/>
-        <v>2955.7655075613352</v>
+        <v>3292.4918895690571</v>
       </c>
       <c r="CC34" s="12">
         <f t="shared" si="50"/>
-        <v>7142.9752033181012</v>
+        <v>8105.0505804830218</v>
       </c>
       <c r="CE34" s="4">
         <v>2036</v>
       </c>
       <c r="CF34" s="44">
         <f t="shared" si="29"/>
-        <v>1398.6748987619997</v>
+        <v>1560.7540540376517</v>
       </c>
       <c r="CG34" s="44">
         <f t="shared" si="30"/>
-        <v>4662.249662539999</v>
+        <v>5202.513513458839</v>
       </c>
       <c r="CH34" s="44">
         <f t="shared" si="31"/>
-        <v>3263.5747637779991</v>
+        <v>3641.7594594211869</v>
       </c>
       <c r="CI34" s="12">
         <f t="shared" si="56"/>
-        <v>8022.4302210799988</v>
+        <v>9102.9579229176779</v>
       </c>
       <c r="CK34" s="4">
         <v>2036</v>
       </c>
       <c r="CL34" s="44">
         <f t="shared" si="32"/>
-        <v>1514.1466501098714</v>
+        <v>1691.7785023455083</v>
       </c>
       <c r="CM34" s="44">
         <f t="shared" si="33"/>
-        <v>5047.1555003662379</v>
+        <v>5639.2616744850275</v>
       </c>
       <c r="CN34" s="44">
         <f t="shared" si="34"/>
-        <v>3533.0088502563663</v>
+        <v>3947.483172139519</v>
       </c>
       <c r="CO34" s="12">
         <f t="shared" si="51"/>
-        <v>8792.2418967324757</v>
+        <v>9976.4542449700548</v>
       </c>
       <c r="CQ34" s="4">
         <v>2036</v>
       </c>
       <c r="CR34" s="44">
         <f t="shared" si="35"/>
-        <v>1347.0848209484079</v>
+        <v>1502.2153949735714</v>
       </c>
       <c r="CS34" s="44">
         <f t="shared" si="36"/>
-        <v>4490.2827364946934</v>
+        <v>5007.3846499119045</v>
       </c>
       <c r="CT34" s="44">
         <f t="shared" si="37"/>
-        <v>3143.197915546285</v>
+        <v>3505.1692549383329</v>
       </c>
       <c r="CU34" s="12">
         <f t="shared" si="57"/>
-        <v>7678.4963689893866</v>
+        <v>8712.7001958238088</v>
       </c>
       <c r="CW34">
         <v>2036</v>
@@ -8014,152 +7999,152 @@
       </c>
       <c r="R35" s="44">
         <f t="shared" si="2"/>
-        <v>940.10230785305748</v>
+        <v>1045.4668639348154</v>
       </c>
       <c r="S35" s="44">
         <f t="shared" si="3"/>
-        <v>3133.6743595101916</v>
+        <v>3484.8895464493844</v>
       </c>
       <c r="T35" s="44">
         <f t="shared" si="4"/>
-        <v>2193.5720516571341</v>
+        <v>2439.4226825145688</v>
       </c>
       <c r="U35" s="12">
         <f t="shared" si="40"/>
-        <v>4888.6873150203828</v>
+        <v>5591.1176888987684</v>
       </c>
       <c r="W35" s="4">
         <v>2037</v>
       </c>
       <c r="X35" s="44">
         <f t="shared" si="5"/>
-        <v>857.65374618001215</v>
+        <v>951.1716918590572</v>
       </c>
       <c r="Y35" s="44">
         <f t="shared" si="6"/>
-        <v>2858.8458206000405</v>
+        <v>3170.5723061968574</v>
       </c>
       <c r="Z35" s="44">
         <f t="shared" si="7"/>
-        <v>2001.1920744200281</v>
+        <v>2219.4006143378001</v>
       </c>
       <c r="AA35" s="12">
         <f t="shared" si="52"/>
-        <v>4339.0302372000815</v>
+        <v>4962.4832083937154</v>
       </c>
       <c r="AC35" s="4">
         <v>2037</v>
       </c>
       <c r="AD35" s="44">
         <f t="shared" si="8"/>
-        <v>1039.1453893543639</v>
+        <v>1158.7409371698891</v>
       </c>
       <c r="AE35" s="44">
         <f t="shared" si="9"/>
-        <v>3463.8179645145465</v>
+        <v>3862.469790566297</v>
       </c>
       <c r="AF35" s="44">
         <f t="shared" si="10"/>
-        <v>2424.6725751601825</v>
+        <v>2703.7288533964079</v>
       </c>
       <c r="AG35" s="12">
         <f t="shared" si="41"/>
-        <v>5548.9745250290935</v>
+        <v>6346.2781771325945</v>
       </c>
       <c r="AI35" s="4">
         <v>2037</v>
       </c>
       <c r="AJ35" s="44">
         <f t="shared" si="11"/>
-        <v>914.24979275218732</v>
+        <v>1015.8997337076709</v>
       </c>
       <c r="AK35" s="44">
         <f t="shared" si="12"/>
-        <v>3047.499309173958</v>
+        <v>3386.3324456922364</v>
       </c>
       <c r="AL35" s="44">
         <f t="shared" si="13"/>
-        <v>2133.2495164217703</v>
+        <v>2370.4327119845652</v>
       </c>
       <c r="AM35" s="12">
         <f t="shared" si="53"/>
-        <v>4716.3372143479164</v>
+        <v>5394.0034873844725</v>
       </c>
       <c r="AO35" s="4">
         <v>2037</v>
       </c>
       <c r="AP35" s="44">
         <f t="shared" si="14"/>
-        <v>1250.3324890634981</v>
+        <v>1400.2724266605496</v>
       </c>
       <c r="AQ35" s="44">
         <f t="shared" si="15"/>
-        <v>4167.7749635449936</v>
+        <v>4667.5747555351654</v>
       </c>
       <c r="AR35" s="44">
         <f t="shared" si="16"/>
-        <v>2917.4424744814955</v>
+        <v>3267.3023288746158</v>
       </c>
       <c r="AS35" s="12">
         <f t="shared" si="42"/>
-        <v>6956.8885230899878</v>
+        <v>7956.4881070703304</v>
       </c>
       <c r="AU35" s="4">
         <v>2037</v>
       </c>
       <c r="AV35" s="44">
         <f t="shared" si="17"/>
-        <v>1081.7671034395817</v>
+        <v>1207.4867464632896</v>
       </c>
       <c r="AW35" s="44">
         <f t="shared" si="18"/>
-        <v>3605.8903447986058</v>
+        <v>4024.9558215442985</v>
       </c>
       <c r="AX35" s="44">
         <f t="shared" si="19"/>
-        <v>2524.1232413590237</v>
+        <v>2817.4690750810087</v>
       </c>
       <c r="AY35" s="12">
         <f t="shared" si="54"/>
-        <v>5833.1192855972113</v>
+        <v>6671.2502390885975</v>
       </c>
       <c r="BA35" s="4">
         <v>2037</v>
       </c>
       <c r="BB35" s="44">
         <f t="shared" si="20"/>
-        <v>968.22565198305801</v>
+        <v>1077.6311069521821</v>
       </c>
       <c r="BC35" s="44">
         <f t="shared" si="21"/>
-        <v>3227.418839943527</v>
+        <v>3592.1036898406073</v>
       </c>
       <c r="BD35" s="44">
         <f t="shared" si="22"/>
-        <v>2259.1931879604685</v>
+        <v>2514.4725828884248</v>
       </c>
       <c r="BE35" s="12">
         <f t="shared" si="43"/>
-        <v>5076.1762758870536</v>
+        <v>5805.5459756812143</v>
       </c>
       <c r="BG35" s="4">
         <v>2037</v>
       </c>
       <c r="BH35" s="44">
         <f t="shared" si="23"/>
-        <v>867.08642060870818</v>
+        <v>961.95969883382622</v>
       </c>
       <c r="BI35" s="44">
         <f t="shared" si="24"/>
-        <v>2890.2880686956942</v>
+        <v>3206.5323294460877</v>
       </c>
       <c r="BJ35" s="44">
         <f t="shared" si="25"/>
-        <v>2023.2016480869859</v>
+        <v>2244.572630612261</v>
       </c>
       <c r="BK35" s="12">
         <f t="shared" si="55"/>
-        <v>4401.9147333913879</v>
+        <v>5034.403254892175</v>
       </c>
       <c r="BM35" s="4">
         <v>2037</v>
@@ -8202,76 +8187,76 @@
       </c>
       <c r="BZ35" s="44">
         <f t="shared" si="26"/>
-        <v>1287.8885076221945</v>
+        <v>1443.224676652685</v>
       </c>
       <c r="CA35" s="44">
         <f t="shared" si="27"/>
-        <v>4292.9616920739818</v>
+        <v>4810.7489221756168</v>
       </c>
       <c r="CB35" s="44">
         <f t="shared" si="28"/>
-        <v>3005.0731844517873</v>
+        <v>3367.5242455229318</v>
       </c>
       <c r="CC35" s="12">
         <f t="shared" si="50"/>
-        <v>7207.2619801479632</v>
+        <v>8242.8364403512333</v>
       </c>
       <c r="CE35" s="4">
         <v>2037</v>
       </c>
       <c r="CF35" s="44">
         <f t="shared" si="29"/>
-        <v>1420.9940245604575</v>
+        <v>1595.4554417410918</v>
       </c>
       <c r="CG35" s="44">
         <f t="shared" si="30"/>
-        <v>4736.6467485348585</v>
+        <v>5318.1848058036394</v>
       </c>
       <c r="CH35" s="44">
         <f t="shared" si="31"/>
-        <v>3315.6527239744009</v>
+        <v>3722.7293640625471</v>
       </c>
       <c r="CI35" s="12">
         <f t="shared" si="56"/>
-        <v>8094.6320930697175</v>
+        <v>9257.7082076072784</v>
       </c>
       <c r="CK35" s="4">
         <v>2037</v>
       </c>
       <c r="CL35" s="44">
         <f t="shared" si="32"/>
-        <v>1537.5050216704601</v>
+        <v>1728.7073056701818</v>
       </c>
       <c r="CM35" s="44">
         <f t="shared" si="33"/>
-        <v>5125.0167389015342</v>
+        <v>5762.3576855672727</v>
       </c>
       <c r="CN35" s="44">
         <f t="shared" si="34"/>
-        <v>3587.5117172310738</v>
+        <v>4033.6503798970907</v>
       </c>
       <c r="CO35" s="12">
         <f t="shared" si="51"/>
-        <v>8871.3720738030679</v>
+        <v>10146.053967134545</v>
       </c>
       <c r="CQ35" s="4">
         <v>2037</v>
       </c>
       <c r="CR35" s="44">
         <f t="shared" si="35"/>
-        <v>1368.9396360465437</v>
+        <v>1535.921625472922</v>
       </c>
       <c r="CS35" s="44">
         <f t="shared" si="36"/>
-        <v>4563.1321201551455</v>
+        <v>5119.7387515764067</v>
       </c>
       <c r="CT35" s="44">
         <f t="shared" si="37"/>
-        <v>3194.1924841086015</v>
+        <v>3583.8171261034845</v>
       </c>
       <c r="CU35" s="12">
         <f t="shared" si="57"/>
-        <v>7747.6028363102905</v>
+        <v>8860.816099152813</v>
       </c>
       <c r="CW35">
         <v>2037</v>
@@ -8340,152 +8325,152 @@
       </c>
       <c r="R36" s="44">
         <f t="shared" si="2"/>
-        <v>958.19088072833483</v>
+        <v>1071.213059041507</v>
       </c>
       <c r="S36" s="44">
         <f t="shared" si="3"/>
-        <v>3193.9696024277828</v>
+        <v>3570.7101968050233</v>
       </c>
       <c r="T36" s="44">
         <f t="shared" si="4"/>
-        <v>2235.7787216994479</v>
+        <v>2499.4971377635161</v>
       </c>
       <c r="U36" s="12">
         <f t="shared" si="40"/>
-        <v>4932.6855008555658</v>
+        <v>5686.1666896100469</v>
       </c>
       <c r="W36" s="4">
         <v>2038</v>
       </c>
       <c r="X36" s="44">
         <f t="shared" si="5"/>
-        <v>875.00028200023223</v>
+        <v>975.31486904046108</v>
       </c>
       <c r="Y36" s="44">
         <f t="shared" si="6"/>
-        <v>2916.6676066674409</v>
+        <v>3251.0495634682038</v>
       </c>
       <c r="Z36" s="44">
         <f t="shared" si="7"/>
-        <v>2041.6673246672085</v>
+        <v>2275.7346944277424</v>
       </c>
       <c r="AA36" s="12">
         <f t="shared" si="52"/>
-        <v>4378.081509334882</v>
+        <v>5046.8454229364079</v>
       </c>
       <c r="AC36" s="4">
         <v>2038</v>
       </c>
       <c r="AD36" s="44">
         <f t="shared" si="8"/>
-        <v>1058.1253499631532</v>
+        <v>1186.4127915215772</v>
       </c>
       <c r="AE36" s="44">
         <f t="shared" si="9"/>
-        <v>3527.0844998771772</v>
+        <v>3954.7093050719241</v>
       </c>
       <c r="AF36" s="44">
         <f t="shared" si="10"/>
-        <v>2468.9591499140238</v>
+        <v>2768.2965135503468</v>
       </c>
       <c r="AG36" s="12">
         <f t="shared" si="41"/>
-        <v>5598.9152957543547</v>
+        <v>6454.1649061438484</v>
       </c>
       <c r="AI36" s="4">
         <v>2038</v>
       </c>
       <c r="AJ36" s="44">
         <f t="shared" si="11"/>
-        <v>932.10569299155691</v>
+        <v>1041.143287600501</v>
       </c>
       <c r="AK36" s="44">
         <f t="shared" si="12"/>
-        <v>3107.0189766385233</v>
+        <v>3470.4776253350037</v>
       </c>
       <c r="AL36" s="44">
         <f t="shared" si="13"/>
-        <v>2174.9132836469662</v>
+        <v>2429.3343377345022</v>
       </c>
       <c r="AM36" s="12">
         <f t="shared" si="53"/>
-        <v>4758.7842492770469</v>
+        <v>5485.7015466700077</v>
       </c>
       <c r="AO36" s="4">
         <v>2038</v>
       </c>
       <c r="AP36" s="44">
         <f t="shared" si="14"/>
-        <v>1271.2131335696697</v>
+        <v>1432.0503163335786</v>
       </c>
       <c r="AQ36" s="44">
         <f t="shared" si="15"/>
-        <v>4237.3771118988989</v>
+        <v>4773.5010544452625</v>
       </c>
       <c r="AR36" s="44">
         <f t="shared" si="16"/>
-        <v>2966.1639783292289</v>
+        <v>3341.4507381116837</v>
       </c>
       <c r="AS36" s="12">
         <f t="shared" si="42"/>
-        <v>7019.5005197977971</v>
+        <v>8091.7484048905253</v>
       </c>
       <c r="AU36" s="4">
         <v>2038</v>
       </c>
       <c r="AV36" s="44">
         <f t="shared" si="17"/>
-        <v>1101.1306594751377</v>
+        <v>1235.9872795729655</v>
       </c>
       <c r="AW36" s="44">
         <f t="shared" si="18"/>
-        <v>3670.4355315837925</v>
+        <v>4119.9575985765514</v>
       </c>
       <c r="AX36" s="44">
         <f t="shared" si="19"/>
-        <v>2569.3048721086548</v>
+        <v>2883.9703190035857</v>
       </c>
       <c r="AY36" s="12">
         <f t="shared" si="54"/>
-        <v>5885.6173591675852</v>
+        <v>6784.661493153103</v>
       </c>
       <c r="BA36" s="4">
         <v>2038</v>
       </c>
       <c r="BB36" s="44">
         <f t="shared" si="20"/>
-        <v>986.56733495550543</v>
+        <v>1103.9240941901692</v>
       </c>
       <c r="BC36" s="44">
         <f t="shared" si="21"/>
-        <v>3288.5577831850183</v>
+        <v>3679.7469806338972</v>
       </c>
       <c r="BD36" s="44">
         <f t="shared" si="22"/>
-        <v>2301.9904482295128</v>
+        <v>2575.8228864437278</v>
       </c>
       <c r="BE36" s="12">
         <f t="shared" si="43"/>
-        <v>5121.8618623700368</v>
+        <v>5904.2402572677947</v>
       </c>
       <c r="BG36" s="4">
         <v>2038</v>
       </c>
       <c r="BH36" s="44">
         <f t="shared" si="23"/>
-        <v>884.5178504987864</v>
+        <v>986.28627213380105</v>
       </c>
       <c r="BI36" s="44">
         <f t="shared" si="24"/>
-        <v>2948.3928349959547</v>
+        <v>3287.6209071126705</v>
       </c>
       <c r="BJ36" s="44">
         <f t="shared" si="25"/>
-        <v>2063.874984497168</v>
+        <v>2301.334634978869</v>
       </c>
       <c r="BK36" s="12">
         <f t="shared" si="55"/>
-        <v>4441.5319659919096</v>
+        <v>5119.9881102253412</v>
       </c>
       <c r="BM36" s="4">
         <v>2038</v>
@@ -8528,76 +8513,76 @@
       </c>
       <c r="BZ36" s="44">
         <f t="shared" si="26"/>
-        <v>1309.1071562953941</v>
+        <v>1475.7327545755807</v>
       </c>
       <c r="CA36" s="44">
         <f t="shared" si="27"/>
-        <v>4363.6905209846473</v>
+        <v>4919.1091819186022</v>
       </c>
       <c r="CB36" s="44">
         <f t="shared" si="28"/>
-        <v>3054.5833646892529</v>
+        <v>3443.3764273430215</v>
       </c>
       <c r="CC36" s="12">
         <f t="shared" si="50"/>
-        <v>7272.1273379692939</v>
+        <v>8382.9646598372037</v>
       </c>
       <c r="CE36" s="4">
         <v>2038</v>
       </c>
       <c r="CF36" s="44">
         <f t="shared" si="29"/>
-        <v>1443.4106228861017</v>
+        <v>1630.5514426704901</v>
       </c>
       <c r="CG36" s="44">
         <f t="shared" si="30"/>
-        <v>4811.3687429536722</v>
+        <v>5435.1714755683006</v>
       </c>
       <c r="CH36" s="44">
         <f t="shared" si="31"/>
-        <v>3367.9581200675702</v>
+        <v>3804.6200328978102</v>
       </c>
       <c r="CI36" s="12">
         <f t="shared" si="56"/>
-        <v>8167.4837819073437</v>
+        <v>9415.0892471366005</v>
       </c>
       <c r="CK36" s="4">
         <v>2038</v>
       </c>
       <c r="CL36" s="44">
         <f t="shared" si="32"/>
-        <v>1560.970218970094</v>
+        <v>1766.0685882863747</v>
       </c>
       <c r="CM36" s="44">
         <f t="shared" si="33"/>
-        <v>5203.2340632336472</v>
+        <v>5886.8952942879159</v>
       </c>
       <c r="CN36" s="44">
         <f t="shared" si="34"/>
-        <v>3642.263844263553</v>
+        <v>4120.8267060015405</v>
       </c>
       <c r="CO36" s="12">
         <f t="shared" si="51"/>
-        <v>8951.2144224672938</v>
+        <v>10318.536884575831</v>
       </c>
       <c r="CQ36" s="4">
         <v>2038</v>
       </c>
       <c r="CR36" s="44">
         <f t="shared" si="35"/>
-        <v>1390.8877448755622</v>
+        <v>1570.0055515257616</v>
       </c>
       <c r="CS36" s="44">
         <f t="shared" si="36"/>
-        <v>4636.2924829185413</v>
+        <v>5233.3518384192057</v>
       </c>
       <c r="CT36" s="44">
         <f t="shared" si="37"/>
-        <v>3245.4047380429788</v>
+        <v>3663.3462868934439</v>
       </c>
       <c r="CU36" s="12">
         <f t="shared" si="57"/>
-        <v>7817.3312618370819</v>
+        <v>9011.4499728384108</v>
       </c>
       <c r="CW36">
         <v>2038</v>
@@ -8666,152 +8651,152 @@
       </c>
       <c r="R37" s="44">
         <f t="shared" si="2"/>
-        <v>976.33885130448971</v>
+        <v>1097.2016292500125</v>
       </c>
       <c r="S37" s="44">
         <f t="shared" si="3"/>
-        <v>3254.4628376816327</v>
+        <v>3657.3387641667086</v>
       </c>
       <c r="T37" s="44">
         <f t="shared" si="4"/>
-        <v>2278.1239863771425</v>
+        <v>2560.1371349166957</v>
       </c>
       <c r="U37" s="12">
         <f t="shared" si="40"/>
-        <v>4977.079670363265</v>
+        <v>5782.831523333417</v>
       </c>
       <c r="W37" s="4">
         <v>2039</v>
       </c>
       <c r="X37" s="44">
         <f t="shared" si="5"/>
-        <v>892.39953718783443</v>
+        <v>999.67317001894901</v>
       </c>
       <c r="Y37" s="44">
         <f t="shared" si="6"/>
-        <v>2974.665123959448</v>
+        <v>3332.2439000631634</v>
       </c>
       <c r="Z37" s="44">
         <f t="shared" si="7"/>
-        <v>2082.2655867716135</v>
+        <v>2332.5707300442141</v>
       </c>
       <c r="AA37" s="12">
         <f t="shared" si="52"/>
-        <v>4417.4842429188957</v>
+        <v>5132.6417951263265</v>
       </c>
       <c r="AC37" s="4">
         <v>2039</v>
       </c>
       <c r="AD37" s="44">
         <f t="shared" si="8"/>
-        <v>1077.1727307624215</v>
+        <v>1214.359757182244</v>
       </c>
       <c r="AE37" s="44">
         <f t="shared" si="9"/>
-        <v>3590.575769208072</v>
+        <v>4047.8658572741469</v>
       </c>
       <c r="AF37" s="44">
         <f t="shared" si="10"/>
-        <v>2513.4030384456501</v>
+        <v>2833.5061000919027</v>
       </c>
       <c r="AG37" s="12">
         <f t="shared" si="41"/>
-        <v>5649.3055334161436</v>
+        <v>6563.8857095482936</v>
       </c>
       <c r="AI37" s="4">
         <v>2039</v>
       </c>
       <c r="AJ37" s="44">
         <f t="shared" si="11"/>
-        <v>950.01889687808102</v>
+        <v>1066.6206716945096</v>
       </c>
       <c r="AK37" s="44">
         <f t="shared" si="12"/>
-        <v>3166.7296562602701</v>
+        <v>3555.4022389816987</v>
       </c>
       <c r="AL37" s="44">
         <f t="shared" si="13"/>
-        <v>2216.7107593821888</v>
+        <v>2488.7815672871889</v>
       </c>
       <c r="AM37" s="12">
         <f t="shared" si="53"/>
-        <v>4801.6133075205398</v>
+        <v>5578.9584729633971</v>
       </c>
       <c r="AO37" s="4">
         <v>2039</v>
       </c>
       <c r="AP37" s="44">
         <f t="shared" si="14"/>
-        <v>1292.1783044213964</v>
+        <v>1464.1731199160495</v>
       </c>
       <c r="AQ37" s="44">
         <f t="shared" si="15"/>
-        <v>4307.2610147379883</v>
+        <v>4880.5770663868316</v>
       </c>
       <c r="AR37" s="44">
         <f t="shared" si="16"/>
-        <v>3015.0827103165916</v>
+        <v>3416.4039464707821</v>
       </c>
       <c r="AS37" s="12">
         <f t="shared" si="42"/>
-        <v>7082.6760244759762</v>
+        <v>8229.3081277736637</v>
       </c>
       <c r="AU37" s="4">
         <v>2039</v>
       </c>
       <c r="AV37" s="44">
         <f t="shared" si="17"/>
-        <v>1120.565088060014</v>
+        <v>1264.7770115305059</v>
       </c>
       <c r="AW37" s="44">
         <f t="shared" si="18"/>
-        <v>3735.2169602000467</v>
+        <v>4215.9233717683528</v>
       </c>
       <c r="AX37" s="44">
         <f t="shared" si="19"/>
-        <v>2614.6518721400325</v>
+        <v>2951.1463602378467</v>
       </c>
       <c r="AY37" s="12">
         <f t="shared" si="54"/>
-        <v>5938.5879154000932</v>
+        <v>6900.0007385367053</v>
       </c>
       <c r="BA37" s="4">
         <v>2039</v>
       </c>
       <c r="BB37" s="44">
         <f t="shared" si="20"/>
-        <v>1004.970693619705</v>
+        <v>1130.4687519962019</v>
       </c>
       <c r="BC37" s="44">
         <f t="shared" si="21"/>
-        <v>3349.9023120656834</v>
+        <v>3768.2291733206735</v>
       </c>
       <c r="BD37" s="44">
         <f t="shared" si="22"/>
-        <v>2344.9316184459781</v>
+        <v>2637.7604213244713</v>
       </c>
       <c r="BE37" s="12">
         <f t="shared" si="43"/>
-        <v>5167.9586191313665</v>
+        <v>6004.6123416413466</v>
       </c>
       <c r="BG37" s="4">
         <v>2039</v>
       </c>
       <c r="BH37" s="44">
         <f t="shared" si="23"/>
-        <v>902.00276380287551</v>
+        <v>1010.8310869648757</v>
       </c>
       <c r="BI37" s="44">
         <f t="shared" si="24"/>
-        <v>3006.6758793429185</v>
+        <v>3369.4369565495858</v>
       </c>
       <c r="BJ37" s="44">
         <f t="shared" si="25"/>
-        <v>2104.673115540043</v>
+        <v>2358.60586958471</v>
       </c>
       <c r="BK37" s="12">
         <f t="shared" si="55"/>
-        <v>4481.5057536858367</v>
+        <v>5207.0279080991713</v>
       </c>
       <c r="BM37" s="4">
         <v>2039</v>
@@ -8854,76 +8839,76 @@
       </c>
       <c r="BZ37" s="44">
         <f t="shared" si="26"/>
-        <v>1330.4133733516524</v>
+        <v>1508.5981596081651</v>
       </c>
       <c r="CA37" s="44">
         <f t="shared" si="27"/>
-        <v>4434.7112445055081</v>
+        <v>5028.6605320272174</v>
       </c>
       <c r="CB37" s="44">
         <f t="shared" si="28"/>
-        <v>3104.2978711538553</v>
+        <v>3520.0623724190518</v>
       </c>
       <c r="CC37" s="12">
         <f t="shared" si="50"/>
-        <v>7337.5764840110169</v>
+        <v>8525.4750590544354</v>
       </c>
       <c r="CE37" s="4">
         <v>2039</v>
       </c>
       <c r="CF37" s="44">
         <f t="shared" si="29"/>
-        <v>1465.9255711416761</v>
+        <v>1666.0487654006881</v>
       </c>
       <c r="CG37" s="44">
         <f t="shared" si="30"/>
-        <v>4886.418570472254</v>
+        <v>5553.4958846689606</v>
       </c>
       <c r="CH37" s="44">
         <f t="shared" si="31"/>
-        <v>3420.4929993305777</v>
+        <v>3887.4471192682722</v>
       </c>
       <c r="CI37" s="12">
         <f t="shared" si="56"/>
-        <v>8240.9911359445086</v>
+        <v>9575.1457643379217</v>
       </c>
       <c r="CK37" s="4">
         <v>2039</v>
       </c>
       <c r="CL37" s="44">
         <f t="shared" si="32"/>
-        <v>1584.5432035904246</v>
+        <v>1803.8697024920427</v>
       </c>
       <c r="CM37" s="44">
         <f t="shared" si="33"/>
-        <v>5281.8106786347489</v>
+        <v>6012.8990083068093</v>
       </c>
       <c r="CN37" s="44">
         <f t="shared" si="34"/>
-        <v>3697.2674750443239</v>
+        <v>4209.0293058147663</v>
       </c>
       <c r="CO37" s="12">
         <f t="shared" si="51"/>
-        <v>9031.7753522694984</v>
+        <v>10493.952011613619</v>
       </c>
       <c r="CQ37" s="4">
         <v>2039</v>
       </c>
       <c r="CR37" s="44">
         <f t="shared" si="35"/>
-        <v>1412.9299872290421</v>
+        <v>1604.4735941064994</v>
       </c>
       <c r="CS37" s="44">
         <f t="shared" si="36"/>
-        <v>4709.7666240968074</v>
+        <v>5348.2453136883314</v>
       </c>
       <c r="CT37" s="44">
         <f t="shared" si="37"/>
-        <v>3296.8366368677648</v>
+        <v>3743.7717195818318</v>
       </c>
       <c r="CU37" s="12">
         <f t="shared" si="57"/>
-        <v>7887.6872431936144</v>
+        <v>9164.6446223766634</v>
       </c>
       <c r="CW37">
         <v>2039</v>
@@ -8992,152 +8977,152 @@
       </c>
       <c r="R38" s="44">
         <f t="shared" si="2"/>
-        <v>994.54675385947996</v>
+        <v>1123.4366946345126</v>
       </c>
       <c r="S38" s="44">
         <f t="shared" si="3"/>
-        <v>3315.1558461982668</v>
+        <v>3744.788982115042</v>
       </c>
       <c r="T38" s="44">
         <f t="shared" si="4"/>
-        <v>2320.6090923387865</v>
+        <v>2621.3522874805294</v>
       </c>
       <c r="U38" s="12">
         <f t="shared" si="40"/>
-        <v>5021.8733873965339</v>
+        <v>5881.1396592300844</v>
       </c>
       <c r="W38" s="4">
         <v>2040</v>
       </c>
       <c r="X38" s="44">
         <f t="shared" si="5"/>
-        <v>909.85198591577478</v>
+        <v>1024.2502515965209</v>
       </c>
       <c r="Y38" s="44">
         <f t="shared" si="6"/>
-        <v>3032.8399530525826</v>
+        <v>3414.1675053217368</v>
       </c>
       <c r="Z38" s="44">
         <f t="shared" si="7"/>
-        <v>2122.9879671368076</v>
+        <v>2389.9172537252157</v>
       </c>
       <c r="AA38" s="12">
         <f t="shared" si="52"/>
-        <v>4457.2416011051655</v>
+        <v>5219.896705643474</v>
       </c>
       <c r="AC38" s="4">
         <v>2040</v>
       </c>
       <c r="AD38" s="44">
         <f t="shared" si="8"/>
-        <v>1096.2881382325331</v>
+        <v>1242.5865107415918</v>
       </c>
       <c r="AE38" s="44">
         <f t="shared" si="9"/>
-        <v>3654.2937941084438</v>
+        <v>4141.9550358053066</v>
       </c>
       <c r="AF38" s="44">
         <f t="shared" si="10"/>
-        <v>2558.0056558759106</v>
+        <v>2899.3685250637145</v>
       </c>
       <c r="AG38" s="12">
         <f t="shared" si="41"/>
-        <v>5700.1492832168879</v>
+        <v>6675.4717666106135</v>
       </c>
       <c r="AI38" s="4">
         <v>2040</v>
       </c>
       <c r="AJ38" s="44">
         <f t="shared" si="11"/>
-        <v>967.98991984323357</v>
+        <v>1092.335860800566</v>
       </c>
       <c r="AK38" s="44">
         <f t="shared" si="12"/>
-        <v>3226.633066144112</v>
+        <v>3641.1195360018869</v>
       </c>
       <c r="AL38" s="44">
         <f t="shared" si="13"/>
-        <v>2258.6431463008785</v>
+        <v>2548.7836752013209</v>
       </c>
       <c r="AM38" s="12">
         <f t="shared" si="53"/>
-        <v>4844.8278272882244</v>
+        <v>5673.8007670037741</v>
       </c>
       <c r="AO38" s="4">
         <v>2040</v>
       </c>
       <c r="AP38" s="44">
         <f t="shared" si="14"/>
-        <v>1313.2287620544389</v>
+        <v>1496.646700641872</v>
       </c>
       <c r="AQ38" s="44">
         <f t="shared" si="15"/>
-        <v>4377.42920684813</v>
+        <v>4988.8223354729071</v>
       </c>
       <c r="AR38" s="44">
         <f t="shared" si="16"/>
-        <v>3064.2004447936906</v>
+        <v>3492.1756348310346</v>
       </c>
       <c r="AS38" s="12">
         <f t="shared" si="42"/>
-        <v>7146.4201086962594</v>
+        <v>8369.2063659458145</v>
       </c>
       <c r="AU38" s="4">
         <v>2040</v>
       </c>
       <c r="AV38" s="44">
         <f t="shared" si="17"/>
-        <v>1140.0710267458039</v>
+        <v>1293.8608584137742</v>
       </c>
       <c r="AW38" s="44">
         <f t="shared" si="18"/>
-        <v>3800.2367558193464</v>
+        <v>4312.8695280459142</v>
       </c>
       <c r="AX38" s="44">
         <f t="shared" si="19"/>
-        <v>2660.1657290735425</v>
+        <v>3019.0086696321396</v>
       </c>
       <c r="AY38" s="12">
         <f t="shared" si="54"/>
-        <v>5992.0352066386931</v>
+        <v>7017.3007510918287</v>
       </c>
       <c r="BA38" s="4">
         <v>2040</v>
       </c>
       <c r="BB38" s="44">
         <f t="shared" si="20"/>
-        <v>1023.4362827555321</v>
+        <v>1157.2693584673873</v>
       </c>
       <c r="BC38" s="44">
         <f t="shared" si="21"/>
-        <v>3411.4542758517741</v>
+        <v>3857.5645282246242</v>
       </c>
       <c r="BD38" s="44">
         <f t="shared" si="22"/>
-        <v>2388.0179930962418</v>
+        <v>2700.2951697572366</v>
       </c>
       <c r="BE38" s="12">
         <f t="shared" si="43"/>
-        <v>5214.4702467035486</v>
+        <v>6106.6907514492486</v>
       </c>
       <c r="BG38" s="4">
         <v>2040</v>
       </c>
       <c r="BH38" s="44">
         <f t="shared" si="23"/>
-        <v>919.5416415703512</v>
+        <v>1035.5978531305284</v>
       </c>
       <c r="BI38" s="44">
         <f t="shared" si="24"/>
-        <v>3065.1388052345042</v>
+        <v>3451.9928437684284</v>
       </c>
       <c r="BJ38" s="44">
         <f t="shared" si="25"/>
-        <v>2145.597163664153</v>
+        <v>2416.3949906378998</v>
       </c>
       <c r="BK38" s="12">
         <f t="shared" si="55"/>
-        <v>4521.8393054690087</v>
+        <v>5295.5473825368572</v>
       </c>
       <c r="BM38" s="4">
         <v>2040</v>
@@ -9180,76 +9165,76 @@
       </c>
       <c r="BZ38" s="44">
         <f t="shared" si="26"/>
-        <v>1351.8079466050672</v>
+        <v>1541.826966008754</v>
       </c>
       <c r="CA38" s="44">
         <f t="shared" si="27"/>
-        <v>4506.0264886835575</v>
+        <v>5139.4232200291799</v>
       </c>
       <c r="CB38" s="44">
         <f t="shared" si="28"/>
-        <v>3154.2185420784899</v>
+        <v>3597.5962540204255</v>
       </c>
       <c r="CC38" s="12">
         <f t="shared" si="50"/>
-        <v>7403.6146723671154</v>
+        <v>8670.4081350583601</v>
       </c>
       <c r="CE38" s="4">
         <v>2040</v>
       </c>
       <c r="CF38" s="44">
         <f t="shared" si="29"/>
-        <v>1488.5397541752011</v>
+        <v>1701.9542320997498</v>
       </c>
       <c r="CG38" s="44">
         <f t="shared" si="30"/>
-        <v>4961.7991805840038</v>
+        <v>5673.1807736658329</v>
       </c>
       <c r="CH38" s="44">
         <f t="shared" si="31"/>
-        <v>3473.2594264088025</v>
+        <v>3971.2265415660827</v>
       </c>
       <c r="CI38" s="12">
         <f t="shared" si="56"/>
-        <v>8315.1600561680079</v>
+        <v>9737.9232423316662</v>
       </c>
       <c r="CK38" s="4">
         <v>2040</v>
       </c>
       <c r="CL38" s="44">
         <f t="shared" si="32"/>
-        <v>1608.2249453159884</v>
+        <v>1842.1181251216574</v>
       </c>
       <c r="CM38" s="44">
         <f t="shared" si="33"/>
-        <v>5360.7498177199614</v>
+        <v>6140.3937504055248</v>
       </c>
       <c r="CN38" s="44">
         <f t="shared" si="34"/>
-        <v>3752.5248724039725</v>
+        <v>4298.2756252838672</v>
       </c>
       <c r="CO38" s="12">
         <f t="shared" si="51"/>
-        <v>9113.061330439923</v>
+        <v>10672.34919581105</v>
       </c>
       <c r="CQ38" s="4">
         <v>2040</v>
       </c>
       <c r="CR38" s="44">
         <f t="shared" si="35"/>
-        <v>1435.0672100073532</v>
+        <v>1639.3322828935597</v>
       </c>
       <c r="CS38" s="44">
         <f t="shared" si="36"/>
-        <v>4783.5573666911778</v>
+        <v>5464.4409429785328</v>
       </c>
       <c r="CT38" s="44">
         <f t="shared" si="37"/>
-        <v>3348.4901566838244</v>
+        <v>3825.1086600849726</v>
       </c>
       <c r="CU38" s="12">
         <f t="shared" si="57"/>
-        <v>7958.6764283823559</v>
+        <v>9320.4435809570659</v>
       </c>
       <c r="CW38">
         <v>2040</v>
@@ -9318,152 +9303,152 @@
       </c>
       <c r="R39" s="44">
         <f t="shared" si="2"/>
-        <v>1012.8151279324652</v>
+        <v>1149.9224457655491</v>
       </c>
       <c r="S39" s="44">
         <f t="shared" si="3"/>
-        <v>3376.0504264415508</v>
+        <v>3833.0748192184974</v>
       </c>
       <c r="T39" s="44">
         <f t="shared" si="4"/>
-        <v>2363.2352985090856</v>
+        <v>2683.1523734529478</v>
       </c>
       <c r="U39" s="12">
         <f t="shared" si="40"/>
-        <v>5067.0702478831017</v>
+        <v>5981.1190334369949</v>
       </c>
       <c r="W39" s="4">
         <v>2041</v>
       </c>
       <c r="X39" s="44">
         <f t="shared" si="5"/>
-        <v>927.35810707726671</v>
+        <v>1049.0498331959118</v>
       </c>
       <c r="Y39" s="44">
         <f t="shared" si="6"/>
-        <v>3091.1936902575558</v>
+        <v>3496.8327773197061</v>
       </c>
       <c r="Z39" s="44">
         <f t="shared" si="7"/>
-        <v>2163.8355831802887</v>
+        <v>2447.7829441237941</v>
       </c>
       <c r="AA39" s="12">
         <f t="shared" si="52"/>
-        <v>4497.3567755151116</v>
+        <v>5308.6349496394123</v>
       </c>
       <c r="AC39" s="4">
         <v>2041</v>
       </c>
       <c r="AD39" s="44">
         <f t="shared" si="8"/>
-        <v>1115.4721847648757</v>
+        <v>1271.0978087464489</v>
       </c>
       <c r="AE39" s="44">
         <f t="shared" si="9"/>
-        <v>3718.2406158829194</v>
+        <v>4236.9926958214965</v>
       </c>
       <c r="AF39" s="44">
         <f t="shared" si="10"/>
-        <v>2602.7684311180433</v>
+        <v>2965.8948870750473</v>
       </c>
       <c r="AG39" s="12">
         <f t="shared" si="41"/>
-        <v>5751.4506267658389</v>
+        <v>6788.954786642993</v>
       </c>
       <c r="AI39" s="4">
         <v>2041</v>
       </c>
       <c r="AJ39" s="44">
         <f t="shared" si="11"/>
-        <v>986.01928241007272</v>
+        <v>1118.2928977564256</v>
       </c>
       <c r="AK39" s="44">
         <f t="shared" si="12"/>
-        <v>3286.7309413669091</v>
+        <v>3727.6429925214188</v>
       </c>
       <c r="AL39" s="44">
         <f t="shared" si="13"/>
-        <v>2300.7116589568363</v>
+        <v>2609.3500947649932</v>
       </c>
       <c r="AM39" s="12">
         <f t="shared" si="53"/>
-        <v>4888.4312777338182</v>
+        <v>5770.2553800428377</v>
       </c>
       <c r="AO39" s="4">
         <v>2041</v>
       </c>
       <c r="AP39" s="44">
         <f t="shared" si="14"/>
-        <v>1334.3652742011786</v>
+        <v>1529.4770218750336</v>
       </c>
       <c r="AQ39" s="44">
         <f t="shared" si="15"/>
-        <v>4447.8842473372624</v>
+        <v>5098.2567395834458</v>
       </c>
       <c r="AR39" s="44">
         <f t="shared" si="16"/>
-        <v>3113.5189731360833</v>
+        <v>3568.7797177084117</v>
       </c>
       <c r="AS39" s="12">
         <f t="shared" si="42"/>
-        <v>7210.7378896745249</v>
+        <v>8511.4828741668916</v>
       </c>
       <c r="AU39" s="4">
         <v>2041</v>
       </c>
       <c r="AV39" s="44">
         <f t="shared" si="17"/>
-        <v>1159.649119274766</v>
+        <v>1323.2438203290583</v>
       </c>
       <c r="AW39" s="44">
         <f t="shared" si="18"/>
-        <v>3865.4970642492203</v>
+        <v>4410.8127344301947</v>
       </c>
       <c r="AX39" s="44">
         <f t="shared" si="19"/>
-        <v>2705.8479449744541</v>
+        <v>3087.5689141011362</v>
       </c>
       <c r="AY39" s="12">
         <f t="shared" si="54"/>
-        <v>6045.9635234984407</v>
+        <v>7136.5948638603895</v>
       </c>
       <c r="BA39" s="4">
         <v>2041</v>
       </c>
       <c r="BB39" s="44">
         <f t="shared" si="20"/>
-        <v>1041.9646625885819</v>
+        <v>1184.3302648835827</v>
       </c>
       <c r="BC39" s="44">
         <f t="shared" si="21"/>
-        <v>3473.2155419619398</v>
+        <v>3947.7675496119427</v>
       </c>
       <c r="BD39" s="44">
         <f t="shared" si="22"/>
-        <v>2431.2508793733577</v>
+        <v>2763.4372847283598</v>
       </c>
       <c r="BE39" s="12">
         <f t="shared" si="43"/>
-        <v>5261.4004789238797</v>
+        <v>6210.5044942238856</v>
       </c>
       <c r="BG39" s="4">
         <v>2041</v>
       </c>
       <c r="BH39" s="44">
         <f t="shared" si="23"/>
-        <v>937.13496963273428</v>
+        <v>1060.5903439559975</v>
       </c>
       <c r="BI39" s="44">
         <f t="shared" si="24"/>
-        <v>3123.7832321091146</v>
+        <v>3535.3011465199916</v>
       </c>
       <c r="BJ39" s="44">
         <f t="shared" si="25"/>
-        <v>2186.6482624763798</v>
+        <v>2474.7108025639941</v>
       </c>
       <c r="BK39" s="12">
         <f t="shared" si="55"/>
-        <v>4562.5358592182292</v>
+        <v>5385.5716880399832</v>
       </c>
       <c r="BM39" s="4">
         <v>2041</v>
@@ -9506,76 +9491,76 @@
       </c>
       <c r="BZ39" s="44">
         <f t="shared" si="26"/>
-        <v>1373.2916714127625</v>
+        <v>1575.4253517531527</v>
       </c>
       <c r="CA39" s="44">
         <f t="shared" si="27"/>
-        <v>4577.6389047092089</v>
+        <v>5251.4178391771757</v>
       </c>
       <c r="CB39" s="44">
         <f t="shared" si="28"/>
-        <v>3204.3472332964461</v>
+        <v>3675.9924874240228</v>
       </c>
       <c r="CC39" s="12">
         <f t="shared" si="50"/>
-        <v>7470.2472044184187</v>
+        <v>8817.8050733543514</v>
       </c>
       <c r="CE39" s="4">
         <v>2041</v>
       </c>
       <c r="CF39" s="44">
         <f t="shared" si="29"/>
-        <v>1511.2540652510277</v>
+        <v>1738.2747813676954</v>
       </c>
       <c r="CG39" s="44">
         <f t="shared" si="30"/>
-        <v>5037.5135508367594</v>
+        <v>5794.2492712256517</v>
       </c>
       <c r="CH39" s="44">
         <f t="shared" si="31"/>
-        <v>3526.2594855857315</v>
+        <v>4055.9744898579561</v>
       </c>
       <c r="CI39" s="12">
         <f t="shared" si="56"/>
-        <v>8389.9964966735188</v>
+        <v>9903.4679374513034</v>
       </c>
       <c r="CK39" s="4">
         <v>2041</v>
       </c>
       <c r="CL39" s="44">
         <f t="shared" si="32"/>
-        <v>1632.0164231120823</v>
+        <v>1880.8214605709754</v>
       </c>
       <c r="CM39" s="44">
         <f t="shared" si="33"/>
-        <v>5440.0547437069408</v>
+        <v>6269.4048685699181</v>
       </c>
       <c r="CN39" s="44">
         <f t="shared" si="34"/>
-        <v>3808.0383205948583</v>
+        <v>4388.5834079989427</v>
       </c>
       <c r="CO39" s="12">
         <f t="shared" si="51"/>
-        <v>9195.0788824138817</v>
+        <v>10853.779132139836</v>
       </c>
       <c r="CQ39" s="4">
         <v>2041</v>
       </c>
       <c r="CR39" s="44">
         <f t="shared" si="35"/>
-        <v>1457.3002681856694</v>
+        <v>1674.5882590250003</v>
       </c>
       <c r="CS39" s="44">
         <f t="shared" si="36"/>
-        <v>4857.6675606188983</v>
+        <v>5581.960863416668</v>
       </c>
       <c r="CT39" s="44">
         <f t="shared" si="37"/>
-        <v>3400.3672924332286</v>
+        <v>3907.3726043916672</v>
       </c>
       <c r="CU39" s="12">
         <f t="shared" si="57"/>
-        <v>8030.3045162377966</v>
+        <v>9478.891121833336</v>
       </c>
       <c r="CW39">
         <v>2041</v>
@@ -9644,152 +9629,152 @@
       </c>
       <c r="R40" s="44">
         <f t="shared" si="2"/>
-        <v>1031.1445177671073</v>
+        <v>1176.6631443008134</v>
       </c>
       <c r="S40" s="44">
         <f t="shared" si="3"/>
-        <v>3437.1483925570246</v>
+        <v>3922.2104810027117</v>
       </c>
       <c r="T40" s="44">
         <f t="shared" si="4"/>
-        <v>2406.0038747899171</v>
+        <v>2745.5473367018981</v>
       </c>
       <c r="U40" s="12">
         <f t="shared" si="40"/>
-        <v>5112.6738801140491</v>
+        <v>6082.7980570054233</v>
       </c>
       <c r="W40" s="4">
         <v>2042</v>
       </c>
       <c r="X40" s="44">
         <f t="shared" si="5"/>
-        <v>944.91838372421205</v>
+        <v>1074.0756973174923</v>
       </c>
       <c r="Y40" s="44">
         <f t="shared" si="6"/>
-        <v>3149.7279457473737</v>
+        <v>3580.2523243916412</v>
       </c>
       <c r="Z40" s="44">
         <f t="shared" si="7"/>
-        <v>2204.8095620231616</v>
+        <v>2506.1766270741487</v>
       </c>
       <c r="AA40" s="12">
         <f t="shared" si="52"/>
-        <v>4537.8329864947473</v>
+        <v>5398.8817437832822</v>
       </c>
       <c r="AC40" s="4">
         <v>2042</v>
       </c>
       <c r="AD40" s="44">
         <f t="shared" si="8"/>
-        <v>1134.7254881110096</v>
+        <v>1299.8984884523884</v>
       </c>
       <c r="AE40" s="44">
         <f t="shared" si="9"/>
-        <v>3782.4182937033656</v>
+        <v>4332.9949615079613</v>
       </c>
       <c r="AF40" s="44">
         <f t="shared" si="10"/>
-        <v>2647.6928055923559</v>
+        <v>3033.0964730555729</v>
       </c>
       <c r="AG40" s="12">
         <f t="shared" si="41"/>
-        <v>5803.2136824067311</v>
+        <v>6904.3670180159233</v>
       </c>
       <c r="AI40" s="4">
         <v>2042</v>
       </c>
       <c r="AJ40" s="44">
         <f t="shared" si="11"/>
-        <v>1004.1075096350132</v>
+        <v>1144.4958939755347</v>
       </c>
       <c r="AK40" s="44">
         <f t="shared" si="12"/>
-        <v>3347.0250321167109</v>
+        <v>3814.9863132517826</v>
       </c>
       <c r="AL40" s="44">
         <f t="shared" si="13"/>
-        <v>2342.9175224816977</v>
+        <v>2670.4904192762478</v>
       </c>
       <c r="AM40" s="12">
         <f t="shared" si="53"/>
-        <v>4932.4271592334217</v>
+        <v>5868.349721503565</v>
       </c>
       <c r="AO40" s="4">
         <v>2042</v>
       </c>
       <c r="AP40" s="44">
         <f t="shared" si="14"/>
-        <v>1355.5886153522392</v>
+        <v>1562.6701482041592</v>
       </c>
       <c r="AQ40" s="44">
         <f t="shared" si="15"/>
-        <v>4518.6287178407974</v>
+        <v>5208.9004940138639</v>
       </c>
       <c r="AR40" s="44">
         <f t="shared" si="16"/>
-        <v>3163.0401024885582</v>
+        <v>3646.2303458097044</v>
       </c>
       <c r="AS40" s="12">
         <f t="shared" si="42"/>
-        <v>7275.6345306815947</v>
+        <v>8656.1780830277276</v>
       </c>
       <c r="AU40" s="4">
         <v>2042</v>
       </c>
       <c r="AV40" s="44">
         <f t="shared" si="17"/>
-        <v>1179.3000150314888</v>
+        <v>1352.9309822319024</v>
       </c>
       <c r="AW40" s="44">
         <f t="shared" si="18"/>
-        <v>3931.0000501049631</v>
+        <v>4509.7699407730079</v>
       </c>
       <c r="AX40" s="44">
         <f t="shared" si="19"/>
-        <v>2751.7000350734738</v>
+        <v>3156.8389585411055</v>
       </c>
       <c r="AY40" s="12">
         <f t="shared" si="54"/>
-        <v>6100.377195209926</v>
+        <v>7257.9169765460156</v>
       </c>
       <c r="BA40" s="4">
         <v>2042</v>
       </c>
       <c r="BB40" s="44">
         <f t="shared" si="20"/>
-        <v>1060.5563982351291</v>
+        <v>1211.6558963438536</v>
       </c>
       <c r="BC40" s="44">
         <f t="shared" si="21"/>
-        <v>3535.1879941170973</v>
+        <v>4038.8529878128456</v>
       </c>
       <c r="BD40" s="44">
         <f t="shared" si="22"/>
-        <v>2474.6315958819678</v>
+        <v>2827.1970914689919</v>
       </c>
       <c r="BE40" s="12">
         <f t="shared" si="43"/>
-        <v>5308.7530832341945</v>
+        <v>6316.0830706256911</v>
       </c>
       <c r="BG40" s="4">
         <v>2042</v>
       </c>
       <c r="BH40" s="44">
         <f t="shared" si="23"/>
-        <v>954.78323804267893</v>
+        <v>1085.8123967604995</v>
       </c>
       <c r="BI40" s="44">
         <f t="shared" si="24"/>
-        <v>3182.6107934755964</v>
+        <v>3619.3746558683315</v>
       </c>
       <c r="BJ40" s="44">
         <f t="shared" si="25"/>
-        <v>2227.8275554329175</v>
+        <v>2533.5622591078318</v>
       </c>
       <c r="BK40" s="12">
         <f t="shared" si="55"/>
-        <v>4603.5986819511927</v>
+        <v>5477.1264067366628</v>
       </c>
       <c r="BM40" s="4">
         <v>2042</v>
@@ -9832,76 +9817,76 @@
       </c>
       <c r="BZ40" s="44">
         <f t="shared" si="26"/>
-        <v>1394.8653501387273</v>
+        <v>1609.3995996902063</v>
       </c>
       <c r="CA40" s="44">
         <f t="shared" si="27"/>
-        <v>4649.5511671290915</v>
+        <v>5364.6653323006876</v>
       </c>
       <c r="CB40" s="44">
         <f t="shared" si="28"/>
-        <v>3254.6858169903639</v>
+        <v>3755.2657326104809</v>
       </c>
       <c r="CC40" s="12">
         <f t="shared" si="50"/>
-        <v>7537.4794292581837</v>
+        <v>8967.7077596013751</v>
       </c>
       <c r="CE40" s="4">
         <v>2042</v>
       </c>
       <c r="CF40" s="44">
         <f t="shared" si="29"/>
-        <v>1534.0694055215367</v>
+        <v>1775.0174696081963</v>
       </c>
       <c r="CG40" s="44">
         <f t="shared" si="30"/>
-        <v>5113.5646850717894</v>
+        <v>5916.7248986939876</v>
       </c>
       <c r="CH40" s="44">
         <f t="shared" si="31"/>
-        <v>3579.4952795502522</v>
+        <v>4141.7074290857909</v>
       </c>
       <c r="CI40" s="12">
         <f t="shared" si="56"/>
-        <v>8465.5064651435787</v>
+        <v>10071.826892387975</v>
       </c>
       <c r="CK40" s="4">
         <v>2042</v>
       </c>
       <c r="CL40" s="44">
         <f t="shared" si="32"/>
-        <v>1655.918624603341</v>
+        <v>1919.987442357932</v>
       </c>
       <c r="CM40" s="44">
         <f t="shared" si="33"/>
-        <v>5519.7287486778032</v>
+        <v>6399.9581411931067</v>
       </c>
       <c r="CN40" s="44">
         <f t="shared" si="34"/>
-        <v>3863.8101240744618</v>
+        <v>4479.9706988351745</v>
       </c>
       <c r="CO40" s="12">
         <f t="shared" si="51"/>
-        <v>9277.8345923556062</v>
+        <v>11038.293377386213</v>
       </c>
       <c r="CQ40" s="4">
         <v>2042</v>
       </c>
       <c r="CR40" s="44">
         <f t="shared" si="35"/>
-        <v>1479.6300242825903</v>
+        <v>1710.2482763856751</v>
       </c>
       <c r="CS40" s="44">
         <f t="shared" si="36"/>
-        <v>4932.1000809419675</v>
+        <v>5700.8275879522507</v>
       </c>
       <c r="CT40" s="44">
         <f t="shared" si="37"/>
-        <v>3452.470056659377</v>
+        <v>3990.5793115665751</v>
       </c>
       <c r="CU40" s="12">
         <f t="shared" si="57"/>
-        <v>8102.5772568839357</v>
+        <v>9640.0322709045013</v>
       </c>
       <c r="CW40">
         <v>2042</v>
@@ -9970,152 +9955,152 @@
       </c>
       <c r="R41" s="44">
         <f t="shared" si="2"/>
-        <v>1049.5354726552612</v>
+        <v>1203.6631244961773</v>
       </c>
       <c r="S41" s="44">
         <f t="shared" si="3"/>
-        <v>3498.4515755175375</v>
+        <v>4012.2104149872575</v>
       </c>
       <c r="T41" s="44">
         <f t="shared" si="4"/>
-        <v>2448.9161028622761</v>
+        <v>2808.5472904910803</v>
       </c>
       <c r="U41" s="12">
         <f t="shared" si="40"/>
-        <v>5158.6879450350752</v>
+        <v>6186.2056239745152</v>
       </c>
       <c r="W41" s="4">
         <v>2043</v>
       </c>
       <c r="X41" s="44">
         <f t="shared" si="5"/>
-        <v>962.53330340597995</v>
+        <v>1099.3316909141395</v>
       </c>
       <c r="Y41" s="44">
         <f t="shared" si="6"/>
-        <v>3208.4443446865998</v>
+        <v>3664.4389697137985</v>
       </c>
       <c r="Z41" s="44">
         <f t="shared" si="7"/>
-        <v>2245.9110412806199</v>
+        <v>2565.1072787996586</v>
       </c>
       <c r="AA41" s="12">
         <f t="shared" si="52"/>
-        <v>4578.6734833731998</v>
+        <v>5490.6627334275972</v>
       </c>
       <c r="AC41" s="4">
         <v>2043</v>
       </c>
       <c r="AD41" s="44">
         <f t="shared" si="8"/>
-        <v>1154.0486717322585</v>
+        <v>1328.9934694983292</v>
       </c>
       <c r="AE41" s="44">
         <f t="shared" si="9"/>
-        <v>3846.8289057741954</v>
+        <v>4429.9782316610972</v>
       </c>
       <c r="AF41" s="44">
         <f t="shared" si="10"/>
-        <v>2692.7802340419366</v>
+        <v>3100.9847621627678</v>
       </c>
       <c r="AG41" s="12">
         <f t="shared" si="41"/>
-        <v>5855.4426055483909</v>
+        <v>7021.7412573221936</v>
       </c>
       <c r="AI41" s="4">
         <v>2043</v>
       </c>
       <c r="AJ41" s="44">
         <f t="shared" si="11"/>
-        <v>1022.2551314499782</v>
+        <v>1170.9490309153687</v>
       </c>
       <c r="AK41" s="44">
         <f t="shared" si="12"/>
-        <v>3407.5171048332609</v>
+        <v>3903.1634363845624</v>
       </c>
       <c r="AL41" s="44">
         <f t="shared" si="13"/>
-        <v>2385.2619733832826</v>
+        <v>2732.2144054691935</v>
       </c>
       <c r="AM41" s="12">
         <f t="shared" si="53"/>
-        <v>4976.8190036665219</v>
+        <v>5968.1116667691249</v>
       </c>
       <c r="AO41" s="4">
         <v>2043</v>
       </c>
       <c r="AP41" s="44">
         <f t="shared" si="14"/>
-        <v>1376.8995671186592</v>
+        <v>1596.2322474658797</v>
       </c>
       <c r="AQ41" s="44">
         <f t="shared" si="15"/>
-        <v>4589.6652237288645</v>
+        <v>5320.7741582195995</v>
       </c>
       <c r="AR41" s="44">
         <f t="shared" si="16"/>
-        <v>3212.765656610205</v>
+        <v>3724.5419107537195</v>
       </c>
       <c r="AS41" s="12">
         <f t="shared" si="42"/>
-        <v>7341.1152414577282</v>
+        <v>8803.3331104391982</v>
       </c>
       <c r="AU41" s="4">
         <v>2043</v>
       </c>
       <c r="AV41" s="44">
         <f t="shared" si="17"/>
-        <v>1199.0243693950222</v>
+        <v>1382.9275156720944</v>
       </c>
       <c r="AW41" s="44">
         <f t="shared" si="18"/>
-        <v>3996.7478979834073</v>
+        <v>4609.7583855736484</v>
       </c>
       <c r="AX41" s="44">
         <f t="shared" si="19"/>
-        <v>2797.7235285883849</v>
+        <v>3226.8308699015538</v>
       </c>
       <c r="AY41" s="12">
         <f t="shared" si="54"/>
-        <v>6155.2805899668147</v>
+        <v>7381.301565147297</v>
       </c>
       <c r="BA41" s="4">
         <v>2043</v>
       </c>
       <c r="BB41" s="44">
         <f t="shared" si="20"/>
-        <v>1079.2120600474952</v>
+        <v>1239.2507533239491</v>
       </c>
       <c r="BC41" s="44">
         <f t="shared" si="21"/>
-        <v>3597.373533491651</v>
+        <v>4130.8358444131636</v>
       </c>
       <c r="BD41" s="44">
         <f t="shared" si="22"/>
-        <v>2518.1614734441555</v>
+        <v>2891.5850910892145</v>
       </c>
       <c r="BE41" s="12">
         <f t="shared" si="43"/>
-        <v>5356.5318609833021</v>
+        <v>6423.4564828263274</v>
       </c>
       <c r="BG41" s="4">
         <v>2043</v>
       </c>
       <c r="BH41" s="44">
         <f t="shared" si="23"/>
-        <v>972.48694141331293</v>
+        <v>1111.2679142476777</v>
       </c>
       <c r="BI41" s="44">
         <f t="shared" si="24"/>
-        <v>3241.6231380443764</v>
+        <v>3704.2263808255925</v>
       </c>
       <c r="BJ41" s="44">
         <f t="shared" si="25"/>
-        <v>2269.1361966310633</v>
+        <v>2592.9584665779148</v>
       </c>
       <c r="BK41" s="12">
         <f t="shared" si="55"/>
-        <v>4645.031070088753</v>
+        <v>5570.2375556511852</v>
       </c>
       <c r="BM41" s="4">
         <v>2043</v>
@@ -10158,76 +10143,76 @@
       </c>
       <c r="BZ41" s="44">
         <f t="shared" si="26"/>
-        <v>1416.529792518226</v>
+        <v>1643.7560996271898</v>
       </c>
       <c r="CA41" s="44">
         <f t="shared" si="27"/>
-        <v>4721.7659750607536</v>
+        <v>5479.1869987572991</v>
       </c>
       <c r="CB41" s="44">
         <f t="shared" si="28"/>
-        <v>3305.2361825425273</v>
+        <v>3835.4308991301091</v>
       </c>
       <c r="CC41" s="12">
         <f t="shared" si="50"/>
-        <v>7605.3167441215064</v>
+        <v>9120.1587915145974</v>
       </c>
       <c r="CE41" s="4">
         <v>2043</v>
       </c>
       <c r="CF41" s="44">
         <f t="shared" si="29"/>
-        <v>1556.9866843994807</v>
+        <v>1812.1894733337856</v>
       </c>
       <c r="CG41" s="44">
         <f t="shared" si="30"/>
-        <v>5189.9556146649356</v>
+        <v>6040.6315777792852</v>
       </c>
       <c r="CH41" s="44">
         <f t="shared" si="31"/>
-        <v>3632.9689302654547</v>
+        <v>4228.4421044454994</v>
       </c>
       <c r="CI41" s="12">
         <f t="shared" si="56"/>
-        <v>8541.6960233298705</v>
+        <v>10243.04794955857</v>
       </c>
       <c r="CK41" s="4">
         <v>2043</v>
       </c>
       <c r="CL41" s="44">
         <f t="shared" si="32"/>
-        <v>1679.9325464530209</v>
+        <v>1959.6239356202668</v>
       </c>
       <c r="CM41" s="44">
         <f t="shared" si="33"/>
-        <v>5599.7751548434035</v>
+        <v>6532.0797854008897</v>
       </c>
       <c r="CN41" s="44">
         <f t="shared" si="34"/>
-        <v>3919.8426083903823</v>
+        <v>4572.4558497806229</v>
       </c>
       <c r="CO41" s="12">
         <f t="shared" si="51"/>
-        <v>9361.3351036868062</v>
+        <v>11225.944364801779</v>
       </c>
       <c r="CQ41" s="4">
         <v>2043</v>
       </c>
       <c r="CR41" s="44">
         <f t="shared" si="35"/>
-        <v>1502.0573487293834</v>
+        <v>1746.3192038264815</v>
       </c>
       <c r="CS41" s="44">
         <f t="shared" si="36"/>
-        <v>5006.8578290979449</v>
+        <v>5821.0640127549386</v>
       </c>
       <c r="CT41" s="44">
         <f t="shared" si="37"/>
-        <v>3504.8004803685612</v>
+        <v>4074.7448089284567</v>
       </c>
       <c r="CU41" s="12">
         <f t="shared" si="57"/>
-        <v>8175.5004521958899</v>
+        <v>9803.9128195098765</v>
       </c>
       <c r="CW41">
         <v>2043</v>
@@ -10296,152 +10281,152 @@
       </c>
       <c r="R42" s="44">
         <f t="shared" si="2"/>
-        <v>1067.9885463810585</v>
+        <v>1230.9267938373121</v>
       </c>
       <c r="S42" s="44">
         <f t="shared" si="3"/>
-        <v>3559.9618212701953</v>
+        <v>4103.0893127910404</v>
       </c>
       <c r="T42" s="44">
         <f t="shared" si="4"/>
-        <v>2491.9732748891365</v>
+        <v>2872.1625189537281</v>
       </c>
       <c r="U42" s="12">
         <f t="shared" si="40"/>
-        <v>5205.1161365403905</v>
+        <v>6291.3711195820815</v>
       </c>
       <c r="W42" s="4">
         <v>2044</v>
       </c>
       <c r="X42" s="44">
         <f t="shared" si="5"/>
-        <v>980.20335760853368</v>
+        <v>1124.8217258843797</v>
       </c>
       <c r="Y42" s="44">
         <f t="shared" si="6"/>
-        <v>3267.3445253617792</v>
+        <v>3749.4057529479328</v>
       </c>
       <c r="Z42" s="44">
         <f t="shared" si="7"/>
-        <v>2287.1411677532451</v>
+        <v>2624.5840270635526</v>
       </c>
       <c r="AA42" s="12">
         <f t="shared" si="52"/>
-        <v>4619.8815447235584</v>
+        <v>5584.0039998958655</v>
       </c>
       <c r="AC42" s="4">
         <v>2044</v>
       </c>
       <c r="AD42" s="44">
         <f t="shared" si="8"/>
-        <v>1173.4423642497488</v>
+        <v>1358.3877547045006</v>
       </c>
       <c r="AE42" s="44">
         <f t="shared" si="9"/>
-        <v>3911.4745474991628</v>
+        <v>4527.9591823483352</v>
       </c>
       <c r="AF42" s="44">
         <f t="shared" si="10"/>
-        <v>2738.0321832494137</v>
+        <v>3169.5714276438343</v>
       </c>
       <c r="AG42" s="12">
         <f t="shared" si="41"/>
-        <v>5908.1415889983255</v>
+        <v>7141.1108586966702</v>
       </c>
       <c r="AI42" s="4">
         <v>2044</v>
       </c>
       <c r="AJ42" s="44">
         <f t="shared" si="11"/>
-        <v>1040.462682104928</v>
+        <v>1197.65656066563</v>
       </c>
       <c r="AK42" s="44">
         <f t="shared" si="12"/>
-        <v>3468.2089403497603</v>
+        <v>3992.1885355520999</v>
       </c>
       <c r="AL42" s="44">
         <f t="shared" si="13"/>
-        <v>2427.746258244832</v>
+        <v>2794.5319748864699</v>
       </c>
       <c r="AM42" s="12">
         <f t="shared" si="53"/>
-        <v>5021.6103746995204</v>
+        <v>6069.5695651041997</v>
       </c>
       <c r="AO42" s="4">
         <v>2044</v>
       </c>
       <c r="AP42" s="44">
         <f t="shared" si="14"/>
-        <v>1398.2989176946271</v>
+        <v>1630.1695918974995</v>
       </c>
       <c r="AQ42" s="44">
         <f t="shared" si="15"/>
-        <v>4660.9963923154237</v>
+        <v>5433.8986396583314</v>
       </c>
       <c r="AR42" s="44">
         <f t="shared" si="16"/>
-        <v>3262.6974746207966</v>
+        <v>3803.7290477608317</v>
       </c>
       <c r="AS42" s="12">
         <f t="shared" si="42"/>
-        <v>7407.1852786308473</v>
+        <v>8952.9897733166636</v>
       </c>
       <c r="AU42" s="4">
         <v>2044</v>
       </c>
       <c r="AV42" s="44">
         <f t="shared" si="17"/>
-        <v>1218.8228431914772</v>
+        <v>1413.23867966322</v>
       </c>
       <c r="AW42" s="44">
         <f t="shared" si="18"/>
-        <v>4062.7428106382577</v>
+        <v>4710.7955988774002</v>
       </c>
       <c r="AX42" s="44">
         <f t="shared" si="19"/>
-        <v>2843.91996744678</v>
+        <v>3297.5569192141797</v>
       </c>
       <c r="AY42" s="12">
         <f t="shared" si="54"/>
-        <v>6210.6781152765152</v>
+        <v>7506.7836917548002</v>
       </c>
       <c r="BA42" s="4">
         <v>2044</v>
       </c>
       <c r="BB42" s="44">
         <f t="shared" si="20"/>
-        <v>1097.9322230598227</v>
+        <v>1267.1194123551561</v>
       </c>
       <c r="BC42" s="44">
         <f t="shared" si="21"/>
-        <v>3659.7740768660756</v>
+        <v>4223.7313745171869</v>
       </c>
       <c r="BD42" s="44">
         <f t="shared" si="22"/>
-        <v>2561.8418538062529</v>
+        <v>2956.6119621620305</v>
       </c>
       <c r="BE42" s="12">
         <f t="shared" si="43"/>
-        <v>5404.740647732151</v>
+        <v>6532.6552430343745</v>
       </c>
       <c r="BG42" s="4">
         <v>2044</v>
       </c>
       <c r="BH42" s="44">
         <f t="shared" si="23"/>
-        <v>990.24657835793266</v>
+        <v>1136.9608650145881</v>
       </c>
       <c r="BI42" s="44">
         <f t="shared" si="24"/>
-        <v>3300.8219278597758</v>
+        <v>3789.8695500486274</v>
       </c>
       <c r="BJ42" s="44">
         <f t="shared" si="25"/>
-        <v>2310.575349501843</v>
+        <v>2652.9086850340391</v>
       </c>
       <c r="BK42" s="12">
         <f t="shared" si="55"/>
-        <v>4686.8363497195514</v>
+        <v>5664.9315940972547</v>
       </c>
       <c r="BM42" s="4">
         <v>2044</v>
@@ -10484,76 +10469,76 @@
       </c>
       <c r="BZ42" s="44">
         <f t="shared" si="26"/>
-        <v>1438.2858151227899</v>
+        <v>1678.5013495455516</v>
       </c>
       <c r="CA42" s="44">
         <f t="shared" si="27"/>
-        <v>4794.2860504092996</v>
+        <v>5595.004498485172</v>
       </c>
       <c r="CB42" s="44">
         <f t="shared" si="28"/>
-        <v>3356.0002352865095</v>
+        <v>3916.5031489396201</v>
       </c>
       <c r="CC42" s="12">
         <f t="shared" si="50"/>
-        <v>7673.7645948185991</v>
+        <v>9275.2014909703448</v>
       </c>
       <c r="CE42" s="4">
         <v>2044</v>
       </c>
       <c r="CF42" s="44">
         <f t="shared" si="29"/>
-        <v>1580.006819030976</v>
+        <v>1849.7980906051598</v>
       </c>
       <c r="CG42" s="44">
         <f t="shared" si="30"/>
-        <v>5266.6893967699198</v>
+        <v>6165.9936353505327</v>
       </c>
       <c r="CH42" s="44">
         <f t="shared" si="31"/>
-        <v>3686.6825777389436</v>
+        <v>4316.1955447453729</v>
       </c>
       <c r="CI42" s="12">
         <f t="shared" si="56"/>
-        <v>8618.5712875398385</v>
+        <v>10417.179764701064</v>
       </c>
       <c r="CK42" s="4">
         <v>2044</v>
       </c>
       <c r="CL42" s="44">
         <f t="shared" si="32"/>
-        <v>1704.0591938429977</v>
+        <v>1999.7389387505114</v>
       </c>
       <c r="CM42" s="44">
         <f t="shared" si="33"/>
-        <v>5680.1973128099926</v>
+        <v>6665.7964625017048</v>
       </c>
       <c r="CN42" s="44">
         <f t="shared" si="34"/>
-        <v>3976.1381189669946</v>
+        <v>4666.057523751193</v>
       </c>
       <c r="CO42" s="12">
         <f t="shared" si="51"/>
-        <v>9445.587119619986</v>
+        <v>11416.785419003409</v>
       </c>
       <c r="CQ42" s="4">
         <v>2044</v>
       </c>
       <c r="CR42" s="44">
         <f t="shared" si="35"/>
-        <v>1524.5831193398476</v>
+        <v>1782.8080265162318</v>
       </c>
       <c r="CS42" s="44">
         <f t="shared" si="36"/>
-        <v>5081.9437311328256</v>
+        <v>5942.6934217207727</v>
       </c>
       <c r="CT42" s="44">
         <f t="shared" si="37"/>
-        <v>3557.3606117929776</v>
+        <v>4159.8853952045411</v>
       </c>
       <c r="CU42" s="12">
         <f t="shared" si="57"/>
-        <v>8249.0799562656521</v>
+        <v>9970.5793374415443</v>
       </c>
       <c r="CW42">
         <v>2044</v>
@@ -10622,152 +10607,152 @@
       </c>
       <c r="R43" s="44">
         <f t="shared" si="2"/>
-        <v>1086.5042981653878</v>
+        <v>1258.4586351922464</v>
       </c>
       <c r="S43" s="44">
         <f t="shared" si="3"/>
-        <v>3621.6809938846263</v>
+        <v>4194.862117307488</v>
       </c>
       <c r="T43" s="44">
         <f t="shared" si="4"/>
-        <v>2535.1766957192381</v>
+        <v>2936.4034821152413</v>
       </c>
       <c r="U43" s="12">
         <f t="shared" si="40"/>
-        <v>5251.9621817692532</v>
+        <v>6398.3244286149766</v>
       </c>
       <c r="W43" s="4">
         <v>2045</v>
       </c>
       <c r="X43" s="44">
         <f t="shared" si="5"/>
-        <v>997.92904269391033</v>
+        <v>1150.5497810841141</v>
       </c>
       <c r="Y43" s="44">
         <f t="shared" si="6"/>
-        <v>3326.4301423130346</v>
+        <v>3835.1659369470472</v>
       </c>
       <c r="Z43" s="44">
         <f t="shared" si="7"/>
-        <v>2328.501099619124</v>
+        <v>2684.6161558629328</v>
       </c>
       <c r="AA43" s="12">
         <f t="shared" si="52"/>
-        <v>4661.4604786260697</v>
+        <v>5678.9320678940949</v>
       </c>
       <c r="AC43" s="4">
         <v>2045</v>
       </c>
       <c r="AD43" s="44">
         <f t="shared" si="8"/>
-        <v>1192.9072003948966</v>
+        <v>1388.0864323941769</v>
       </c>
       <c r="AE43" s="44">
         <f t="shared" si="9"/>
-        <v>3976.3573346496551</v>
+        <v>4626.9547746472563</v>
       </c>
       <c r="AF43" s="44">
         <f t="shared" si="10"/>
-        <v>2783.4501342547583</v>
+        <v>3238.8683422530794</v>
       </c>
       <c r="AG43" s="12">
         <f t="shared" si="41"/>
-        <v>5961.3148632993098</v>
+        <v>7262.5097432945131</v>
       </c>
       <c r="AI43" s="4">
         <v>2045</v>
       </c>
       <c r="AJ43" s="44">
         <f t="shared" si="11"/>
-        <v>1058.7307011107723</v>
+        <v>1224.6228080566455</v>
       </c>
       <c r="AK43" s="44">
         <f t="shared" si="12"/>
-        <v>3529.102337035908</v>
+        <v>4082.076026855485</v>
       </c>
       <c r="AL43" s="44">
         <f t="shared" si="13"/>
-        <v>2470.3716359251353</v>
+        <v>2857.4532187988393</v>
       </c>
       <c r="AM43" s="12">
         <f t="shared" si="53"/>
-        <v>5066.8048680718157</v>
+        <v>6172.7522477109706</v>
       </c>
       <c r="AO43" s="4">
         <v>2045</v>
       </c>
       <c r="AP43" s="44">
         <f t="shared" si="14"/>
-        <v>1419.7874628207787</v>
+        <v>1664.4885608194566</v>
       </c>
       <c r="AQ43" s="44">
         <f t="shared" si="15"/>
-        <v>4732.6248760692624</v>
+        <v>5548.2952027315223</v>
       </c>
       <c r="AR43" s="44">
         <f t="shared" si="16"/>
-        <v>3312.8374132484837</v>
+        <v>3883.8066419120655</v>
       </c>
       <c r="AS43" s="12">
         <f t="shared" si="42"/>
-        <v>7473.8499461385245</v>
+        <v>9105.1905994630451</v>
       </c>
       <c r="AU43" s="4">
         <v>2045</v>
       </c>
       <c r="AV43" s="44">
         <f t="shared" si="17"/>
-        <v>1238.6961036471002</v>
+        <v>1443.8698230771945</v>
       </c>
       <c r="AW43" s="44">
         <f t="shared" si="18"/>
-        <v>4128.9870121570011</v>
+        <v>4812.8994102573151</v>
       </c>
       <c r="AX43" s="44">
         <f t="shared" si="19"/>
-        <v>2890.2909085099004</v>
+        <v>3369.0295871801204</v>
       </c>
       <c r="AY43" s="12">
         <f t="shared" si="54"/>
-        <v>6266.5742183140028</v>
+        <v>7634.3990145146308</v>
       </c>
       <c r="BA43" s="4">
         <v>2045</v>
       </c>
       <c r="BB43" s="44">
         <f t="shared" si="20"/>
-        <v>1116.7174679342609</v>
+        <v>1295.2665282248936</v>
       </c>
       <c r="BC43" s="44">
         <f t="shared" si="21"/>
-        <v>3722.39155978087</v>
+        <v>4317.5550940829789</v>
       </c>
       <c r="BD43" s="44">
         <f t="shared" si="22"/>
-        <v>2605.6740918466089</v>
+        <v>3022.2885658580849</v>
       </c>
       <c r="BE43" s="12">
         <f t="shared" si="43"/>
-        <v>5453.3833135617397</v>
+        <v>6643.7103821659584</v>
       </c>
       <c r="BG43" s="4">
         <v>2045</v>
       </c>
       <c r="BH43" s="44">
         <f t="shared" si="23"/>
-        <v>1008.0626524300538</v>
+        <v>1162.8952855795362</v>
       </c>
       <c r="BI43" s="44">
         <f t="shared" si="24"/>
-        <v>3360.208841433513</v>
+        <v>3876.3176185984539</v>
       </c>
       <c r="BJ43" s="44">
         <f t="shared" si="25"/>
-        <v>2352.1461890034589</v>
+        <v>2713.4223330189175</v>
       </c>
       <c r="BK43" s="12">
         <f t="shared" si="55"/>
-        <v>4729.0178768670266</v>
+        <v>5761.2354311969075</v>
       </c>
       <c r="BM43" s="4">
         <v>2045</v>
@@ -10810,76 +10795,76 @@
       </c>
       <c r="BZ43" s="44">
         <f t="shared" si="26"/>
-        <v>1460.1342423257947</v>
+        <v>1713.641958347526</v>
       </c>
       <c r="CA43" s="44">
         <f t="shared" si="27"/>
-        <v>4867.1141410859827</v>
+        <v>5712.13986115842</v>
       </c>
       <c r="CB43" s="44">
         <f t="shared" si="28"/>
-        <v>3406.9798987601876</v>
+        <v>3998.4979028108937</v>
       </c>
       <c r="CC43" s="12">
         <f t="shared" si="50"/>
-        <v>7742.828476171966</v>
+        <v>9432.8799163168405</v>
       </c>
       <c r="CE43" s="4">
         <v>2045</v>
       </c>
       <c r="CF43" s="44">
         <f t="shared" si="29"/>
-        <v>1603.1307352691542</v>
+        <v>1887.8507440051471</v>
       </c>
       <c r="CG43" s="44">
         <f t="shared" si="30"/>
-        <v>5343.7691175638474</v>
+        <v>6292.8358133504908</v>
       </c>
       <c r="CH43" s="44">
         <f t="shared" si="31"/>
-        <v>3740.6383822946927</v>
+        <v>4404.9850693453436</v>
       </c>
       <c r="CI43" s="12">
         <f t="shared" si="56"/>
-        <v>8696.1384291276954</v>
+        <v>10594.271820700982</v>
       </c>
       <c r="CK43" s="4">
         <v>2045</v>
       </c>
       <c r="CL43" s="44">
         <f t="shared" si="32"/>
-        <v>1728.2995814544847</v>
+        <v>2040.3405865689697</v>
       </c>
       <c r="CM43" s="44">
         <f t="shared" si="33"/>
-        <v>5760.9986048482824</v>
+        <v>6801.1352885632323</v>
       </c>
       <c r="CN43" s="44">
         <f t="shared" si="34"/>
-        <v>4032.6990233937972</v>
+        <v>4760.7947019942621</v>
       </c>
       <c r="CO43" s="12">
         <f t="shared" si="51"/>
-        <v>9530.5974036965654</v>
+        <v>11610.870771126465</v>
       </c>
       <c r="CQ43" s="4">
         <v>2045</v>
       </c>
       <c r="CR43" s="44">
         <f t="shared" si="35"/>
-        <v>1547.2082222808062</v>
+        <v>1819.7218488267072</v>
       </c>
       <c r="CS43" s="44">
         <f t="shared" si="36"/>
-        <v>5157.3607409360211</v>
+        <v>6065.7394960890242</v>
       </c>
       <c r="CT43" s="44">
         <f t="shared" si="37"/>
-        <v>3610.1525186552144</v>
+        <v>4246.017647262317</v>
       </c>
       <c r="CU43" s="12">
         <f t="shared" si="57"/>
-        <v>8323.3216758720428</v>
+        <v>10140.079186178049</v>
       </c>
       <c r="CW43">
         <v>2045</v>
@@ -10912,17 +10897,17 @@
       </c>
     </row>
     <row r="47" spans="2:103" x14ac:dyDescent="0.35">
-      <c r="C47" s="56" t="s">
+      <c r="C47" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="56"/>
-      <c r="E47" s="56"/>
+      <c r="D47" s="73"/>
+      <c r="E47" s="73"/>
       <c r="F47" s="2"/>
-      <c r="H47" s="56" t="s">
+      <c r="H47" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="I47" s="56"/>
-      <c r="J47" s="56"/>
+      <c r="I47" s="73"/>
+      <c r="J47" s="73"/>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
     </row>
@@ -11170,42 +11155,42 @@
       <c r="AO54" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="AQ54" s="72" t="s">
+      <c r="AQ54" s="56" t="s">
         <v>166</v>
       </c>
-      <c r="AR54" s="72"/>
-      <c r="AS54" s="72"/>
-      <c r="AT54" s="72"/>
+      <c r="AR54" s="56"/>
+      <c r="AS54" s="56"/>
+      <c r="AT54" s="56"/>
     </row>
     <row r="55" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="C55" s="56" t="s">
+      <c r="C55" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="56"/>
-      <c r="E55" s="56"/>
+      <c r="D55" s="73"/>
+      <c r="E55" s="73"/>
       <c r="G55" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="H55">
-        <v>0.25</v>
+      <c r="H55" s="6">
+        <v>0.30540717668493728</v>
       </c>
       <c r="J55" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="K55">
-        <v>0.35</v>
+      <c r="K55" s="6">
+        <v>0.34816110484690904</v>
       </c>
       <c r="M55" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="N55">
-        <v>0.5</v>
+      <c r="N55" s="55">
+        <v>0.31465185333275902</v>
       </c>
       <c r="P55" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="Q55">
-        <v>0.35</v>
+      <c r="Q55" s="6">
+        <v>0.27376698275466693</v>
       </c>
       <c r="AG55" t="s">
         <v>16</v>
@@ -13355,28 +13340,28 @@
       </c>
       <c r="H77" s="6">
         <f t="shared" ref="H77:H96" si="60">$L$4*$G109*H$55</f>
-        <v>5.2687500000000007</v>
+        <v>6.4364562486350536</v>
       </c>
       <c r="J77" s="33">
         <v>21</v>
       </c>
       <c r="K77" s="6">
         <f t="shared" ref="K77:K96" si="61">$L$4*$G109*K$55</f>
-        <v>7.3762500000000006</v>
+        <v>7.3374952846486092</v>
       </c>
       <c r="M77" s="33">
         <v>21</v>
       </c>
       <c r="N77" s="6">
         <f>$L$4*$G109*N$55</f>
-        <v>10.537500000000001</v>
+        <v>6.6312878089878975</v>
       </c>
       <c r="P77" s="33">
         <v>21</v>
       </c>
       <c r="Q77" s="6">
         <f t="shared" ref="Q77:Q96" si="62">$L$4*$G109*Q$55</f>
-        <v>7.3762500000000006</v>
+        <v>5.7696391615546068</v>
       </c>
       <c r="S77" s="31">
         <v>21</v>
@@ -13402,7 +13387,7 @@
       </c>
       <c r="AC77" s="38">
         <f>Q77</f>
-        <v>7.3762500000000006</v>
+        <v>5.7696391615546068</v>
       </c>
       <c r="AE77" s="31">
         <v>21</v>
@@ -13462,14 +13447,14 @@
       </c>
       <c r="H78" s="6">
         <f t="shared" si="60"/>
-        <v>4.6875</v>
+        <v>5.7263845628425738</v>
       </c>
       <c r="J78" s="33">
         <v>22</v>
       </c>
       <c r="K78" s="6">
         <f t="shared" si="61"/>
-        <v>6.5625</v>
+        <v>6.5280207158795447</v>
       </c>
       <c r="M78" s="33">
         <v>22</v>
@@ -13483,7 +13468,7 @@
       </c>
       <c r="Q78" s="6">
         <f t="shared" si="62"/>
-        <v>6.5625</v>
+        <v>5.1331309266500051</v>
       </c>
       <c r="S78" s="31">
         <v>22</v>
@@ -13509,7 +13494,7 @@
       </c>
       <c r="AC78" s="38">
         <f t="shared" ref="AC78:AC96" si="64">Q78</f>
-        <v>6.5625</v>
+        <v>5.1331309266500051</v>
       </c>
       <c r="AE78" s="31">
         <v>22</v>
@@ -13569,14 +13554,14 @@
       </c>
       <c r="H79" s="6">
         <f t="shared" si="60"/>
-        <v>13.125</v>
+        <v>16.033876775959207</v>
       </c>
       <c r="J79" s="33">
         <v>23</v>
       </c>
       <c r="K79" s="6">
         <f t="shared" si="61"/>
-        <v>18.375</v>
+        <v>18.278458004462724</v>
       </c>
       <c r="M79" s="33">
         <v>23</v>
@@ -13590,7 +13575,7 @@
       </c>
       <c r="Q79" s="6">
         <f t="shared" si="62"/>
-        <v>18.375</v>
+        <v>14.372766594620014</v>
       </c>
       <c r="S79" s="31">
         <v>23</v>
@@ -13616,7 +13601,7 @@
       </c>
       <c r="AC79" s="38">
         <f t="shared" si="64"/>
-        <v>18.375</v>
+        <v>14.372766594620014</v>
       </c>
       <c r="AE79" s="31">
         <v>23</v>
@@ -13676,14 +13661,14 @@
       </c>
       <c r="H80" s="6">
         <f t="shared" si="60"/>
-        <v>5.7375000000000007</v>
+        <v>7.0090947049193115</v>
       </c>
       <c r="J80" s="33">
         <v>24</v>
       </c>
       <c r="K80" s="6">
         <f t="shared" si="61"/>
-        <v>8.0325000000000006</v>
+        <v>7.9902973562365638</v>
       </c>
       <c r="M80" s="33">
         <v>24</v>
@@ -13697,7 +13682,7 @@
       </c>
       <c r="Q80" s="6">
         <f t="shared" si="62"/>
-        <v>8.0325000000000006</v>
+        <v>6.282952254219607</v>
       </c>
       <c r="S80" s="31">
         <v>24</v>
@@ -13723,7 +13708,7 @@
       </c>
       <c r="AC80" s="38">
         <f t="shared" si="64"/>
-        <v>8.0325000000000006</v>
+        <v>6.282952254219607</v>
       </c>
       <c r="AE80" s="31">
         <v>24</v>
@@ -13783,14 +13768,14 @@
       </c>
       <c r="H81" s="6">
         <f t="shared" si="60"/>
-        <v>1.875</v>
+        <v>2.2905538251370294</v>
       </c>
       <c r="J81" s="33">
         <v>25</v>
       </c>
       <c r="K81" s="6">
         <f t="shared" si="61"/>
-        <v>2.625</v>
+        <v>2.6112082863518178</v>
       </c>
       <c r="M81" s="33">
         <v>25</v>
@@ -13804,7 +13789,7 @@
       </c>
       <c r="Q81" s="6">
         <f t="shared" si="62"/>
-        <v>2.625</v>
+        <v>2.0532523706600019</v>
       </c>
       <c r="S81" s="31">
         <v>25</v>
@@ -13830,7 +13815,7 @@
       </c>
       <c r="AC81" s="38">
         <f t="shared" si="64"/>
-        <v>2.625</v>
+        <v>2.0532523706600019</v>
       </c>
       <c r="AE81" s="31">
         <v>25</v>
@@ -13890,14 +13875,14 @@
       </c>
       <c r="H82" s="6">
         <f t="shared" si="60"/>
-        <v>1.875</v>
+        <v>2.2905538251370294</v>
       </c>
       <c r="J82" s="33">
         <v>26</v>
       </c>
       <c r="K82" s="6">
         <f t="shared" si="61"/>
-        <v>2.625</v>
+        <v>2.6112082863518178</v>
       </c>
       <c r="M82" s="33">
         <v>26</v>
@@ -13911,7 +13896,7 @@
       </c>
       <c r="Q82" s="6">
         <f t="shared" si="62"/>
-        <v>2.625</v>
+        <v>2.0532523706600019</v>
       </c>
       <c r="S82" s="31">
         <v>26</v>
@@ -13937,7 +13922,7 @@
       </c>
       <c r="AC82" s="38">
         <f t="shared" si="64"/>
-        <v>2.625</v>
+        <v>2.0532523706600019</v>
       </c>
       <c r="AE82" s="31">
         <v>26</v>
@@ -13997,14 +13982,14 @@
       </c>
       <c r="H83" s="6">
         <f t="shared" si="60"/>
-        <v>1.875</v>
+        <v>2.2905538251370294</v>
       </c>
       <c r="J83" s="33">
         <v>27</v>
       </c>
       <c r="K83" s="6">
         <f t="shared" si="61"/>
-        <v>2.625</v>
+        <v>2.6112082863518178</v>
       </c>
       <c r="M83" s="33">
         <v>27</v>
@@ -14018,7 +14003,7 @@
       </c>
       <c r="Q83" s="6">
         <f t="shared" si="62"/>
-        <v>2.625</v>
+        <v>2.0532523706600019</v>
       </c>
       <c r="S83" s="31">
         <v>27</v>
@@ -14044,7 +14029,7 @@
       </c>
       <c r="AC83" s="38">
         <f t="shared" si="64"/>
-        <v>2.625</v>
+        <v>2.0532523706600019</v>
       </c>
       <c r="AE83" s="31">
         <v>27</v>
@@ -14104,14 +14089,14 @@
       </c>
       <c r="H84" s="6">
         <f t="shared" si="60"/>
-        <v>9.7875000000000014</v>
+        <v>11.956690967215296</v>
       </c>
       <c r="J84" s="33">
         <v>28</v>
       </c>
       <c r="K84" s="6">
         <f t="shared" si="61"/>
-        <v>13.702500000000001</v>
+        <v>13.630507254756491</v>
       </c>
       <c r="M84" s="33">
         <v>28</v>
@@ -14125,7 +14110,7 @@
       </c>
       <c r="Q84" s="6">
         <f t="shared" si="62"/>
-        <v>13.702500000000001</v>
+        <v>10.717977374845212</v>
       </c>
       <c r="S84" s="31">
         <v>28</v>
@@ -14151,7 +14136,7 @@
       </c>
       <c r="AC84" s="38">
         <f t="shared" si="64"/>
-        <v>13.702500000000001</v>
+        <v>10.717977374845212</v>
       </c>
       <c r="AE84" s="31">
         <v>28</v>
@@ -14211,14 +14196,14 @@
       </c>
       <c r="H85" s="6">
         <f t="shared" si="60"/>
-        <v>1.875</v>
+        <v>2.2905538251370294</v>
       </c>
       <c r="J85" s="33">
         <v>29</v>
       </c>
       <c r="K85" s="6">
         <f t="shared" si="61"/>
-        <v>2.625</v>
+        <v>2.6112082863518178</v>
       </c>
       <c r="M85" s="33">
         <v>29</v>
@@ -14232,7 +14217,7 @@
       </c>
       <c r="Q85" s="6">
         <f t="shared" si="62"/>
-        <v>2.625</v>
+        <v>2.0532523706600019</v>
       </c>
       <c r="S85" s="31">
         <v>29</v>
@@ -14258,7 +14243,7 @@
       </c>
       <c r="AC85" s="38">
         <f t="shared" si="64"/>
-        <v>2.625</v>
+        <v>2.0532523706600019</v>
       </c>
       <c r="AE85" s="31">
         <v>29</v>
@@ -14318,14 +14303,14 @@
       </c>
       <c r="H86" s="6">
         <f t="shared" si="60"/>
-        <v>3.7874999999999996</v>
+        <v>4.6269187267767995</v>
       </c>
       <c r="J86" s="33">
         <v>30</v>
       </c>
       <c r="K86" s="6">
         <f t="shared" si="61"/>
-        <v>5.3024999999999993</v>
+        <v>5.274640738430671</v>
       </c>
       <c r="M86" s="33">
         <v>30</v>
@@ -14339,7 +14324,7 @@
       </c>
       <c r="Q86" s="6">
         <f t="shared" si="62"/>
-        <v>5.3024999999999993</v>
+        <v>4.1475697887332039</v>
       </c>
       <c r="S86" s="31">
         <v>30</v>
@@ -14365,7 +14350,7 @@
       </c>
       <c r="AC86" s="38">
         <f t="shared" si="64"/>
-        <v>5.3024999999999993</v>
+        <v>4.1475697887332039</v>
       </c>
       <c r="AE86" s="31">
         <v>30</v>
@@ -14425,14 +14410,14 @@
       </c>
       <c r="H87" s="6">
         <f t="shared" si="60"/>
-        <v>13.125</v>
+        <v>16.033876775959207</v>
       </c>
       <c r="J87" s="33">
         <v>31</v>
       </c>
       <c r="K87" s="6">
         <f t="shared" si="61"/>
-        <v>18.375</v>
+        <v>18.278458004462724</v>
       </c>
       <c r="M87" s="33">
         <v>31</v>
@@ -14446,7 +14431,7 @@
       </c>
       <c r="Q87" s="6">
         <f t="shared" si="62"/>
-        <v>18.375</v>
+        <v>14.372766594620014</v>
       </c>
       <c r="S87" s="31">
         <v>31</v>
@@ -14472,7 +14457,7 @@
       </c>
       <c r="AC87" s="38">
         <f t="shared" si="64"/>
-        <v>18.375</v>
+        <v>14.372766594620014</v>
       </c>
       <c r="AE87" s="31">
         <v>31</v>
@@ -14532,14 +14517,14 @@
       </c>
       <c r="H88" s="6">
         <f t="shared" si="60"/>
-        <v>1.96875</v>
+        <v>2.405081516393881</v>
       </c>
       <c r="J88" s="33">
         <v>32</v>
       </c>
       <c r="K88" s="6">
         <f t="shared" si="61"/>
-        <v>2.7562499999999996</v>
+        <v>2.7417687006694087</v>
       </c>
       <c r="M88" s="33">
         <v>32</v>
@@ -14553,7 +14538,7 @@
       </c>
       <c r="Q88" s="6">
         <f t="shared" si="62"/>
-        <v>2.7562499999999996</v>
+        <v>2.1559149891930023</v>
       </c>
       <c r="S88" s="31">
         <v>32</v>
@@ -14579,7 +14564,7 @@
       </c>
       <c r="AC88" s="38">
         <f t="shared" si="64"/>
-        <v>2.7562499999999996</v>
+        <v>2.1559149891930023</v>
       </c>
       <c r="AE88" s="31">
         <v>32</v>
@@ -14639,14 +14624,14 @@
       </c>
       <c r="H89" s="6">
         <f t="shared" si="60"/>
-        <v>1.875</v>
+        <v>2.2905538251370294</v>
       </c>
       <c r="J89" s="33">
         <v>33</v>
       </c>
       <c r="K89" s="6">
         <f t="shared" si="61"/>
-        <v>2.625</v>
+        <v>2.6112082863518178</v>
       </c>
       <c r="M89" s="33">
         <v>33</v>
@@ -14660,7 +14645,7 @@
       </c>
       <c r="Q89" s="6">
         <f t="shared" si="62"/>
-        <v>2.625</v>
+        <v>2.0532523706600019</v>
       </c>
       <c r="S89" s="31">
         <v>33</v>
@@ -14686,7 +14671,7 @@
       </c>
       <c r="AC89" s="38">
         <f t="shared" si="64"/>
-        <v>2.625</v>
+        <v>2.0532523706600019</v>
       </c>
       <c r="AE89" s="31">
         <v>33</v>
@@ -14746,14 +14731,14 @@
       </c>
       <c r="H90" s="6">
         <f t="shared" si="60"/>
-        <v>1.875</v>
+        <v>2.2905538251370294</v>
       </c>
       <c r="J90" s="33">
         <v>34</v>
       </c>
       <c r="K90" s="6">
         <f t="shared" si="61"/>
-        <v>2.625</v>
+        <v>2.6112082863518178</v>
       </c>
       <c r="M90" s="33">
         <v>34</v>
@@ -14767,7 +14752,7 @@
       </c>
       <c r="Q90" s="6">
         <f t="shared" si="62"/>
-        <v>2.625</v>
+        <v>2.0532523706600019</v>
       </c>
       <c r="S90" s="31">
         <v>34</v>
@@ -14793,7 +14778,7 @@
       </c>
       <c r="AC90" s="38">
         <f t="shared" si="64"/>
-        <v>2.625</v>
+        <v>2.0532523706600019</v>
       </c>
       <c r="AE90" s="31">
         <v>34</v>
@@ -14853,14 +14838,14 @@
       </c>
       <c r="H91" s="6">
         <f t="shared" si="60"/>
-        <v>1.875</v>
+        <v>2.2905538251370294</v>
       </c>
       <c r="J91" s="33">
         <v>35</v>
       </c>
       <c r="K91" s="6">
         <f t="shared" si="61"/>
-        <v>2.625</v>
+        <v>2.6112082863518178</v>
       </c>
       <c r="M91" s="33">
         <v>35</v>
@@ -14874,7 +14859,7 @@
       </c>
       <c r="Q91" s="6">
         <f t="shared" si="62"/>
-        <v>2.625</v>
+        <v>2.0532523706600019</v>
       </c>
       <c r="S91" s="31">
         <v>35</v>
@@ -14900,7 +14885,7 @@
       </c>
       <c r="AC91" s="38">
         <f t="shared" si="64"/>
-        <v>2.625</v>
+        <v>2.0532523706600019</v>
       </c>
       <c r="AE91" s="31">
         <v>35</v>
@@ -14960,14 +14945,14 @@
       </c>
       <c r="H92" s="6">
         <f t="shared" si="60"/>
-        <v>1.875</v>
+        <v>2.2905538251370294</v>
       </c>
       <c r="J92" s="33">
         <v>36</v>
       </c>
       <c r="K92" s="6">
         <f t="shared" si="61"/>
-        <v>2.625</v>
+        <v>2.6112082863518178</v>
       </c>
       <c r="M92" s="33">
         <v>36</v>
@@ -14981,7 +14966,7 @@
       </c>
       <c r="Q92" s="6">
         <f t="shared" si="62"/>
-        <v>2.625</v>
+        <v>2.0532523706600019</v>
       </c>
       <c r="S92" s="31">
         <v>36</v>
@@ -15007,7 +14992,7 @@
       </c>
       <c r="AC92" s="38">
         <f t="shared" si="64"/>
-        <v>2.625</v>
+        <v>2.0532523706600019</v>
       </c>
       <c r="AE92" s="31">
         <v>36</v>
@@ -15067,14 +15052,14 @@
       </c>
       <c r="H93" s="6">
         <f t="shared" si="60"/>
-        <v>1.8937499999999998</v>
+        <v>2.3134593633883997</v>
       </c>
       <c r="J93" s="33">
         <v>37</v>
       </c>
       <c r="K93" s="6">
         <f t="shared" si="61"/>
-        <v>2.6512499999999997</v>
+        <v>2.6373203692153355</v>
       </c>
       <c r="M93" s="33">
         <v>37</v>
@@ -15088,7 +15073,7 @@
       </c>
       <c r="Q93" s="6">
         <f t="shared" si="62"/>
-        <v>2.6512499999999997</v>
+        <v>2.073784894366602</v>
       </c>
       <c r="S93" s="31">
         <v>37</v>
@@ -15114,7 +15099,7 @@
       </c>
       <c r="AC93" s="38">
         <f t="shared" si="64"/>
-        <v>2.6512499999999997</v>
+        <v>2.073784894366602</v>
       </c>
       <c r="AE93" s="31">
         <v>37</v>
@@ -15174,14 +15159,14 @@
       </c>
       <c r="H94" s="6">
         <f t="shared" si="60"/>
-        <v>1.8937499999999998</v>
+        <v>2.3134593633883997</v>
       </c>
       <c r="J94" s="33">
         <v>38</v>
       </c>
       <c r="K94" s="6">
         <f t="shared" si="61"/>
-        <v>2.6512499999999997</v>
+        <v>2.6373203692153355</v>
       </c>
       <c r="M94" s="33">
         <v>38</v>
@@ -15195,7 +15180,7 @@
       </c>
       <c r="Q94" s="6">
         <f t="shared" si="62"/>
-        <v>2.6512499999999997</v>
+        <v>2.073784894366602</v>
       </c>
       <c r="S94" s="31">
         <v>38</v>
@@ -15221,7 +15206,7 @@
       </c>
       <c r="AC94" s="38">
         <f t="shared" si="64"/>
-        <v>2.6512499999999997</v>
+        <v>2.073784894366602</v>
       </c>
       <c r="AE94" s="31">
         <v>38</v>
@@ -15281,14 +15266,14 @@
       </c>
       <c r="H95" s="6">
         <f t="shared" si="60"/>
-        <v>1.875</v>
+        <v>2.2905538251370294</v>
       </c>
       <c r="J95" s="33">
         <v>39</v>
       </c>
       <c r="K95" s="6">
         <f t="shared" si="61"/>
-        <v>2.625</v>
+        <v>2.6112082863518178</v>
       </c>
       <c r="M95" s="33">
         <v>39</v>
@@ -15302,7 +15287,7 @@
       </c>
       <c r="Q95" s="6">
         <f t="shared" si="62"/>
-        <v>2.625</v>
+        <v>2.0532523706600019</v>
       </c>
       <c r="S95" s="31">
         <v>39</v>
@@ -15328,7 +15313,7 @@
       </c>
       <c r="AC95" s="38">
         <f t="shared" si="64"/>
-        <v>2.625</v>
+        <v>2.0532523706600019</v>
       </c>
       <c r="AE95" s="31">
         <v>39</v>
@@ -15388,14 +15373,14 @@
       </c>
       <c r="H96" s="6">
         <f t="shared" si="60"/>
-        <v>2.25</v>
+        <v>2.7486645901644353</v>
       </c>
       <c r="J96" s="33">
         <v>40</v>
       </c>
       <c r="K96" s="6">
         <f t="shared" si="61"/>
-        <v>3.15</v>
+        <v>3.1334499436221814</v>
       </c>
       <c r="M96" s="33">
         <v>40</v>
@@ -15409,7 +15394,7 @@
       </c>
       <c r="Q96" s="6">
         <f t="shared" si="62"/>
-        <v>3.15</v>
+        <v>2.4639028447920026</v>
       </c>
       <c r="S96" s="31">
         <v>40</v>
@@ -15435,7 +15420,7 @@
       </c>
       <c r="AC96" s="38">
         <f t="shared" si="64"/>
-        <v>3.15</v>
+        <v>2.4639028447920026</v>
       </c>
       <c r="AE96" s="31">
         <v>40</v>
@@ -15837,7 +15822,7 @@
       </c>
       <c r="Z100" s="8">
         <f t="shared" si="58"/>
-        <v>19.736999999999998</v>
+        <v>23.026499999999999</v>
       </c>
       <c r="AB100" s="40">
         <v>44</v>
@@ -15852,7 +15837,7 @@
         <v>20</v>
       </c>
       <c r="AG100" s="6">
-        <v>6450</v>
+        <v>7525</v>
       </c>
       <c r="AH100" s="6">
         <f t="shared" ref="AH100" si="66">IF(EXACT(AF100,$R$49),$S$49,IF(EXACT(AF100,$R$50),$S$50,IF(EXACT(AF100,$R$51),$S$51,0)))</f>
@@ -15862,13 +15847,13 @@
         <v>44</v>
       </c>
       <c r="AK100" s="6">
-        <v>0.129</v>
+        <v>0.15050000000000002</v>
       </c>
       <c r="AL100" s="6">
-        <v>2.1285000000000002E-2</v>
+        <v>2.48325E-2</v>
       </c>
       <c r="AM100" s="6">
-        <v>754.65</v>
+        <v>88.042500000000004</v>
       </c>
       <c r="AN100" s="6">
         <v>2.5999999999999999E-2</v>
@@ -15884,27 +15869,27 @@
       </c>
     </row>
     <row r="106" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="D106" s="57" t="s">
+      <c r="D106" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="E106" s="59" t="s">
+      <c r="E106" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="F106" s="59"/>
-      <c r="G106" s="59" t="s">
+      <c r="F106" s="66"/>
+      <c r="G106" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="H106" s="64"/>
+      <c r="H106" s="67"/>
       <c r="N106" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="107" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="D107" s="58"/>
-      <c r="E107" s="60"/>
-      <c r="F107" s="60"/>
-      <c r="G107" s="60"/>
-      <c r="H107" s="65"/>
+      <c r="D107" s="75"/>
+      <c r="E107" s="68"/>
+      <c r="F107" s="68"/>
+      <c r="G107" s="68"/>
+      <c r="H107" s="69"/>
     </row>
     <row r="108" spans="1:44" x14ac:dyDescent="0.35">
       <c r="C108" t="s">
@@ -15918,14 +15903,14 @@
       <c r="D109" s="17">
         <v>0.29299999999999998</v>
       </c>
-      <c r="E109" s="61">
+      <c r="E109" s="72">
         <v>72154</v>
       </c>
-      <c r="F109" s="61"/>
-      <c r="G109" s="66">
+      <c r="F109" s="72"/>
+      <c r="G109" s="70">
         <v>28.1</v>
       </c>
-      <c r="H109" s="67"/>
+      <c r="H109" s="71"/>
     </row>
     <row r="110" spans="1:44" x14ac:dyDescent="0.35">
       <c r="C110" s="18">
@@ -15938,10 +15923,10 @@
         <v>67811</v>
       </c>
       <c r="F110" s="62"/>
-      <c r="G110" s="68">
+      <c r="G110" s="60">
         <v>25</v>
       </c>
-      <c r="H110" s="69"/>
+      <c r="H110" s="61"/>
     </row>
     <row r="111" spans="1:44" x14ac:dyDescent="0.35">
       <c r="C111" s="18">
@@ -15954,10 +15939,10 @@
         <v>187455</v>
       </c>
       <c r="F111" s="62"/>
-      <c r="G111" s="68">
+      <c r="G111" s="60">
         <v>70</v>
       </c>
-      <c r="H111" s="69"/>
+      <c r="H111" s="61"/>
     </row>
     <row r="112" spans="1:44" x14ac:dyDescent="0.35">
       <c r="C112" s="18">
@@ -15970,10 +15955,10 @@
         <v>63266</v>
       </c>
       <c r="F112" s="62"/>
-      <c r="G112" s="68">
+      <c r="G112" s="60">
         <v>30.6</v>
       </c>
-      <c r="H112" s="69"/>
+      <c r="H112" s="61"/>
     </row>
     <row r="113" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C113" s="18">
@@ -15986,10 +15971,10 @@
         <v>26553</v>
       </c>
       <c r="F113" s="62"/>
-      <c r="G113" s="68">
+      <c r="G113" s="60">
         <v>10</v>
       </c>
-      <c r="H113" s="69"/>
+      <c r="H113" s="61"/>
     </row>
     <row r="114" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C114" s="18">
@@ -16002,10 +15987,10 @@
         <v>24949</v>
       </c>
       <c r="F114" s="62"/>
-      <c r="G114" s="68">
+      <c r="G114" s="60">
         <v>10</v>
       </c>
-      <c r="H114" s="69"/>
+      <c r="H114" s="61"/>
     </row>
     <row r="115" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C115" s="18">
@@ -16018,10 +16003,10 @@
         <v>22870</v>
       </c>
       <c r="F115" s="62"/>
-      <c r="G115" s="68">
+      <c r="G115" s="60">
         <v>10</v>
       </c>
-      <c r="H115" s="69"/>
+      <c r="H115" s="61"/>
     </row>
     <row r="116" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C116" s="18">
@@ -16034,10 +16019,10 @@
         <v>139836</v>
       </c>
       <c r="F116" s="62"/>
-      <c r="G116" s="68">
+      <c r="G116" s="60">
         <v>52.2</v>
       </c>
-      <c r="H116" s="69"/>
+      <c r="H116" s="61"/>
     </row>
     <row r="117" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C117" s="18">
@@ -16050,10 +16035,10 @@
         <v>23515</v>
       </c>
       <c r="F117" s="62"/>
-      <c r="G117" s="68">
+      <c r="G117" s="60">
         <v>10</v>
       </c>
-      <c r="H117" s="69"/>
+      <c r="H117" s="61"/>
     </row>
     <row r="118" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C118" s="18">
@@ -16066,10 +16051,10 @@
         <v>49503</v>
       </c>
       <c r="F118" s="62"/>
-      <c r="G118" s="68">
+      <c r="G118" s="60">
         <v>20.2</v>
       </c>
-      <c r="H118" s="69"/>
+      <c r="H118" s="61"/>
     </row>
     <row r="119" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C119" s="18">
@@ -16082,10 +16067,10 @@
         <v>188420</v>
       </c>
       <c r="F119" s="62"/>
-      <c r="G119" s="68">
+      <c r="G119" s="60">
         <v>70</v>
       </c>
-      <c r="H119" s="69"/>
+      <c r="H119" s="61"/>
     </row>
     <row r="120" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C120" s="18">
@@ -16098,10 +16083,10 @@
         <v>26573</v>
       </c>
       <c r="F120" s="62"/>
-      <c r="G120" s="68">
+      <c r="G120" s="60">
         <v>10.5</v>
       </c>
-      <c r="H120" s="69"/>
+      <c r="H120" s="61"/>
     </row>
     <row r="121" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C121" s="18">
@@ -16114,10 +16099,10 @@
         <v>25253</v>
       </c>
       <c r="F121" s="62"/>
-      <c r="G121" s="68">
+      <c r="G121" s="60">
         <v>10</v>
       </c>
-      <c r="H121" s="69"/>
+      <c r="H121" s="61"/>
     </row>
     <row r="122" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C122" s="18">
@@ -16130,10 +16115,10 @@
         <v>17610</v>
       </c>
       <c r="F122" s="62"/>
-      <c r="G122" s="68">
+      <c r="G122" s="60">
         <v>10</v>
       </c>
-      <c r="H122" s="69"/>
+      <c r="H122" s="61"/>
     </row>
     <row r="123" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C123" s="18">
@@ -16146,10 +16131,10 @@
         <v>19372</v>
       </c>
       <c r="F123" s="62"/>
-      <c r="G123" s="68">
+      <c r="G123" s="60">
         <v>10</v>
       </c>
-      <c r="H123" s="69"/>
+      <c r="H123" s="61"/>
     </row>
     <row r="124" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C124" s="18">
@@ -16162,10 +16147,10 @@
         <v>18939</v>
       </c>
       <c r="F124" s="62"/>
-      <c r="G124" s="68">
+      <c r="G124" s="60">
         <v>10</v>
       </c>
-      <c r="H124" s="69"/>
+      <c r="H124" s="61"/>
     </row>
     <row r="125" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C125" s="18">
@@ -16178,10 +16163,10 @@
         <v>20382</v>
       </c>
       <c r="F125" s="62"/>
-      <c r="G125" s="68">
+      <c r="G125" s="60">
         <v>10.1</v>
       </c>
-      <c r="H125" s="69"/>
+      <c r="H125" s="61"/>
     </row>
     <row r="126" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C126" s="18">
@@ -16194,10 +16179,10 @@
         <v>19968</v>
       </c>
       <c r="F126" s="62"/>
-      <c r="G126" s="68">
+      <c r="G126" s="60">
         <v>10.1</v>
       </c>
-      <c r="H126" s="69"/>
+      <c r="H126" s="61"/>
     </row>
     <row r="127" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C127" s="18">
@@ -16210,10 +16195,10 @@
         <v>23240</v>
       </c>
       <c r="F127" s="62"/>
-      <c r="G127" s="68">
+      <c r="G127" s="60">
         <v>10</v>
       </c>
-      <c r="H127" s="69"/>
+      <c r="H127" s="61"/>
     </row>
     <row r="128" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C128" s="20">
@@ -16222,27 +16207,63 @@
       <c r="D128" s="21">
         <v>0.254</v>
       </c>
-      <c r="E128" s="63">
+      <c r="E128" s="65">
         <v>26709</v>
       </c>
-      <c r="F128" s="63"/>
-      <c r="G128" s="70">
+      <c r="F128" s="65"/>
+      <c r="G128" s="63">
         <v>12</v>
       </c>
-      <c r="H128" s="71"/>
+      <c r="H128" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="AQ54:AT54"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="CW16:CY16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="E106:F107"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="E127:F127"/>
+    <mergeCell ref="E128:F128"/>
+    <mergeCell ref="G106:H107"/>
+    <mergeCell ref="G109:H109"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="G114:H114"/>
+    <mergeCell ref="G115:H115"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="G120:H120"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="G127:H127"/>
+    <mergeCell ref="G128:H128"/>
+    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="G122:H122"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="G125:H125"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="E1:F1"/>
@@ -16259,52 +16280,16 @@
     <mergeCell ref="E116:F116"/>
     <mergeCell ref="E124:F124"/>
     <mergeCell ref="E125:F125"/>
-    <mergeCell ref="G127:H127"/>
-    <mergeCell ref="G128:H128"/>
-    <mergeCell ref="G121:H121"/>
-    <mergeCell ref="G122:H122"/>
-    <mergeCell ref="G123:H123"/>
-    <mergeCell ref="G124:H124"/>
-    <mergeCell ref="G125:H125"/>
-    <mergeCell ref="E127:F127"/>
-    <mergeCell ref="E128:F128"/>
-    <mergeCell ref="G106:H107"/>
-    <mergeCell ref="G109:H109"/>
-    <mergeCell ref="G110:H110"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="G112:H112"/>
-    <mergeCell ref="G113:H113"/>
-    <mergeCell ref="G114:H114"/>
-    <mergeCell ref="G115:H115"/>
-    <mergeCell ref="G116:H116"/>
-    <mergeCell ref="G117:H117"/>
-    <mergeCell ref="G118:H118"/>
-    <mergeCell ref="G119:H119"/>
-    <mergeCell ref="G120:H120"/>
-    <mergeCell ref="E122:F122"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="E113:F113"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="E106:F107"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="CW16:CY16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="AQ54:AT54"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="S9:U9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
